--- a/news_data/2019_08.xlsx
+++ b/news_data/2019_08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,64 +22,352 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>“제주도 주요 관광지 정보, 클라우드캠 영상으로 본다”</t>
+  </si>
+  <si>
+    <t>효리의단골집 '이조은식당' 가성비 좋은 갈치세트를 맛볼 수 있는 제주도 중문...</t>
+  </si>
+  <si>
+    <t>제주특별자치도, 제주도 정보통신인프라 기반 관광도시 경쟁력 확인</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 500억 융자계획 도청 홈페이지 공고</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 대한항공 일본 직항 중단계획 철회 촉구</t>
+  </si>
+  <si>
+    <t>제22회 제주도 관광기념품 공모전 대상에 '동심'</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 갈치조림정식에 한치물회와 옥...</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 '이조은식당' 다시 찾고싶은 효리의단골집</t>
+  </si>
+  <si>
+    <t>공석 예고된 제주도관광협회장, 차기 후보 '관심'</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주 부속 섬 적극 홍보</t>
+  </si>
+  <si>
+    <t>제주도, 일본 관광객 유치 전략팀 가동…"日직항 노선 유지해야"</t>
+  </si>
+  <si>
+    <t>제주도 성산일출봉맛집 표선 세화해녀의 집, 아일랜드 무비 캠프 페스타 관광...</t>
+  </si>
+  <si>
+    <t>통갈치구이부터 갈치조림까지 효리의단골집 제주도 중문 관광단지 맛집 ‘이조...</t>
+  </si>
+  <si>
+    <t>관광지, 숨은 비경, 음식, 체험 등 9월 제주도 여행 간다면 알아둬야 할 10가...</t>
+  </si>
+  <si>
+    <t>제주도, 중국 남방항공 통해 관광객 대상 홍보 나서</t>
+  </si>
+  <si>
+    <t>총선출마로 회장 공석 예고된 제주도관광협회장 보궐선거는?</t>
+  </si>
+  <si>
+    <t>제주도, 빅데이터로 관광정책 수립한다</t>
+  </si>
+  <si>
+    <t>제주도, 베트남·필리핀 등 동남아 관광시장 본격 공략</t>
+  </si>
+  <si>
+    <t>제주연구원, 제주도 관광 안전 및 위기관리 방안 제안</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 '이조은식당' 뛰어난 맛의 갈치조림</t>
+  </si>
+  <si>
+    <t>제주도, 골프관광객 유치 위한 홍보 '박차'</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 대한민국 국제 관광박람회 참가...관광객 유치 홍보</t>
+  </si>
+  <si>
+    <t>효리의단골집 '이조은식당' 가성비 좋은 갈치정식 제주도 중문 관광단지 맛집</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 보양식 갈치조림정식에 서비...</t>
+  </si>
+  <si>
+    <t>제주도, 대만에서 제주관광 설명회 연다</t>
+  </si>
+  <si>
+    <t>해양수산부-제주도-제주관광공사, 제7회 제주국제크루즈포럼 개막</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 효리의단골집 갈치조림으로 유명해</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집'기원뚝배기' 옥돔구이에 한치물회 그리고 해물갈치...</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 한치물회, 옥...</t>
+  </si>
+  <si>
+    <t>제주도, 일본 관광객 유치 테스크포스팀 본격 가동</t>
+  </si>
+  <si>
+    <t>제주도, '관광통역택시' 24시간 예약시스템 구축</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 갈치조림 외 다양한...</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 접근성 확보...제주취항 항공사 방문 협력방안 논의</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 갈치조림정식에 무료로 한치물...</t>
+  </si>
+  <si>
+    <t>효리의단골집 '이조은식당' 갈치구이부터 갈치조림까지 제주도 중문 관광단지...</t>
+  </si>
+  <si>
+    <t>제주도, '제4회 대한민국 국제 관광박람회'서 최우수상 수상</t>
+  </si>
+  <si>
+    <t>제주도 여행 아이와 가볼만한 곳,실내관광지 '브릭캠퍼스' 인기 높아져</t>
+  </si>
+  <si>
+    <t>제주도 안전실장 양기철 관광국장 승진 임명</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 서비스로 한치...</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '칭찬합시다' 베스트 관광인 선정</t>
+  </si>
+  <si>
+    <t>3가지요리로 즐기는 갈치, 효리의단골집 제주도 중문 관광단지 맛집 ‘이조은...</t>
+  </si>
+  <si>
+    <t>제주도 성산일출봉맛집 세화해녀의 집, 2019 서귀포표선 야해 페스티벌 개최 ...</t>
+  </si>
+  <si>
+    <t>성수기 8월 제주도 가볼만한곳 이색적인 깨알컨셉으로 찍는 재미가 있는 제주...</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 한...</t>
+  </si>
+  <si>
+    <t>제주도, 네비게이션 활용한 관광객 이동패턴 빅데이터 분석연구 추진</t>
+  </si>
+  <si>
+    <t>효리의단골집 '이조은식당' 통갈치구이와 매콤달콤갈치조림 갈치회까지 제주도...</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 통갈치구이와 갈치조림으로 유명한 제주도 중문...</t>
+  </si>
+  <si>
+    <t>선흘2리대책위, 양기철 제주도 관광국장 승진에 반발</t>
+  </si>
+  <si>
+    <t>제주여행의 묘미, 효리의단골집 제주도 중문 관광단지 맛집 '이조은식당' 세가...</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 효리의단골집 '이조은식당' 통갈치구이,갈치회,갈...</t>
+  </si>
+  <si>
+    <t>8월 제주도 중문 관광단지 맛집 갈치조림 눈길 효리의단골집 ‘이조은식당’</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 갈치조림정식에 서비스로 한치...</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 갈치를 세가지버전으로 즐길 수 있는 제주도 중...</t>
+  </si>
+  <si>
+    <t>제주도 용머리해안 인근 핫플레이스 '플레이사계', 용머리관광지 개발사업지와...</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 옥돔구이, 한...</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 무료로 한치...</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 대한항공 제주-일본 직항 노선 중단 발표에 강력 반발</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 이동패턴 빅데이터 분석 연구 추진</t>
+  </si>
+  <si>
     <t>제주도 도민안전실장 양기철, 농업기술원장 정대천, 관광국장 강영돈</t>
   </si>
   <si>
-    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 갈치조림정식에 서비스로 한치...</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 한치물회, 옥...</t>
-  </si>
-  <si>
-    <t>제주도 용머리해안 인근 핫플레이스 '플레이사계', 용머리관광지 개발사업지와...</t>
-  </si>
-  <si>
     <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치물회, ...</t>
   </si>
   <si>
-    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 옥돔구이, 한...</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 무료로 한치...</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 대한항공 제주-일본 직항 노선 중단 발표에 강력 반발</t>
-  </si>
-  <si>
     <t>제주도관광협회 “제주관광 파탄 위기ㆍㆍㆍ기회로 전환해 재도약하자”</t>
   </si>
   <si>
     <t>제주도 "일본 백색국가 제외 영향 제한적…농수산물 수출-관광 산업 타격 등 ...</t>
   </si>
   <si>
-    <t>제주도 도민안전실장 양기철, 농업기술원장 정대천, 관광국장 강영돈 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:35 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도 도민안전실장 양기철, 농업기술원장 정대천, 관광국장 강영돈 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도 도민안전실장 양기철, 농업기술원장 정대천, 관광국장 강영돈 부남철 기자 승인 2019.08.02 14:31 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 올 하반기 정기인사 명단 발표 승진 192명 등 총 682명 이동 사진 윗줄 왼쪽부터 양기철 도민안전실장, 정대천 농업기술원장, 강영돈 관광국장, 현대성 교통항공국장, 박근수 환경보전국장, 조동근 해양수산국장, 김기범 인재개발원장, 고길림 세계유산본부장, 양석하 서울본부장, 김남윤 강정공동체사업추진단장, 김명옥 특별자치제도 추진단장, 이영진 제주시 부시장. 제주특별자치도 도민안전실장(2급 이사관)에 양기철 관광국장이 승진ㆍ임명됐다. 제주도는 5일자로 단행되는 실‧국장급을 포함한 승진 192명, 전보 391명, 행정시 교류 99명 등 총 682명 규모의 올 하반기 정기인사 명단을 2일 발표했다. 농업기술원장에는 정대천 농업기술원 기술지원국장, 환경보건국장(직무대리)에는 박근수 생활환경과장, 농업기술원 기술지원국장에는 최윤식 제주농업기술센터소장, 인재개발원장(직무대리)에는 김기범 비서실장, 서울본부장(직무대리)에는 양석하 일자리과장, 강정공동체사업추진단장에는 김남윤 문화정책과장, 특별자치제도추진단장에는 김명옥 세정담당관, 제주시 부시장(직무대리)에는 이영진 제주도 총무과장이 승진ㆍ임명됐다. 관광국장에는 강영돈 제주평생교육장학진흥원 사무국장, 세계유산본부장에는 고길림 제주시 부시장이 임명됐다. 양한식 돌문화공원관리소장과 강승옥 제주도의회 보건복지안전위원회 전문위원, 이창호 한라산국립공원관리소장은 승진하면서 각각 국회사무처와 기획재정부, 제주국제자유도시개발센터로 파견됐다. 현대성 교통항공국장과 조동근 해양수산국장은 이번에 부이사관으로 직급 승진했다. 비서실장에는 한웅 총무팀장이 승진.임명됐으며 총무과장에는 송종식 서기관이 임명됐다. 제주도는 이번 인사의 기조로 ▲도민행복을 위한 생활민원 적극 해결 ▲민생경제 안정과 일자리 창출을 위한 전문성 제고 ▲일 잘하는 조직 육성에 중점을 뒀다고 밝혔다. 제주도 관계자는 “이번 인사는 민선7기 1주년을 맞아 도정 주요시책의 추진에 힘을 싣도록 했으며 여성 국장급 승진 및 총무팀장, 더 큰내일센터 등 주요 보직에 여성 공무원을 배치했다”라고 밝혔다. 제주도 2019년 하반기 정기인사 명단 다운로드 제주시 2019년 하반기 정기인사 명단 다운로드 서귀포시 2019년 하반기 정기인사 명단 다운로드 부남철 기자  bunch@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 부남철 기자 다른기사 보기 관련기사 [1보]제주도 도민안전실장에 양기철 승진.임명 제주시 자치행정국장 김창현·문화관광체육국장 윤선홍 서귀포시 농수축경제국장 정영헌·청정환경국장 양영일 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치 물회, 옥돔구이 제공 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-04 10:19 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치 물회, 옥돔구이 제공 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치 물회, 옥돔구이 제공 곽종현 기자 승인 2019.08.01 14:06 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 서귀포시 중문관광단지는 제주도의 대표적인 관광명소로 꼽힌다. 제주섬 남쪽 해안가에 있는 관광위락단지로 중문해수욕장을 비롯하여 퍼시픽랜드, 민속마을, 천제연폭포 등 볼거리가 가득하다. 아울러 호텔과 서귀포 중문관광단지 맛집도 즐비해 있다. 서귀포시 상효동과 토평동의 경계를 이루는 영천천 중류에는 용출량이 매우 풍부한 돈내코물이 솟아나고 있다. 이 물은 인근 주민들이 식수로 활용돼 왔었다. 부근 암벽에는 당시의 간이수도 개설을 기념하여 ‘돈내코 수도 기념’이란 글씨와 함께 기부자들의 이름을 새겨 놓고 있다. 현재 돈내코물이 흐르는 남쪽 지구에는 많은 양의 물을 이용하여 유원지가 조성되어 있다. 제주 중문관광단지 관광을 계획 중이라면 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'를 방문해보자. 제주 서귀포시 색달동 관광단지입구 삼거리 인근에 위치한 제주 맛집으로 각종 해산물을 넣은 해물갈치조림에 대한 커다란 인기를 자랑한다. 제주도 중문 맛집 기원뚝배기는 여름 휴가를 맞이하여 다양한 서비스를 제공하고 있다. 먼저 해물갈치조림을 주문하면 여름에만 맛볼 수 있는 시원한 한치 물회를 무료로 제공한다. 그리고 옥돔구이와 성게국도 함께 무료로 제공하여 푸짐한 식사가 가능하다. 또한 통갈치조림정식 A세트 혹은 B세트에도 한치 물회가 서비스로 나오며, 통갈치조림정식 A세트를 주문하면 옥돔구이와 성게국을 하나씩 더 추가로 먹을 수 있다. 이 업소의 한치 물회에는 5가지 과일과 매실 효소를 숙성시킨 육수에 오이, 미나리, 파프리카 등 여러 가지 야채를 넣기 때문에 더운 여름에 먹기에 아주 좋다. 한치는 회로도 주문이 가능하다. 제주 맛집 기원뚝배기 별미의 특징은 해산물 특유의 비린 냄새를 제거하기 위해 약초를 숙성한 천연 양념을 사용하는 것이다. 반면 화학조미료를 일절 배제하여 맛과 건강을 동시에 사로잡는 것이 포인트다. 천연 양념이 진미여서 밥에 비벼 먹을 경우 다른 반찬이 없어도 한 그릇 뚝딱 비울 수 있는 매력을 지녔다. 업체 대표 메뉴인 해물갈치조림은 문어, 전복, 새우 등 다양한 해산물을 넣어 조리한 것이 핵심이다. 푸짐한 비주얼을 자랑해 SNS에서도 먹방 인기 메뉴로 등극한 바 있다. 특히 요리에 사용되는 해산물은 식당 앞에 비치된 수족관에 있는 것만 취급하기 때문에 더욱 신선도 높은 맛을 즐길 수 있다. 메인 요리와 함께 제공되는 기본찬의 퀄리티도 훌륭하다. 제주도 맛집 기원뚝배기는 매일 국내산 재료를 공수하여 전라도 엄마의 손맛을 담은 밑반찬을 조리한다. 내 가족이 먹는다는 마음으로 요리하는 가운데 고객이 맛있게 식사하고 돌아갈 수 있기를 기원하는 마음으로 항상 친절한 서비스를 제공한다. 덕분에 한 번 방문한 이후 단골 고객이 된 사례가 많다. 이른 아침에 여행을 떠나는 손님들을 위해 오전 7시부터 오픈하는 점도 주목할 부분이다. 아침 식사 고객들은 전복뚝배기를 많이 찾는다. 이 메뉴는 10가지 재료를 넣고 끓여 시원한 국물 맛이 일품이다. 기원뚝배기 영업은 연중무휴이며 오후 10시까지 문을 연다. 또한 관광객을 위한 무료 셔틀버스를 통해 호텔 픽업서비스도 제공한다. 아울러 넓은 전용 주차장이 식당 바로 옆에 마련되어 있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 진천군 '쓰레기산'...이러지도 저러지도 못하는 '진퇴양난' "尹, '대통령 임기 5년이 뭐가 대단하다고' 고스란히 돌려준다" 경북도, '경주 통일전' 내년부터 직접 관리 최신기사 진천군 '쓰레기산'...이러지도 저러지도 못하는 '진퇴양난' 진천군 '쓰레기산'...이러지도 저러지도 못하는 '진퇴양난' [포토]충남 천안천 일대에 지난밤 폭우 흔적들 '잡초, 쓰레기 뒤엉켜 지저분' [포토]충남 천안천 일대에 지난밤 폭우 흔적들 '잡초, 쓰레기 뒤엉켜 지저분' 인천항만공사, 인천지역 포워더 지원 본격화 인천항만공사, 인천지역 포워더 지원 본격화 [포토]충남 천안천서 교량 표지 통째로 뽑힌 채 방치 [포토]충남 천안천서 교량 표지 통째로 뽑힌 채 방치 대전학생교육문화원, 초 ‧ 중 ‧ 고 대상 '우리지역 작가 특강' 운영 대전학생교육문화원, 초 ‧ 중 ‧ 고 대상 '우리지역 작가 특강' 운영 Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치물회, 옥돔구이 서비스 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 10:35 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치물회, 옥돔구이 서비스 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치물회, 옥돔구이 서비스 기자명 인터넷뉴스팀 입력 2019.08.08 15:30 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 제주도 하면 가장 먼저 떠오르는 것은 바로 한라산이다. 사실 제주가 한라산이고 한라산이 제주라 해도 과언이 아니다. 남한에서 가장 높은 한라산(1950m)은 제주 어디서나 보이고, 보는 방향에 따라 다르게 보이며, 제주를 가장 제주답게 만드는 한라산은 보는 곳에 따라 멀거나 가깝게 보인다. 서귀포는 따뜻한 기후와 뛰어난 자연 환경을 바탕으로 국제적인 관광지로 이름을 알리고 있다.제주도 서귀포에는 예래 포구가 있다. 예래 포구는 천연적인 양항의 조건을 갖추고 있는데 ‘안캐’에 있는 ‘멜라진 축항’은 1960년대에 만들어진 선착장으로 돌을 일일이 등짐을 져 날라다가 쌓은 것이라고 하는데 자취를 감춘 지 오래다. 포구의 위쪽 바다에는 예래 진황 등대가 위치하고 있다.제주도에는 해산물 요리가 많다. 제주도의 여러 해산물 요리 가운데 갈치조림은 요즘 제주를 찾는 여행객들이 가장 많이 찾는 요리 중 하나다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 싱싱한 통갈치에 문어, 전복, 새우 등을 넣은 해물갈치조림을 선보이고 있다. 해물갈치조림을 주문하면 더운 여름철에만 즐길 수 있는 한치 물회가 서비스로 제공된다. 그리고 옥돔구이와 성게국도 서비스로 제공되어 여럿이 함께 오는 경우 푸짐한 식사가 가능하다. 무엇보다 기원뚝배기 갈치조림에는 천연 약초를 숙성한 양념을 사용하는 것이 특징이다. 해산물로 요리할 경우 특유의 비린 냄새를 잡아야 맛 좋은 요리가 가능한데 기원뚝배기는 천연 약초를 숙성한 양념을 사용하여 해산물 특유의 비린 냄새를 잡고 맛 좋은 갈치조림을 손님들에게 제공하고 있다. 양념은 맛이 좋으면서 건강에도 좋아 밥과 양념을 비벼 먹는 손님들도 많다.해산물 요리는 싱싱한 재료를 사용하여 요리하는 것이 무엇보다 중요하다. 기원뚝배기는 식당 입구에 수족관을 두어 해산물 요리 주문이 들어오면 수족관에 있는 살아 있는 싱싱한 해산물로 요리를 하고 있어 더욱 맛좋은 요리를 즐길 수 있다.제주도 중문 맛집 기원뚝배기는 서비스로 제공하는 것도 많다. 해물갈치조림에 나오는 서비스 메뉴뿐만 아니라 통갈치조림정식 A세트 혹은 B세트를 주문하는 손님에게도 한치 물회를 서비스 제공하고 있다. 또한 통갈치조림정식 A세트에는 기본적으로 나오는 옥돔구이와 성게국에 더해 옥돔구이와 성게국을 하나씩 더 제공하고 있다. 한치는 더운 여름에만 먹을 수 있는 별미에 해당된다. 기원뚝배기 한치 물회는 매실 효소와 5가지 과일을 숙성시킨 육수에 오이, 미나리, 파프리카 등 야채를 넣어 깔끔한 맛이 일품이다. 더운 여름을 맞이하여 한치 물회는 제주를 찾은 여행객들의 더위를 식혀주는 메뉴로 각광을 받고 있다. 한치는 회로도 주문이 가능하다.제주 맛집 기원뚝배기는 이른 아침 시간인 오전 7시부터 오후 10시까지 연중 무휴로 영업하고 있어 언제든 찾을 수 있다. 관광지에서 아침 식사를 할 곳이 마땅치 않고 전날 술자리를 가진 경우 해장을 위한 메뉴도 찾기 어렵다. 그러나, 기원뚝배기는 이른 아침부터 영업하고 있어 제주 중문 아침식사 맛집으로도 잘 알려져 있으며, 여러 가지 아침식사 메뉴 중 전복뚝배기는 10가지 재료를 넣고 끓여 맛이 얼큰하고 시원하여 해장 메뉴로 제격이다.기원뚝배기는 밑반찬도 맛이 좋기로 정평이 나 있다. 제주도 맛집 기원뚝배기는 매일 국내산 재료를 구입하여 전라도 엄마의 손맛을 담아 직접 밑반찬을 만들고 있다. 기원뚝배기 상호의 뜻은 방문한 손님들이 맛있게 식사하기를 기원한다는 내용이 담겨 있는데 업소 대표는 내 가족이 먹는다는 마음으로 식당을 운영하면서 항상 친절한 서비스를 제공하고 있다.한편 기원뚝배기는 셔틀버스를 운행하고 있어 무료로 호텔 픽업서비스를 제공하고 있다. 식당 바로 옆에는 넓은 전용 주차장도 마련되어 있다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 LG생활건강, ‘벨먼X네고왕 바디 세트’ 옥션 단독 기획전 열어 모두가 행복한 세상, 김천! 어린이큰잔치 개최 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 당신만 안 본 뉴스 50대 여배우 ‘조은숙’ 근황 공개...검색량은? "무안하고 당황스러워" 돈스파이크 와이프 성하윤 고충 토로 한그루 이혼에 남편 누구?...과거 애칭·인스타그램 재조명 롤 서버 점검, 언제까지 하나 "차 보닛에 손 대봐" 성하윤 소름 돋게 한 돈스파이크 의심 뭐였길래 50대 여배우 조은숙 "신랑, 어린 걸 불편..." 연하 남편 애칭 뭐길래 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 50대 여배우 ‘조은숙’ 근황 공개...검색량은? 오늘공감 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 10월 4일 오늘의 띠별 운세 '쥐띠·소띠·뱀띠·용띠·개띠 주목' 합참 "북한, 동쪽 방향으로 미상 탄도미사일 발사"...일본 상공 통과한듯 인기기사 1 [오늘의 금값시세] 10월 3일 24·18k 한돈 금시세는? 2 [2022년 10월 공모주 청약 일정] 에스비비테크 수요예측·확정 공모가·상장일은? 3 [2022년 10월 공모주 청약 일정] 샤페론 수요예측·확정 공모가·상장일은? 4 [검은 손이 노린다] 피싱 범죄, 아는 만큼 피할 수 있다 (완) 5 [특징주] 오토앤 주가 급등세... 이유는? 6 [주유소 가격비교] 10월 3일 기름값 싼곳 어디? 최저가 휘발유 1517원·경유 1679원 7 김민기 의원, ``LH 임대주택 부적격 입주자 5년간 4만명 육박`` 8 최영희 의원 “건강보험공단 고액자산가·소득자 구상금 미납 심각” 9 한 총리 "연대·상생으로 재도약…홍익인간 정신으로 새시대 열어가야 10 배준영 의원 "5년간 국세청 과오납환급금 30조5천억 육박" 최신기사 LG생활건강, ‘벨먼X네고왕 바디 세트’ 옥션 단독 기획전 열어 모두가 행복한 세상, 김천! 어린이큰잔치 개최 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 용머리해안 인근 핫플레이스 ‘플레이사계’, 용머리관광지 개발사업지와 인접 &lt; 뉴스 &lt; 문화 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-04 10:04 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 한상진, 부드러운 미중년 미소 [포토] 소이현, 언제나 상큼 미모 [포토] 다샤 타란 'APAN' 참석했어요 [포토] 진선규, 알고보면 부드러운 남자 [포토] 김신록, 신스틸러 여신 'APAN' 참석 [포토] 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 용머리해안 인근 핫플레이스 ‘플레이사계’, 용머리관광지 개발사업지와 인접 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 뉴스 제주도 용머리해안 인근 핫플레이스 ‘플레이사계’, 용머리관광지 개발사업지와 인접 기자명 munhwanews 입력 2019.08.01 16:50 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 지난해 용머리관광지 개발사업이 확정됨에 따라 오는 2020년 12월31일까지 용머리관광지 일대는 개발에 박차를 가하고 있다. 이 사업은 제주도 명소로 알려진 용머리해안을 찾는 여행객들의 편의시설을 확충하기 위한 목적으로 진행된다. 개발사업에 투입되는 비용은 약234억 원에 달하며, 위치는 제주도 서귀포시 안덕면 사계리 일원이다. 이 일대는 용머리관광지 인근 공영주차장 바로 옆인 것으로 확인되었다. 이에 제주도 용머리해안 인근 핫플레이스로 자리 잡은 ‘플레이사계’에 대한 관심도 덩달아 높아지고 있다. 제주도 명소 인근에 자리한 상가 중 단일규모로는 ‘플레이사계’가 가장 큰 규모를 자랑하는데, 용머리해안의 절경을 훼손하지 않기 위해 1~2층, 43개 호실을 확보했다. 플레이사계가 투자자들에게 주목받는 이유는 용머리관광지 개발사업지와 아주 인접하기 때문이다. 플레이사계 역시 용머리관광지 인근 공영주차장 바로 옆이라는 것이 상당한 이점으로 작용하는 셈이다. 부동산 시장에서 개발지역 인근에 위치한 상가나 아파트, 타운하우스 등은 향후 발전가능성이 높게 점쳐지기 때문에 투자자들은 이를 눈여겨보게 된다. 플레이사계는 용머리관광지 일대에서 여행객들에게 쇼핑과 음식, 문화, 힐링을 선사하면서 용머리관광지 개발사업지와 인접하기에 향후 발전가능성이 매우 높게 평가되고 있다. 플레이사계 관계자는 “용머리 해안을 방문하는 여행객들은 매년 평균 1,500만 명에 달한다. 매년 수많은 관광객이 용머리 해안을 찾아오기 때문에 서귀포시 입장에서는 관광객들의 편의를 위해 개발사업을 할 수밖에 없었다고 본다”면서, “플레이사계는 용머리관광지 개발사업지와 매우 가깝기 때문에 제주도 투자자 혹은 제주도 상가를 구하는 분들의 문의가 빗발치고 있다”고 전했다. 이처럼 제주도 서귀포 용머리관광지 일대는 매년 수많은 관광객이 방문하는 제주도의 명소로 수학여행, 가족여행, 대학교MT 등 다양한 여행구성원들이 찾고 있다. 또한 용머리관광지 주변으로는 산방산랜드와 하멜상선전시관 등 가볼만한곳이 많은 것으로 알려져 있다. 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' munhwanews의 다른 기사 보기 munhwanews press@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 한상진, 부드러운 미중년 미소 [포토] 소이현, 언제나 상큼 미모 [포토] 다샤 타란 'APAN' 참석했어요 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+    <t>“제주도 주요 관광지 정보, 클라우드캠 영상으로 본다” 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 11일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 특징주 디지털화폐 이재명 테슬라 G6 e 경제 로봇 이데일리 단독 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 팜이데일리 마켓in 스냅타임 “제주도 주요 관광지 정보, 클라우드캠 영상으로 본다” SK브로드밴드, (사)제주특별자치도 관광협회와 업무협약 체결안전관광 위한 ‘제주도 주요 관광지 클라우드캠 설치 사업’ 계약제주관광협회가 운영하는 모바일앱에서 클라우드캠 API 연동 등록 2019-08-28 오전 8:54:29 수정 2019-08-28 오전 8:54:29 가 가 김현아 기자 기자구독 페이스북 트위터 메일 프린트 스크랩 url복사 [이데일리 김현아 기자] 제주도를 여행하고 있는 관광객 A씨는 시시각각으로 변하는 제주도의 날씨로 고생하고 있었다. 관광지에 실제 방문해 보니 비가 내리고 있어 관광을 제대로 즐기지 못한 것이다. A씨는 제주관광협회가 운영하는 ‘탐나오’ 모바일앱에서 SK브로드밴드 클라우드캠이 제공하는 실시간 영상을 통해 주요 관광지의 현재 날씨를 눈으로 확인할 수 있었다. 이에 비가 오지 않고 사람이 덜 붐비는 OO공원으로 이동해 관광을 즐겼다. SK브로드밴드(대표이사 사장: 박정호)와 제주특별자치도 관광협회(회장 김영진)가 제주종합비지니스센터에서 ‘제주관광활성화를 위한 공동협력’ 업무협약을 체결하고 양 단체 간 협력을 강화해 나가기로 했다.양측은 제주도 안전관광 실현을 위한 ‘주요관광지 CCTV 설치지원 사업’ 계약도 체결했다. 주요관광지에 SK브로드밴드 클라우드캠을 설치하여 관광지의 사건·사고를 예방하고 관광객들의 안전을 강화할 계획이다. 클라우드캠으로 촬영한 주요 관광지의 실시간 영상은 제주관광협회에서 운영하는 종합관광예약 모바일앱 “탐나오”와 관광정보 웹사이트 “하이제주”에 응용프로그램인터페이스(API) 연동을 통해 제공한다. 이를 통해 관광객들은 제주도 주요 관광지의 직관적인 날씨와 혼잡도 정보 등을 실시간으로 확인할 수 있다. 양 단체는 제주관광 활성화를 위한 콘텐츠를 제작하고 보유한 온·오프라인 채널을 통해 홍보활동을 전개할 예정이다. 제주도 지역경제 활성화에 기여하고 지역과 함께 동반성장할 계획이다.고영호 SK브로드밴드 성장트라이브장은 “이제 클라우드캠은 시큐리티(Security) 영역을 넘어 영상을 활용해 다양한 영역에서 새로운 가치를 창출하고 있다”며 “이번 협약을 통해 클라우드캠이 제주도의 관광과 지역경제 활성화에 기여하고 안전한 관광이라는 사회적 가치 창출을 위해 노력하겠다”고 밝혔다. 주요뉴스 "내 노후 어쩌나" 국민연금 상반기 적자 76조 6600억 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 선우은숙, 4살 연하 유영재 아나운서와 재혼 혼인신고 마쳐 [공식] 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 실시간급상승 뉴스 1전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2선우은숙, 4살 연하 유영재 아나운서와 재혼 "혼인신고 마쳐" [공식] 3[누구집]남궁민 7년 열애끝 웨딩마치, 신혼집은? 4"저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 53선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 카드뉴스[카드뉴스] 2022년 10월 11일 오늘의 운세 오늘의포토 왼쪽 오른쪽 [포토] 2022 제약바이오 채용 설명회 [포토]필리핀 복싱 영웅 파키아오의 미소 [포토]깊어가는 가을을 즐기세요! [포토]'국정감사 출석하는 최재해 감사원장' [포토]간담회에서 발언하는 김현숙 여가부 장관 [포토]오세훈 시장, 2022 서울워크에서 청년들과 '토크 콘서트' [포토]대체공휴일에 열린 집회 [포토]건강한마당, 댄스 배우는 시민들 [포토]쌀쌀해진 날씨, 겨울옷 입은 나무들 [포토]상춘객 유혹하는 하얀 코스모스 소셜 댓글by LiveRe 많이 본 뉴스 뉴스 증권 연예 1 전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2 “혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 3 그녀의 비밀계약… 90년대 ‘강남 큰손’ 조춘자의 거짓말이었다 4 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 5 '월급 500만원' 아이엠 택시기사 "콜·예약 시스템으로 수익 다변화" 6 대통령 직접 방문했지만…국공립 어린이집 예산 19% 삭감 7 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 8 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 9 송가인, 목포콘서트→팬미팅 '바쁘다 바빠' 10 '음주측정 거부 체포' 신혜성 "변명의 여지 없다..죄송" 1 삼성전자마저…코스피, 3분기 실적 대참사 시작되나 2 "금리 급등하는 지금이 적기" vs "섣불리 덤볐다가 큰코다쳐" 3 스팩합병 전성시대…역대급 흥행에 덩치 커진다 4 글로벌 기업들 ESG 속도 내는데 G에 발묶인 한국 5 KPMG, '아시아 최우수 리스크 컨설팅펌' 선정 6 상장사 10곳 중 1곳 주가 1년새 '반토막' 7 [미리보는 이데일리 신문] 수리남 제작사도 참패…고금리에 기업 돈줄 마른다 8 [뉴스새벽배송]월가 황제 “S&amp;P 3000선 붕괴”…미 증시 또 약세 9 HLB생활건강 "새치 커버 샴푸에 논란중인 염모제 성분 없어" 10 美 CFA협회 "ESG 자격증 도입, 韓 거버넌스 개선 기대" 1 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 2 임창정·서하얀, 고급 빌라서 아파트로… "이사만 7번째" 3 [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' 4 '역설의 장미'…장밋빛에도 저마다 사연이 있다 [e갤러리] 5 '작은 아씨들' 김고은, 10월 배우 브랜드 평판 1위 6 '아바드림' 오승근, 故 김자옥과 생사초월 듀엣 감동 7 '얼죽연' 최시원, 장난→진중 퍼펙트 남사친 열연…역시 '로코' 장인 8 '고딩엄빠2' 19세 엄마 김가연, 4세 딸 발달 장애 검사 결과에 '오열' 9 '미우새' 김준호, 조기 퇴근 걸고 처절한 몸부림 '폭소' 10 '삼식이 삼촌' 송강호→변요한·이규형·서현우 캐스팅 라인업 완성 [공식] 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 알지노믹스, 간암 치료제 美FDA 임상시험계획 승인 퓨쳐켐, 전립선암 치료제 'FC705' 멕시코 특허 취득 에이비엘바이오, 암 단백질 'B7-H3' 타깃 단독항체 일본 특허 취득 지씨씨엘 "당화혈색소측정 'NGSP' 최고 레벨 획득" 코아스템 “자사 루게릭병 치료제, 대조군比 생존기간 5.6년 길어”...FDA 통과 ‘청신호’ 스무살의 설레임 스냅타임 왼쪽 오른쪽 유튜브 고유 아이디 ‘핸들’ 기능 추가...이름쟁탈전 벌어질까 2022년 10월 11일 오늘의 운세 2022년 10월 10일 오늘의 운세 경기도, 도민과 함께 576돌 ‘한글아 놀자’ 행사 ‘고딩엄빠’는 환상, 이 잔인한 통계를 보라 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 이제부터가 진짜 하락장이다 JW중외제약, 1500억 혈우병 치료제 시장 통째로 삼킨다 아름다운 빛으로 풀어낸 정조의 꿈 수원, 정조의 발자취를 따라서 1기 신도시 마스터플랜이 뭐길래 두근두근 핫포토 우승 가자! 北 전술핵운용부대 '드레스를 조심해' "어이가 없네" 왼쪽 오른쪽 나이스 샤아앗~ㅣ골프in [포토]박민지 '시즌 5승 만들어준 볼입니다' 당신의 드림카는?ㅣ오토in 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 왼쪽 오른쪽 이슈기획 ㅣ 2022 국정감사 "비위판사 연금 깎겠다던 법원, 여론 잦아들자 '도입 불가'"[2022국감] 이슈기획 ㅣ 금리 인상 여파 "한은 금통위, 10월 이어 11월도 빅스텝 나설 듯" 이슈기획 ㅣ 집값, 폭락 vs 그래도 상승? 수억씩 `뚝뚝`…부동산 한파에 뉴타운도 ‘악’ 소리 이슈기획 ㅣ 尹 대통령 비속어 파문 尹대통령 “그냥 먹어도 되나?”… 김남국 “큰형님 마냥 습관적 반말” 이슈기획 ㅣ 신당역 역무원 피살 사건 '신당역 스토킹 살인' 전주환, 오는 18일 재판절차 시작 오늘의 주요 기사 월가 황제 "고통 속 S&amp;P 3000선 붕괴"…바닥 안 보인다 "내 노후 어쩌나" 국민연금 적자 '76조 6600억' 정진석 “조선은 썩어서 망해”…野 “친일 앞잡이, 천박” 맹비난 .국감 취재하던 기자, 화장실서 심정지로 쓰러져…병원 이송 .선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" .쇼핑몰 대박 난 강민경, '65억 건물' 매입해 신사옥 입주 ."尹, 한동훈 애정어린 눈으로"...'이재명 대북코인' 부메랑? .상폐 심판대 선 신라젠..16만 개미 눈물 닦을까 .코레일, GTX 개통 시 연간 1000억원 손해…재무건전성 ‘빨간등’ 알립니다 2022년 하반기 경력기자 모집 제9회 이데일리 사진공모전 당선작 안내 이데일리 주식회사 제22기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - 한국조선해양, 연료전지 대형선박 실증 나선다 - 한국조선해양, 오세아니아 지역서 LNG선 3486억원에 수주 - 현대삼호중공업 LNGC 1척 수주…계약금액 3468억원 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>제주특별자치도, 제주도 정보통신인프라 기반 관광도시 경쟁력 확인 &lt; 제주본부 &lt; 전국뉴스 &lt; 기사본문 - 시사포커스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 12:53 (화) 로그인 회원가입 후원하기 Family Site 시사신문 땡큐뉴스 포커스tv post blog facebook kakao instagram 시포TV 시사&amp;이슈 머니&amp;머니 라이프 엔터테인먼트 시사&amp;이슈 정치 국제 사회 문화 머니&amp;머니 경제정책 산업 소비자경제 금융 테크 숫자콕 시사&amp;이슈 머니&amp;머니 핫토픽 어린이 일자리 바이러스 전국뉴스 경기북부 경기서부 경기남부 대구경북본부 울산경주 전남광주 제주본부 대전·충남 전남동부 전남서부 오피니언 칼럼 인터뷰 기자수첩 포토뉴스 포토 시사&amp;이슈 머니&amp;머니 엔터테인먼트 전국뉴스 핫토픽 시사만평 보도자료AD 전체메뉴 버튼 검색하기 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주특별자치도, 제주도 정보통신인프라 기반 관광도시 경쟁력 확인 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국뉴스 제주본부 제주특별자치도, 제주도 정보통신인프라 기반 관광도시 경쟁력 확인 기자명 문미선 기자 입력 2019.08.29 15:18 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 아시아오대양정보산업기구(ASOCIO) 스마트시티 어워드 ‘디지털 정부 기관상’ 수상, ASOCIO스마트시티어워드.브로슈어.사진/ASOCIO [제주 취재본부 / 문미선 기자] 제주특별자치도는 태국에서 열린 ‘2019 ASOCIO Smart City Summit BANGKOK’에서 ASOCIO Smart CIty Awards 관광 부문 ‘디지털 정부 기관상’을 수상했다고 밝혔다. ASOCIO 스마트 시티 어워드는 아시아·대양주 24개국이 참여해 지난 84년 일본 도교에서 설립된 국제민간기구 ASOCIO가 주관하는 ‘ASOCIO 지능형 도시 정상회의’에서 수여하는 상이다. 본상은 인구 2만 이상 2백만명 이하의 도시를 대상으로 삶의 질, 인프라, 정부서비스, 경제성장, 교육·연구 정도 등을 평가하여 관광, 문화, 농업, 노령화사회, 세계유산, 일반 부문 등 총6개 부문에서 각 부문별로 수상도시를 선정한다. 제주도의 관광부문 디지털 정부 기관상 수상은 공공 Wi-Fi 인프라 구축과 이를 통해 수집된 빅데이터 활용 신규 비즈니스 모델 개발 지원, 대중교통 이동편의와 안전을 확보하는 대중교통 기반 이동형 사물인터넷 통합 플랫폼 구축, 민관 협업모델 발굴 및 확대 서비스 등 스마트 관광 플랫폼과 스마트 대중교통 체계 구축 노력을 통한 제주도 관광산업 경쟁력 제고가 배경이 된 것으로 보인다. 제주특별자치도 노희섭 미래전략국장은 “향후에도 관광, 교통뿐만 아니라 안전, 환경 등 다양한 분야에서 전세계의 다른 도시에 모범이 될 수 있는 성공적인 스마트 아일래드 모델을 만들어 나갈 계획이다”고 밝혔다. 한편, 한국은 ASOCIO Smart City Awards에서 관광부문 ‘디지털 정부 기관상’을 수상한 제주도 외에도 세종시가 일반부문에서 수상도시로 선정됐다. 키워드 #시사포커스 #ASOCIO #아시아대양주정보산업기구 #관광부문 #ASOCIO스마트시티어워드 #ASOCIO스마트시티서밋 #디지털정부기관상 문미선 기자 sisafocus09@sisafocus.co.kr 다른기사 보기 저작권자 © 시사포커스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 위르겐 클롭 감독, 현재 분위기로는 리버풀서 경질될 것… 팬들도 외면 [포토] 3년 만에 정조대왕 능행차하시다. [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 7일 15일 30일 1 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 2 [포토] 3년 만에 정조대왕 능행차하시다. 3 [포토]K-컬쳐 퍼레이드, 나드리 나온 시민들 즐거운 동참. 4 눈속임 설계 '다크패턴'…소비자 보호 위한 법 마련 필요 5 3년간 전기車 3배 늘었지만…고속도로 충전시설 '턱없이 부족' 6 [기획] 국감 화두로 떠오른 문재인, 민주당 ‘文 구하기’ 성공할까 7 인터 마이애미, 맨유서 입지 흔들리는 호날두 내년 1월 영입 제안? 8 [국감] 모다모다샴푸 위해성 성분 사용 논란, 보건복지위 국감장 후끈 9 [기획] 게이트 전쟁? 與 “성남FC·새만금 게이트” vs 野 “대감 게이트” 10 [국감] 지성호 “난 인권유린국 출신, 기업 자유 보장‧근로자 보호하는 한국에 충격” 1 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 2 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 3 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 4 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 5 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 6 위르겐 클롭 감독, 현재 분위기로는 리버풀서 경질될 것… 팬들도 외면 7 [포토] 3년 만에 정조대왕 능행차하시다. 8 [포토]K-컬쳐 퍼레이드, 나드리 나온 시민들 즐거운 동참. 9 공유 PM 업체들, ‘블루오션’ 전기자전거 사업 뛰어든다 10 눈속임 설계 '다크패턴'…소비자 보호 위한 법 마련 필요 1 '청춘블라썸' 윤현수-오유진, '완벽재현' 캐릭터 포스터 전격 공개 2 [포토] 꽃말 '단란한 일가' 보라빛 버베나 꽃밭에서 추억만들기..... 3 [기획] 이준석 불송치에 상황 반전된 국힘, 윤리위도 '무리한 징계' 도마위 4 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 5 [포토] 꽃말 '섹시한 여인' 가우라 꽃밭에서 아름다운 데이트를... 6 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 7 [포토] 흥인지문 앞에서 육의전 축제 8 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 9 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 10 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 단독기사 의정부시 녹양역세권 개발, '토지주 vs 조합' 5년 소송 끝에 조합 승소 [경기북부 /고병호 기자] 경기 의정부시와 경기도가 도시개발계획에 따라 지정 승인한 의정부시 녹양역세권 개발 사업 중 주거지역에 해당하는 녹양동 주상복합 스카이59조합아파트 사업은... 요거프레소 방지법, 발의 초읽기…가맹본부 예상매출액 과장 엄단 남양주시체육회장, 본인 운영 법인서 횡령·분식회계 논란 사건사고 법원, 초등학생 성추행한 스쿨버스 운전사… 징역 7년 선고 경북소방, 포항제철소 화재 ···전국동원령 1호 발령 경찰,불법 대마잎 판매 일당 무더기 검거 경북 봉화 광산서 붕괴 사고 발생 공군 기강 추락···훔친 차로 고속도로 '음주 사고' 연예·방송 스포츠 엑소 첸, 3년 만에 신곡 '사라지고 있어' 31일 발매 [시사포커스 / 이청원 기자] 그룹 엑소 첸이 3년 만에 새 솔로 앨범으로 귀환한다.11일 소속사 측은 첸이 오는 31일 세 번째 미니앨범 '사라지고 있어 (Last Scene)'... 드림캐쳐, '아포칼립스'로 6개월 만에 컴백 이현이, SBS플러스 '우아달 리턴즈' MC 발탁…10일 첫방 엘링 홀란드, 한니발 렉터 스타일 식단 공개로 충격… 20골 비결? [시사포커스 / 이근우 기자] 엘링 홀란드(22, 맨체스터 시티)의 식단에 현지 팬들이 큰 충격을 받았다.영국 매체 ‘데일리 메일’은 10일(한국시간) “홀란드는 이번 시즌 벌써 ... 인터 마이애미, 맨유서 입지 흔들리는 호날두 내년 1월 영입 제안? 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 건강 여행 인터뷰 시민단체 '민주당, 이재명 후보 교체하라', 왜? [시사포커스 / 이혜영 기자] 친문(문재인)성향의 시민단체인 '스페이스민주주의'가 더불어민주당을 향해 불만을 표하면서 이재명 대선후보 사퇴를 촉구하고 나선 가운데 김연진 스페이스민... '탈당' 박지효 "민주당에 비판·자성 들어설 자리 없어" 하단영역 하단메뉴 신문사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 Top 매체정보 발행처 : (주)일간시사신문 제호 : 시사포커스 서울특별시 마포구 와우산로3길 3 (시사포커스 빌딩) 대표전화 : 02-323-2223 등록번호 : 서울 아 00397 등록일자(발행일자) : 2007-07-10 대표이사 : 김명자 발행·편집인 : 김명자 청소년보호책임자 : 김명자 Copyright © 2022 시사포커스. All rights reserved. mail to sisafocus02@sisafocus.co.kr 위로 전체메뉴 전체기사 시포TV 전체 시사&amp;이슈 머니&amp;머니 라이프 엔터테인먼트 시사&amp;이슈 전체 정치 국제 사회 문화 머니&amp;머니 전체 경제정책 산업 소비자경제 금융 테크 포토뉴스 전체 포토 시사&amp;이슈 머니&amp;머니 엔터테인먼트 전국뉴스 핫토픽 시사만평 연예·스포츠 전체 연예 스포츠 숫자콕 전체 시사&amp;이슈 머니&amp;머니 핫토픽 전체 어린이 일자리 바이러스 전국뉴스 전체 경기북부 경기서부 경기남부 대구경북본부 울산경주 전남광주 제주본부 대전·충남 전남동부 전남서부 오피니언 전체 칼럼 인터뷰 기자수첩 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 500억 융자계획 도청 홈페이지 공고 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 관광진흥기금 500억 융자계획 도청 홈페이지 공고 등록 2019.08.27 11:10:01 작게 크게 제주도 CI. 【제주=뉴시스】강정만 기자 = 제주특별자치도는 '2019년 하반기 제주관광진흥기금 융자지원 계획'을 27일 도청 홈페이지를 통해 공고했다고 밝혔다. 이 기금은 이에 따라 오는 28일부터 9월10일 까지 10일간 신청·접수 받는다.자세한 내용은  도 홈페이지 입법·고시·공고에서 확인할 수 있다. 융자추천 규모는 총 500억원으로 ▲ 노후전세버스교체, 우수관광기념품 개발 등을 포함한 경영안정자금에 300억 ▲ 관광시설 및 숙박업 등 개보수자금 100억 ▲ 관광객이용시설 및 관광편의시설 일부업종 등 건설자금에 100억을 배정했다. 대출금리는0.75%를 우대하는 분기별 변동 금리가 적용된다. 융자기간은 자금별로 달라 3년에서 5년이다. 접수처는 도 관광정책과( 064-710-3344∼3316),  행정시 관광진흥과, 제주특별자치도관광협회 등이다. 대상자 선정결과는 9월 중 도청 홈페이지에 공고한다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 5예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 범한퓨얼셀, 12일 기업설명회 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 복지시스템 개발인력 대거 이탈에 안정화 시일 걸릴 듯 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 범한퓨얼셀, 12일 기업설명회 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 김해시, 올해 계약심사 35억 절감…부실시공 예방 "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 7예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 대한항공 일본 직항 중단계획 철회 촉구 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회, 대한항공 일본 직항 중단계획 철회 촉구 파이낸셜뉴스입력 2019.08.20 18:05수정 2019.08.20 18:05 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 11월1일부터 도쿄·오사카 노선 중단…제주관광산업 위기19일 대한항공·국토교통부에 중단 결정 철회 건의서 전달 제주도관광협회가 19일 오전 제주웰컴센터에서 '일본 경제 보복에 따른 대응과 제주관광 재도약을 위한 관광인의 입장'을 발표하고 있다. 2019.08.19. [뉴시스] [제주=좌승훈 기자] 제주특별자치도관광협회(회장 김영진)은 대한항공이 일본의 수출규제로 촉발된 국내 '보이콧 재팬' 확산과 적자를 이유로 오는 11월 1일부터 제주기점 일본(도쿄·오사카) 직항노선 운항을 중단키로 한데 대해 철회를 촉구하고 나섰다. 협회는 20일 보도자료를 통해 “대한항공의 제주∼일본 노선 운항 중단은 관광업계의 신의와 도민 정서를 저버리는 것”이라고 반발했다. 협회는 “도내 관광업계의 어려운 현실을 감안해 항공사들에게 일본노선 운휴·감편 자제를 요청해 왔으나 수익성만을 잣대로 한 이번 운항 중단 계획 발표는 도내 모든 관광인들의 고통을 가중시키는 치사”라며 “대한항공 역시 호텔·관광지 등 제주 관광산업 전반에서 사업을 전개하고 있는 만큼 어려운 여건 속에서도 서로 타협해 현 상황을 공동으로 타개해 나가기를 희망한다”고 말했다. 협회는 이날 오후 대한항공과 국토교통부 측에 일본노선 중단 계획 철회를 재차 요청하는 건의문을 전달했다고 밝혔다. 앞서 대한항공은 최근 한·일 관계 경색으로 인한 일본노선 수요 감소를 감안해 일부 노선의 운휴·감편 조치 등 공급 조정에 나섰다. 대한항공은 이에 따라 11월 1일부터 제주~도쿄(나리타·주 3회)와 제주~오사카(주 4회) 등 제주 기점 일본 직항노선의 운항을 중단한다. 대한항공은 대신 국내선 공급을 늘려 제주~김포 노선의 경우 주 14회 증편하고 중·대형기 추가 투입을 적극 추진할 예정이라고 설명했다. 또 제주~포항 노선은 다음달 16일부터 주 7회 신규 취항하며, 제주~울산 노선은 주 2회 늘려 주 7회 증편 운항키로 했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제22회 제주도 관광기념품 공모전 대상에 '동심' &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 13:05 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제22회 제주도 관광기념품 공모전 대상에 '동심' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제22회 제주도 관광기념품 공모전 대상에 '동심' 기자명 이동건 기자					(dg@jejusori.net) 입력 2019.08.26 17:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 이중섭 작가의 작품 활용한 방향제...금상은 동백꽃제주 제주도와 제주도관광협회는 26일 ‘제22회 제주도 관광기념품 공모전’ 시상식을 개최했다고 밝혔다. 201개 작품이 출품된 올해 공모전에서 이중섭 작가의 작품을 활용한 방향제 ‘동심’이 대상을 수상했다. 또 동백꽃으로 만든 전통주 ‘동백꽃제주’가 금상을 받았다. 올해 22회째 맞은 공모전에서 심사위원회는 상품성과 디자인, 실용성, 품질 등을 심사해 수상작을 선정했다. 이날 시상식에서는 대상, 금상과 함께 은상 4개, 동상 4개, 장려상 8개가 시상됐다. 수상자에게는 제주도지사 상장과 함께 총 3400만원의 상금이 주어졌다. 제주도와 협회는 입상자들에게 상품개발자금을 지원하고, 지식재산권 권리화, 제주도 관광진흥기금 융자자격, 박람회 참가, 공항·여객선터미널·관광안내서 전시·홍보 등을 지원할 계획이다. 수상작은 여행온라인 마켓 ‘탐나오’에 입점되며, 제주여행정보 홈페이지 ‘비짓제주’를 통해 홍보된다. 수상작은 오는 9월부터 제주국제공항 1층에 전시될 예정이다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 제주답게 만들기를~~ 2 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 3 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 4 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 5 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 6 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 7 못간다 8 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 9 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 10 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 한치물회와 옥돔구이 무료 제공 이벤트 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 한치물회와 옥돔구이 무료 제공 이벤트 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 한치물회와 옥돔구이 무료 제공 이벤트 곽종현 기자 승인 2019.08.27 12:06 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 제주도 서귀포는 남쪽으로 해양을 끼고, 북쪽으로는 겨울철의 북서 계절풍을 가로막는 한라산을 등지고 있기 때문에 온화한 해양성 기후를 나타낸다. 다양한 생물들의 보고인 서귀포는 수천 종의 동식물 중에서 식용이 가능한 자원을 식재료로 선발하여 톡특한 향토 음식 문화를 형성하였다. 이는 화산섬이라는 특수성과 함께 중국 대륙과 해양을 연결하는 요충지여서 오래 전부터 이들과의 교류를 통해 다양한 식문화를 흡수하면서 제주도만의 음식 문화를 만들어 왔던 것이다.1950년대 이전의 서귀포 지역 음식은 일반적인 한식과 다른 독특한 문화를 가지고 있었다. 자연환경이 타 지역과 다르고, 역사의 근원과 흐름, 사람들의 풍속과 식재료 등이 다르기 때문에 결과적으로 식문화도 달라졌던 것이다. 따라서 서귀포 지역 음식은 한식에 속하는 향토 음식들 중 하나로 보기보다는 또 다른 한국의 민족 음식이라고 할 수 있다. 서귀포 지역의 향토 음식의 종류는 타 지역에 비해 종류가 많은데 음식의 종류가 많다는 것은 곧 먹거리의 풍족함을 의미하는 것이 아니라 오히려 운명적인 생활 여건에 적응하면서 보다 나은 먹거리를 얻기 위한 노력의 산물이라 할 수 있다.서귀포의 톡특한 먹거리 문화를 즐기는 여행도 즐거움을 준다. 제주도는 은빛 갈치가 유명하기 때문에 갈치조림은 제주도를 대표하는 먹거리라 할 수 있다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 제주 인근 바다에서 잡은 싱싱한 은빛 통갈치에 문어, 전복, 새우 등 다양한 해산물을 넣은 해물갈치조림 요리를 선보이고 있다. 제주도에는 갈치조림 문화가 발달하였는데 기원뚝배기는 맛과 영양을 위해 천연 약초를 숙성한 양념을 사용하고 있다. 이로 인해 해산물 특유의 비린 냄새가 없고 맛이 좋아 통갈치와 해산물은 물론 양념을 밥에 비벼 먹어도 밥 한 그릇은 금세 비우게 된다.제주 중문 맛집 기원뚝배기에서 제공하는 무료 서비스는 푸짐한 제주도 인심을 느끼게 한다. 이 업소의 주력 메뉴인 해물갈치조림을 주문하면 한치 물회와 옥돔구이를 무료로 먹을 수 있다. 또한 통갈치조림정식 A세트 혹은 B세트를 주문해도 한치 물회를 서비스로 먹을 수 있는데 실제 한치 물회는 더운 여름에만 맛 볼 수 있는 여름철 별미에 해당된다. 한치는 회로도 주문해서 먹을 수 있으며, 한치 물회에는 매실 효소와 5가지 과일을 숙성시킨 육수를 사용하여 더운 여름에 시원하게 먹을 수 있다. 그리고 오이, 미나리, 파프리카 등 여러 가지 야채가 함께 들어가기 때문에 더위를 식히는 별미로 인기다.별도로 주문할 필요 없이 해물갈치조림을 주문하면 옥돔구이와 성게국도 서비스로 먹을 수 있다. 그리고 통갈치조림정식 A세트에는 옥돔구이와 성게국을 추가로 하나씩 더 제공하기 때문에 손님이 여러 명이 오더라도 부족함 없이 식사를 할 수 있다.식사를 하게 되면 밑반찬에 손이 많이 가기 마련이다. 제주도 맛집 기원뚝배기는 국내산 재료를 직접 구입하여 밑반찬을 만들기 때문에 손님들의 입맛에 맞는 계절별 밑반찬을 제공하고 있다. 전라도 엄마의 맛깔스런 솜씨를 바탕으로 내 가족이 먹는다는 정성을 담아 만든 밑반찬은 여행 기간동안 손님들이 재방문할 정도로 인기를 얻고 있다.제주 맛집 기원뚝배기는 아침 해장 메뉴는 물론 다양한 아침식사 식사를 준비하고 있어 제주 중문 아침식사 맛집으로도 이름 나 있다. 연중 무휴로 오전 7시부터 오후 10시까지 영업하고 있으며, 아침 메뉴 가운데 전복뚝배기는 10가지 재료를 넣고 끓여 시원하고 얼큰한 맛에 해장 메뉴로 많이 찾고 있다.손님들의 편의를 위해 무료 호텔 픽업 서비스를 제공하고 있다. 또한 넓은 주차장도 있어 주차도 매우 편리하다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>공석 예고된 제주도관광협회장, 차기 후보 ‘관심’ - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 공석 예고된 제주도관광협회장, 차기 후보 ‘관심’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 공석 예고된 제주도관광협회장, 차기 후보 ‘관심’ 문유미 기자 승인 2019.08.19 16:21 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 4선 연임한 김영진 회장 내달 말 사퇴 예상 협회 안팎서 유력인사 4~5명 출마 거론 내년 총선 출마를 공식 선언한 김영진 제주특별자치도관광협회장이 오는 9월 말쯤 회장직에서 물러날 것으로 예상되면서 차기 협회장 후보군에 관심이 모아지고 있다. 19일 도내 관광업계 등에 따르면 김영진 제주도관광협회장은 내년에 치러질 제21대 국회의원선거 출마 준비를 위해 당초 예정대로 오는 9월 말쯤 회장직을 사퇴할 계획이다. 아직 임기가 남은 김 회장이 중도 사퇴할 경우 보궐선거를 통해 차기 회장을 선출하게 되며, 차기 회장의 임기는 2021년 2월까지가 된다. 특히 제주도관광협회 회장직을 4선째 연임하고 있는 김 회장의 사퇴가 기정사실화되면서 8년여 만에 새로운 수장이 될 차기 회장 후보군에 벌써부터 관심이 쏠리고 있다. 도내 관광업계와 도관광협회 안팎에서는 차기 회장 후보군으로 4~5명의 이름이 자천타천 오르내리고 있다. 다만 현재까지 출마가 유력한 후보로는 고승철 (주)삼영관광 일출랜드 대표와 부동석 중문덤장 대표가 거론되고 있다. 두 사람 모두 현재 협회 부회장직을 맡고 있으며 고승철 대표는 관광지업분과위원장, 부동석 대표는 외식업분과위원장도 각각 맡고 있다. 이외에도 2~3명의 유력 인사들이 차기 협회장직 출마를 고심하고 있는 것으로 전해지고 있다. 협회 선거관리규정에 따라 회장이 사퇴할 경우 보궐선거를 위한 별도의 선거관리위원회를 구성해 차기 회장 선출을 위한 세부 절차와 일정 등을 관리하게 된다. 선관위가 구성되면 30일 이내로 선거일이 결정돼 후보 등록 등 절차가 진행된다. 제주도관광협회 관계자는 “현직 회장이 사퇴 의사를 밝히긴 했지만 아직 구체적으로 결정된 것은 없다”며 “회장직이 공석이 되면 차기 회장 선출을 위한 선관위가 우선 구성돼야 하며, 관련 절차를 거쳐 대의원총회에서 회장이 선출될 것”이라고 말했다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주 부속 섬 적극 홍보 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주 부속 섬 적극 홍보 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 제주도관광협회, 제주 부속 섬 적극 홍보 기자명 문서현 기자 입력 2019.08.19 09:55 수정 2019.08.19 10:01 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제4회 대한민국 국제 관광박람회서 최우수상 수상 제주도와 제주도관광협회가 지난 15~18일 일산 킨텍스에서 개최된 제4회 대한민국 국제 관광박람회에 참가해 최우수상을 차지했다.제주도와 제주도관광협회(회장 김영진)는 15~18일 일산 킨텍스에서 개최된 제4회 대한민국 국제 관광박람회에 참가한 결과 ‘최우수상’ 수상의 영광을 차지했다.이번 제주관광 홍보관은 제1회 섬의 날을 기념해 도내 대표 부속 섬 홍보와 더불어 2019 제주음식박람회, 제58회 탐라문화제 등 하반기 주요 축제를 홍보하였고, 제주 캐릭터 컵받침 만들기 체험을 통해 많은 관람객의 발길을 모았다.또한 서귀포잠수함, 퍼시픽랜드, 플레이케이팝, 상효원, 정낭여행사, 테디베어사파리 등 도내 관광사업체가 B2B, B2C 홍보에 적극 참여해 마케팅 활동을 펼쳤다.앞으로도 도와 관광협회는 관광객 유치를 위한 지속적인 홍보마케팅을 펼칠 예정이다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 성산일출봉맛집 표선 세화해녀의 집, 아일랜드 무비 캠프 페스타 관광객 맛집 호평 - 월간원예 × 전체기사 포커스 전체 기획특집 피플 가든&amp;라이프 전체 공기정화식물 원예치료 한국의 꽃 플레이스 전체 과수 채소 화훼 네트워크 전체 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 Info 전체 식량원 Q&amp;A 해외원예 테크 마켓 비즈 전체 작물보호제 종자소개 농자재정보 목차 회사소개 원예News 동영상 일반 로그인 회원가입 모바일웹 UPDATED. 2022-09-20 18:04 (화) 기사검색 검색 포커스 플레이스 과수 채소 화훼 피플 테크 비즈 작물보호제 종자소개 농자재정보 마켓 네트워크 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 이전 다음 제주도 성산일출봉맛집 표선 세화해녀의 집, 아일랜드 무비 캠프 페스타 관광객 맛집 호평 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 상태바 HOME 일반 제주도 성산일출봉맛집 표선 세화해녀의 집, 아일랜드 무비 캠프 페스타 관광객 맛집 호평 김영준 기자 승인 2019.08.25 15:00 댓글 0 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 표선 세화해녀의 집 제공 지난 23일부터 성산일출봉이 한눈에 담기는 복합문화공간 '플레이스 캠프 제주'에서 진행된 아일랜드 무비 캠프 페스타가 제주의 아름다운 자연경관을 배경으로 즐길 수 있는 이색 영화제로 인기를 끌고 있다. 족구왕, 범죄의여왕, 소공녀 등 광화문 시네마 작품 상영을 진행하면서 맥주를 홀짝이며 보는 이색 영화제로 많은 이들에게 좋은 평가를 받고 있는 것으로 알려졌다. 이와 함께 영화시간 외의 시간을 즐기고 또한 식도락을 느낄 수 있는 성산일출봉 맛집에 대한 관심도도 같이 높아지고 있는 추세다. 성산일출봉을 찾아온 관광객들에게 단연 인기 있는 것이라 하면 담백하면서도 탱글하고 쫀득한 맛이 매력적인 대광어가 대표적이다. 대광어는 광어의 비릿맛이 적어 회 초심자도 먹기 좋은 국민횟감으로 고단백, 저지방, 저칼로리로 부드럽고 소화가 잘되는 것은 물론 남녀노소 누구에게나 사랑받는 음식이다. 때문에 광어를 좋아하는 이들에겐 요즘같이 더운 시기에 크기가 8자에 달하는 대광어만을 사용해 만드는 대광어물회에 대한 관심도가 높을 수밖에 없다. 표선맛집 세화해녀의집은 대광어물회를 제주도에서 최초로 선보인 곳으로 일찍이 KBS2TV 생생정보통 등 여러 매체에 방영된 집이다. 이 곳에서 사용되는 대광어는 크기가 큰 것이 8자에 달하는 것은 물론 무게도 무려 5kg정도에 달한다. 전체적이 표면이 매끄럽고 살이 투명하며 붉은빛이 도는 흰색으로 신선한 대광어를 사용해 만든 물회를 제공하기에 큼직하고 푸짐하게 썰어 씹는 맛과 먹는 맛, 포만감의 3박자를 갖추었다고 평가받는다. 뿐만아니라 한치물회, 전복성게물회와 같이 다양한 물회와 더불어 해물뚝배기, 전복죽, 성게 미역국 등의 식사까지 제공한다. 특히 식사 메뉴 중 제주산 오분자기가 가득 들어간 오분작 해물뚝배기는 음식의 빛깔과 향, 맛의 삼박자를 갖추어 성산일출봉맛집으로도 엄지를 치켜세우는 이들이 적지 않다. 또한 여름 휴가철을 맞아 숙소 등에 대한 고민을 덜 수 있도록 주변에는 해비치 리조트와 샤인빌 리조트도 위치해 휴가를 즐기기에 딱 맞는 곳으로 잘 알려져 있다. 성산일출봉맛집 세화해녀의집 관계자는 "대광어물회, 대광어회덮밥과 같이 고객 분들의 입맛을 즐겁게 할 수 있는 신메뉴 출시를 지속적으로 하는 것은 물론이고 사시사철 즐길 수 있는 갈치조림, 옥돔구이, 성게미역국, 고등어구이 등 제주도를 찾아주시는 분들이라면 즐겨 드시는 다양한 식사메뉴를 갖추기 위해 노력하겠다. 이를 바탕으로 찾아주시는 모든 분들께 바다를 보며 즐기는 풍요로운 식사를 제공할 것”이라고 전했다. 저작권자 © 월간원예 무단전재 및 재배포 금지 김영준 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 월간원예 소개 지난호보기 정기구독안내 광고안내 전문가상담코너 우리농촌책보내기운동 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 월간원예 제호 : 월간원예 등록번호 : 서초 라 00086 등록일 : 1983-10-20 발행일 : 1983-10-20 발행·편집인 : 이주상 월간원예 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 월간원예. All rights reserved. mail to wonye@nongup.net 위로</t>
+  </si>
+  <si>
+    <t>통갈치구이부터 갈치조림까지 효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>관광지, 숨은 비경, 음식, 체험 등 9월 제주도 여행 간다면 알아둬야 할 10가지 -디지틀조선일보(디조닷컴 dizzo.com) 국내여행 관광지, 숨은 비경, 음식, 체험 등 9월 제주도 여행 간다면 알아둬야 할 10가지 서미영 기자 pepero99@chosun.com 기사입력 2019.08.23 11:00 ▲ 사진제공=제주관광공사 9월에 제주도로 여행을 간다면 어떤 곳을 가보는 게 좋을까? 제주관광공사가 9월에 놓치지 말아야 할 제주 관광 10선으로 관광지, 자연, 체험, 축제, 음식 등을 추천했다.9월 추천 제주도 여행지팜스테이 마을 '신풍리'어멍아방 잔치마을 ▲ 사진제공=제주관광공사 제주의 자연 풍광에 농촌체험을 더하는 팜스테이가 꾸준하게 발전 중이다. 도내 팜스테이 마을 중 한 곳인 신풍리는 마을로 향하는 길부터 예술인 데다 고망낚시 물이 빠질 때 짧은 낚싯대나 얼레로 바위구멍 사이의 물고기를 잡는 낚시(고망은 구멍을 뜻하는 제주어)체험, 돌담쌓기와 집줄놓기 전통 초가지붕을 고정해줄 새끼줄을 엮는 일 등 제주 문화 중에도 전통이 살아있는 독특한 체험이 가능하고 마을 농산물을 이용한 손두부나 낭푼비빔밥도 맛볼 수 있다. 이 모든 것은 마을 사람들이 뜻을 모은 결과다. 뿐만 아니라 세계중요농업유산인 밭담에, 4.3당시 쌓아 올린 마을성담, 포제단과 전설품은 연못들까지... 흥미로운 이야기가 끊이지 않는다. 언제든 자식들이 찾아올 수 있게 방을 비워두는 부모님처럼, 언제 손님이 와도 묵을 수 있는 게스트 하우스를 마련한 어멍아방잔치마을의 따뜻하고 넉넉한 인심이 가을로 가는 길목을 더 풍성하게 만들어 줄 것이다. 추석맞이 전통체험 할 수 있는 곳제주목관아, 제주민속자연사박물관, 제주민속촌, 국립제주박물관 ▲ 사진제공=제주관광공사 제주목관아와 제주민속자연사박물관, 국립제주박물관과 제주민속촌 등이 명절을 맞아 전통문화 행사를 마련한다. 투호나 윷놀이, 제기차기와 팽이치기 같은 민속놀이 한마당도 즐길 수 있고, 전통 놀이 기구를 직접 만드는 체험과 민속놀이 경연을 하는 곳도 있다. 추억의 뻥튀기와 보리빵 나눔, 떡메치기를 하는가 하면 한복 입은 관람객에게 반값 입장료를 적용해 풍성한 날을 더 풍성하게 만들기도 한다. 차례를 위해 모여든 가족들도, 짬을 내 여행 온 여행객도 즐기기에 좋다. 행사가 다양한 만큼 일시 장소 등 확인할 것도 많을 테니, 방문 전 각각의 홈페이지에서 확인해 봐야 한다.제주도 오름녹남봉 ▲ 사진제공=제주관광공사 올레 12코스의 경유지이자 대정읍 신도 1리에 자리 잡은 녹남봉을 가려면 신도 1리 사무소에 주차한 뒤 걸어야 한다. 오름 분화구까지 10분만 걸으면 되고 큰 경사도 없다. 누구나 가볍게 산책이나 체력단련을 하기에 알맞을 만큼 작은 오름은 정상에서 바라보는 전망도 좋지만 굼부리를 가득 채운 꽃으로 더 유명하다. 꽃이 지기 전에 찾는다면 형형색색 화사한 백일홍 군락을 만날지도 모른다. 마을과 이렇게 가까운 곳에 일본군 진지동굴도 있다니, 풍경만 감상하기보다 잠시나마 아픈 역사도 돌아보는 것을 추천한다.숨은 보석 같은 비경 남주 해금강, 월평포구 ▲ 사진제공=제주관광공사 20개가 넘는 올레코스 중 단연 많은 사랑을 받는 코스는 올레 7코스다. 그 길을 걸어본 사람이라면 누구나 한 번쯤 지났겠지만 멈추어 본 이는 드문 곳들이 있는데 그런 숨은 보석 같은 비경 하나는 남주 해금강이다. 외돌개와 황우지 해안 선녀탕에 가려 빛을 못 본 이곳은 원래 동너븐덕이라는 이름을 가진 너른 바위 일대로 멀리 신선바위와 문섬, 범섬, 섶섬을 두고 새연교도 바라볼 수 있는 명소다. 보석 같은 비경 두 번째로 월평포구가 있다. 언덕사이에 들어앉은 이곳은 작은 배 대여섯 척이 쉬어갈 만큼 작지만 차분하고 수수한 모습으로 마음에 안기는 평안이 크다. 포구 뒤편 바다는 아직은 덜 알려진 스노클링 명소이자 낚시꾼들에게도 좋은 포인트가 되고 있다고. 오는 도중 제주판 모세의 기적이라는 ‘서건도’와 최영 장군의 범섬 전투 시작점 ‘배염줄이’도 챙겨 봐야 한다. 다 아는 것 같아도 뜯어보면 숨겨진 보석 넘치는 제주올레를 새삼 사랑하게 되는 순간이다.제주의 콩, 제주의 된장 물마루 된장학교, 선흘 방주할머니 식당, 명도암 수다뜰 ▲ 사진제공=제주관광공사 척박한 땅에 농사짓기 어렵던 그 시절의 제주 사람들에게, 잘 자라 준 콩을 보존하기 위한 방법으로 된장은 필연이었다. 바쁜 일상 속에서 찬물에 휘리릭 된장 풀어 냉국을 만들고, 우영팟의 푸성귀와 함께 쌈밥을 먹을 수 있었기에 콩에 대한 고마움과 그리움이 스며있어 있다. 그런 제주의 콩으로 만든 고소하고 진한 두부와 콩국수도 맛보고 전통 장 체험을 할 수 있는 팜파티에서는 제주의 된장과 각종 친환경재료가 더해진 건강한 쌈장 만들기까지... 제주의 기특한 콩을 고루 맛보고 체험해 볼 수 있다.에이피맵(APMAP) 2019 오설록 티뮤지엄 ▲ 사진제공=제주관광공사 국내의 역량 있는 신진작가를 발굴하기 위한 현대미술 프로젝트 에이피맵 2019는 15팀의 젊은 작가와 건축가가 요모조모 뜯어본 제주 그 자체를 예술로 승화시켰다. 집줄을 이으며 이야기를 나누던 제주인의 모습이 양 끝에 서서 이야기를 주고받는 조형물이 되고, 고된 물질 뒤 해녀들이 휴식을 얻던 해녀불턱에서 영감을 받아 ‘쉼’을 얻는 벤치가 탄생했다. 제주 곳곳에서 만나는 산담의 조형미와 의미를 재해석하는가 하면 제주만의 어로 방식인 자리돔테우가 트램펄린 놀이로 새로 태어났다. 이제는 녹차의 파릇한 향을 음미하는 동시에 제주인들의 삶이 그대로 투영된 작품들을 살펴보는 맛이 더해질 것이다. 무료관람이 가능한 에이피맵(APMAP) 2019 전시는 9월 22일까지 오설록 티뮤지엄에서 진행된다.9월 제주축제들누웨마루 버스킹 페스티벌 : 9월 14일~10월 5일까지 / 매주 토요일 19:00~20:30서귀포 칠십리 축제 2019 : 9월 27일~29일 / 서귀포 자구리공원 및 시내 일원제주밭담축제 : 9월 28일~29일 / 제주밭담테마공원(제주시 구좌읍 월정리)산지천축제 : 9월 20일~22일 / 탐라문화광장(산지천 일대) ▲ 사진제공=제주관광공사 9월의 제주에는 흥겨운 축제는 많이 진행된다. 가요제나 거리퍼레이드는 기본이요, 칠머리당영등굿 소망기원굿과 제주어 말하기 대회, 맨손 고기잡기 등 각종 프로그램이 마련된 산지천 축제부터, 마을 전통문화와 자랑거리 담은 마당놀이, 지역 동아리 경연, 각종 문화 체험이 있는 서귀포 칠십리 축제가 열린다. 재즈와 팝, 포크와 알앤비, 마술 등 다양한 장르의 버스킹 공연이 펼쳐지는 누웨마루 버스킹 페스티벌에 제주의 전통문화 밭담을 테마로 다양한 체험과 걷기 행사가 있는 제주 밭담축제도 마련됐다.가족 여행지 명소세계 자동차&amp;피아노 박물관, 제주 조각공원 ▲ 사진제공=제주관광공사 아이들보다 아빠가 더 좋아한다는 자동차박물관에 찾아온 또 하나의 볼거리인 '피아노박물관'이 추가로 문을 열었다. 시대 흐름에 따른 피아노의 역사도 살피고, 블링블링한 금빛 피아노에 그 유명한 조각가 로댕이 만든 피아노도 만나볼 수 있는 곳이다. 관람 뒤 어린이 교통 체험장에서 우리 아이 생애 첫 면허증을 만들고도 아쉬움이 남는다면 근처에 있는 조각공원으로 향해도 좋다. 곶자왈 숲에 둘러싸인 이 너른 공원은 무려 30여 년의 역사를 자랑한다. 돌담과 어우러진 유명 작가의 작품을 보며 오솔길과 뮬리 정원을 느리게 걷다 보면 온 가족의 즐거움과 예술적 감각은 절로 올라갈 것이다. 세 가지의 산책 코스 중에서 골라 걸을 수 있는 데다 감성사진용 피크닉 세트와 추위 타는 일행을 위한 담요 대여도 가능하다.제주버스 투어야밤버스, 팜팜버스 ▲ 사진제공=제주관광공사 제주 도심 명소를 한 번에 묶어 밤의 진한 매력을 담아낸 야밤버스는 이호테우등대, 동문재래시장 등 가까운 도심 명소를 돌며 특별한 추억을 전한다. 야밤 DJ가 진행하는 음악프로그램에 해안도로 잔디밭에서 펼쳐지는 거리공연과 밤바다 피크닉, 감동사연 이벤트와 전문가가 찍어주는 사진까지...실속으로 구성됐다. 도심보다 좀 더 느긋하고 한적한 마을 여행은 팜팜버스로 가능하다. 팜팜버스에서는 마을 사람들의 안내에 따라 제주 농어촌의 이색 체험을 묶어 놀고먹고 배울 수 있는 버스투어다. 이번 시즌에는 6개 마을이 함께하는데 9월에는 교래리, 의귀리, 하도리를 만날 수 있다. 탐나오 사이트에서 정보도 얻고 할인도 받을 수 있다.제주의 전통 떡 3종하효살롱, 살레카페 ▲ 사진제공=제주관광공사 어렵던 시절, 척박한 환경 안에서도 맛을 향한 제주인의 아이디어는 샘솟았다. 지금의 화려한 간식 문화에 못 비길지 몰라도 심심한 듯 담백한 그 맛에 진득함이 있었다. 제주의 잔칫날과 명절 차례상을 더 풍성하게 만들어주던 제주의 전통 떡 3총사는 기름떡, 빙떡, 오메기떡이다. 먼저 익반죽한 찹쌀가루를 별 모양으로 구워 설탕을 뿌리면 별명은 별떡이요, 이름은 '기름떡'이 된다. 제주산 메밀과 무가 빙글빙글 돌아서 '빙떡', 술을 빚다 남은 오메기 반죽이 떡으로 발전한 '오메기 떡'도 유명하다. 사서 먹어도 좋지만 직접 만들어 먹으면 더 좋다. 마을공동체가 운영하는 카페에선 오메기 떡을, 어르신들에게 일자리를 마련해드리는 카페에서는 빙떡과 기름떡을 만들어 볼 수 있다. 아이도 어른도 즐거운 전통 떡 만들기 체험은 필요한 최소 인원이 있고 늦어도 하루 전 예약이 필수다. 서미영 기자 pepero99@chosun.com 관련뉴스 제주의 가을을 제대로 느끼고 싶다면…'가을 제주도 추천 여행지 10곳' 최신뉴스 Copyright ⓒ 디지틀조선일보&amp;dizzo.com</t>
+  </si>
+  <si>
+    <t>총선출마로 회장 공석 예고된 제주도관광협회장 보궐선거는? &lt; 인사 &lt; 사람들 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 13:05 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 총선출마로 회장 공석 예고된 제주도관광협회장 보궐선거는? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사람들 인사 총선출마로 회장 공석 예고된 제주도관광협회장 보궐선거는? 기자명 이동건 기자					(dg@jejusori.net) 입력 2019.08.19 10:50 댓글 17 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 4~5명 거론 속 고승철 vs 부동석 경쟁 유력 전망...대의원 표심 잡기 접촉 잦아져 차기 제주도관광협회장 선거에 출마할 것으로 거명되는 고승철 (주)삼영관광 일출랜드 대표(왼쪽), 부동석 중문덤장 대표.김영진(53) 제주도관광협회장이 2020년 4.15총선 출마를 공식 선언한 가운데, 차기 협회장을 꿈꾸는 인사들의 행보가 바빠지는 등 벌써부터 차기 회장 보궐선거에 관심이 모아진다.4선 연임 중인 김영진 회장이 예정대로 9월말~10월초 중도사퇴를 실행할 경우, 차기 회장은 2021년 2월까지인 김 회장의 남은 임기를 맡게 된다.  19일 [제주의소리]가 여러 경로로 취재한 결과 차기 회장 후보군에 자천타천으로 4~5명이 거명된다. 다만 구체적인 출마행보를 보이는 후보로는  고승철(58) (주)삼영관광 일출랜드 대표이사와 부동석(54) 중문덤장 대표 정도로 좁혀진다. 관광업계와 협외 안팎에서도 고승철 대표와 부동석 대표의 경선이 유력할 것으로 내다보는 분위기다. 두 사람 모두 현재 협회 부회장을 맡고 있다.  지난 4월 현 김영진 회장은 내년 총선에서 제주시 갑 지역구로 출마하겠다는 의사를 언론에 공식 밝힌 상태로, 오는 9월말 회장직을 사퇴해 본격 선거 행보에 나설 것으로 알려졌다. 김 회장은 9월말 예정된 도내 관광인들의 축제인 '관광인 한마음대회'를 끝으로 회장 직에서 물러나 본격적인 총선 행보를 걸을 것이란 예측이다.  김 회장의 사퇴가 기정사실화되면서 차기 관광협회장 후보군에 이런저런 이름들이 자천타천 오르내리고 있다. 하지만 현재 출마가 확실시 되는 후보는 협회 부회장을 맡고 있는 고승철·부동석 2명으로 압축된다. 고 대표와 부 대표는 각각 협회 관광지업분과위원장과 외식업분과위원장도 맡고 있다. 벌써부터 관광협회 안팎에서는 특정 후보가 김 회장과 협회 내·외부 행사에 자주 동행하는 모습이 잦아지면서 차기 협회장 선거가 사실상 시작된 것이 아니냐는 촌평도 나온다.   관광협회 정관에 따르면 회장은 대의원총회를 통해 선출한다. 정관에 따른 협회 대의원은 당연직 48명을 포함한 180명 이내로 구성된다.  당연직 외 대의원은 각 업종별 회원수, 회비 납부실적 비율, 협회 기여도 등에 따라 이사회에서 결정한다. 19일 기준 협회 대의원은 당연직 포함 총 161명이다.  이들 대의원들을 상대로 차기 회장선거에 출마할 것으로 보이는 인사들의 접촉도 잦아지는 모양새다.  회장 자리가 공석이면 상임부회장이 대의원총회 의장직을 대신한다. 협회 선거관리규정에 따라 회장이 사퇴할 경우, 보궐선거를 위한 별도의 선거관리위원회를 구성해 회장 선출을 위한 일정 등을 관리한다. 선관위가 구성되면 30일 이내로 선거일이 결정돼 후보 등록 등 절차가 진행된다. 선관위가 구성돼야 차기 회장 선출을 위한 세부 일정이 확정된다는 얘기다.   이와 관련해 관광협회 관계자는 “회장 선출을 위해서는 선관위가 우선 구성돼야 한다. 선관위가 회장 선출 일정 등을 결정한다.”며 “그러나 아직은 현직 회장이 사퇴의사를 밝히긴 했지만 일정이 구체적으로 결정된 것은 없다. 일정이 결정되면 대의원총회에서 회장이 선출될 것”이라고 말했다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 제주답게 만들기를~~ 2 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 3 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 4 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 5 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 6 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 7 못간다 8 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 9 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 10 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 빅데이터로 관광정책 수립한다 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 빅데이터로 관광정책 수립한다 네비게이션 빅데이터 활용 관광객 이동패턴 분석 (제주=뉴스1) 고동명 기자					| 2019-08-07 10:51 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 초여름 날씨를 보인 5월 24일 제주시 한림읍 협재해수욕장에서 관광객들이 해변을 산책하며 이른 더위를 식히고 있다.2019.5.24/뉴스1 © News1 제주특별자치도는 네비게이션 빅데이터를 활용해 제주 관광객의 이동패턴을 분석하겠다고 7일 밝혔다.네비게이션 빅데이터에는 검색시점, 출·도착지 검색정보 및 GPS 위치정보, 이동시간, 이동거리, 평균속도, 검색회수, 재방문 여부 등의 정보가 포함된다.제주도내 네비게이션 이용 건수는 도민을 포함해 일평균 6만여 건으로, 월평균 180만건, 연 2000만건 이상에 달한다.도는 이를 통해 관광객들이 주로 찾는 숙소, 음식점, 관광지, 핫스팟 등을 구체적으로 특정할 수 있을 것으로 보고 있다.아울러 성별과 연령 등의 정보를 담은 기존 이동통신 빅데이터를 네비게이션 정보와 접목해 보다 상세한 관광객 이동경로를 분석할 수 있다고 기대했다.도는 이번 분석을 통해 최신 관광 트렌드를 파악하고 분석결과는 관광정책 수립, 관광업계 마케팅 전략, 학계 학술연구 등에 활용할 계획이다. kdm@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 베트남·필리핀 등 동남아 관광시장 본격 공략 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 베트남·필리핀 등 동남아 관광시장 본격 공략 등록 2019.08.07 10:49:15 작게 크게 【제주=뉴시스】 지난 2일부터 4일까지 싱가포르에서 열린 관광박람회( NATAS Holidays) 당시 설치된 제주관광 홍보부스. (사진= 제주도청 제공) 【제주=뉴시스】강정만 기자 = 제주특별자치도는 싱가포르·베트남·필리핀·말레이시아·인도네시아 등에서 '제주의 가을과 겨울관광' 콘텐츠를 홍보하면서 동남아 관광시장 공략에 나선다고 7일 밝혔다. 한국 재방문율이 높은 싱가포르 소비자에게는 제주의 최신 관광 콘텐츠를 제공하고 말레이시아와 인도네시아는 쿠알라룸푸르 직항을 활용한 마케팅을 강화한다.  베트남과 필리핀은 첫 방문으로 제주를 찾는 고객이 많은 만큼 현지 미디어를 통해 관광지로서 제주의 매력을 홍보한다. 또 오는 8일부터 11일까지 말레이시아 쿠알라룸푸르에서 열리는 말레이시아 인터내셔널 트래블마트(MITM) 박람회에 도내  5개 업체와 참가해 제주 직항노선 활성화와 개별관광객을 대상으로 홍보활동을 벌인다. 직항노선이 없는 베트남과 필리핀은 8월 중순 현지 미디어를 대상으로 제주 신규 관광 콘텐츠 홍보 팸투어를 추진할 계획이다. 8월 말에는 말레이시아, 인도네시아, 필리핀 등 동남아 주요 여행사 9곳과 도내 30여개 사업체 간 만남을 주선한다. 강영돈 도 관광국장은 "제주 관광시장의 다변화를 위해 동남아 관광 마케팅을 적극적으로 추진하겠다"고 밝혔다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 5예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 범한퓨얼셀, 12일 기업설명회 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 복지시스템 개발인력 대거 이탈에 안정화 시일 걸릴 듯 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 범한퓨얼셀, 12일 기업설명회 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 김해시, 올해 계약심사 35억 절감…부실시공 예방 "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 7예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주연구원, 제주도 관광 안전 및 위기관리 방안 제안 &lt; 정치/행정 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 13:07 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주연구원, 제주도 관광 안전 및 위기관리 방안 제안 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치/행정 제주연구원, 제주도 관광 안전 및 위기관리 방안 제안 기자명 허태홍 기자 입력 2019.08.19 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 최근 제주도가 각종 사건들로 홍역을 치루고 있는 현 시점에 제주도가 관광 안전 및 위기관리를 위해 적극 나서야 한다는 보고서가 발표돼 눈길을 끌고 있다. 제주연구원은 JRI 정책이슈브리프 ‘제주관광 안전 및 위기관리를 위한 과제’ 연구보고서를 통해 각종 사건, 사고와 재해로 인한 제주관광의 위기를 관리하기 위한 과제들을 19일 제시했다. 제주연구원은 2012년 발생했던 올레길 살인사건과 2016년의 폭설사태 등을 사례로 들며 제주도의 대처가 적절치 못했다고 지적했다. 이어 국외 선진사례 유형으로 △세계관광기구(UNWTO)의 ‘국제관광위기관리포럼’ △미국의 지역사회위기대응팀(CERT)과 플로리다대학의 전문학과 개설 등을 사례로 제시했다. 특히 오키나와의 경우 관광위기관리기본계획 및 실행계획을 수립하고 관광안전가이드북 등과 같은 홍보물을 관광위기 발생 가능성이 높은 지역에 비치하고 있음을 강조했다. 제주연구원은 사례연구를 바탕으로 △커뮤니케이션 대책 △지역주민 및 관련 사업자의 적극적인 참여 △기본적 법/제도의 정비와 현장형 대책의 중요성을 강조했다. 이후 심층분석을 통해 제주특별자치도가 △제주관광위기관리기본계획의 조속한 수립 △제주관광위기관리시스템의 구축 △관광위기 유형별 관리매뉴얼 구축 △자원봉사형 관광위기 대응조직의 구성 △관광객과 관광사업자에 대한 교육과 홍보의 확대 △관광위기 커뮤니케이션 대응의 활성을 위해 적극적으로 나서야 한다고 제언했다. 허태홍 기자 black4t@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 골프관광객 유치 위한 홍보 ‘박차’ &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 골프관광객 유치 위한 홍보 ‘박차’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 제주도, 골프관광객 유치 위한 홍보 ‘박차’ 기자명 문서현 기자 입력 2019.08.14 10:50 수정 2019.08.14 10:53 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도·관광협회·씨제이(주), 골프업계 박람회 참가…제주 골프장 적극 홍보 제주도가 제주 골프파라다이스 명성을 되찾기 위한 적극 행보에 나선다.제주도는 오는 29일에 열리는 ‘수도권 대규모 골프박람회’에 참가해 제주 홍보부스를 운영하는 등 홍보활동에 박차를 가한다고 밝혔다.이번 행사는 오는 29일부터 9월 1일까지 4일간 서울 삼성동 코엑스에서 개최될 예정이며, 약 4만 명이 방문할 것으로 예상하고 있다.이번 박람회에서 제주도는 지난 3월 코엑스에서 개최된 국내골프박람회 참가에 이어, 올해 제주에서 3회째 개최되는 피지에이(PGA) 골프대회와 연계한 붐업 이벤트를 홍보한다.제주특별자치도는 제주특별자치도 관광협회, 도내 골프업계들과 공동으로 참가해 제주도 골프장별 홍보 브로셔, 이벤트 및 기념품을 제공하는 등 제주의 청정이미지와 골프파라다이스 메카로서의 명성을 되찾기 위한 노력을 기울일 예정이다.한편 씨제이(CJ)측은 올해 10월에 개최되는 이번 대회관람권과 연계한 다양한 제주골프상품을 개발해 홍보할 예정이며, 피지에이(PGA) 개최관련 기념품 제공 등 제주골프관광객 유인에 적극적으로 협력할 것을 약속했다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 대한민국 국제 관광박람회 참가...관광객 유치 홍보 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' 2022-10-11 13:07 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-관광협회, 대한민국 국제 관광박람회 참가...관광객 유치 홍보 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도-관광협회, 대한민국 국제 관광박람회 참가...관광객 유치 홍보 기자명 고병수 기자 입력 2019.08.15 14:49 수정 2019.08.15 15:24 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주 대표 부속 섬 및 하반기 축제 홍보 (제주=국제뉴스) 고병수 기자 = 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 15일부터 18일까지 4일간 일산 킨텍스에서 개최되는 제4회 대한민국 국제 관광박람회에 참가해 제주관광 홍보관을 운영하고 있다고 15일 밝혔다.제주관광 홍보관은 제 1회 섬의 날을 기념해 우도, 추자도, 가파도 등 도내 대표 부속 섬 홍보와 함께 제25회 서귀포 칠십리축제, 제58회 탐라문화제 및 2019 제주음식박람회등 하반기 주요 축제 홍보를 통해 하반기 제주방문 관광객 유치에 총력을 다하고 있다는 것. 관계자는 "앞으로 道와 관광협회는 제100회 전국체육대회 등 주요 이벤트와 연계해 내국인 관광객 유치 확대를 위한 지속적인 홍보마케팅을 펼칠 예정"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 BPA, 부산항 항만물류통합플랫폼 모바일 앱(올컨e) 사용 장려 위한 컨테이너 삼남매 캐릭터 공개 최신뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 포토뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 보양식 갈치조림정식에 서비스로 한치물회, 옥돔구이 나와 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도, 대만에서 제주관광 설명회 연다 TV LIVE VOD 튜브온 주요행사 채널안내 편성표 전체뉴스 MTN deep 한 발 더 깊고 한 걸음 더 넓은 뉴스 MTN hip요즘 뜨는 '힙(hip)'한 이슈 핫리포트핫라인5 생생리포트 MTN 인사이트경제에 통찰력을 더하다 MTN 기자실경제전문 기자들의 취재파일 연속 기획보도이슈를 파고드는 기획취재 연중대기획고품격 특집 다큐멘터리 여의도튜브 발칙한 경제 주식초등학교 Pick 튜브기사보다 더 깊은 이야기 TV LIVE VOD 튜브온 주요행사 채널안내 편성표 최신뉴스 산업 제주도, 대만에서 제주관광 설명회 연다 머니투데이방송 유찬 기자 입력 2019-08-01 10:07:12 가 지난해 열린 대만 트래블마트 제주특별자치도와 제주관광공사, 제주특별자치도관광협회는 오는 2일부터 3일까지 대만에서 제주관광설명회를 개최한다고 1일 밝혔다. 설명회는 도내 10개 민간 관광업체(여행사5, 숙박업3, 관광콘텐츠2)도 참여하며 대만 현지 관광업계 및 소비자를 대상으로 한다. 제주관광공사 관계자는 "작년 대만-제주 직항노선이 확대되면서 전년 동기 대비 165%(2019년 5월 기준) 증가한 대만 관광객들이 제주를 방문하고 있다"고 설명했다. 2일에는 대만 현지 항공사와 여행사를 초청하여 도내 업계와 현지 업계 간 B2B 트래블마트를 개최하여 실질적인 상품 개발이 이루어 질 수 있도록 비즈니스 상담의 장을 마련할 예정이다. 현지 항공사, 여행사, 매체 등 60여 명을 대상으로 제주관광설명회를 개최해 제주의 축제, 미식, 이색체험 콘텐츠를 소개하여 제주의 다양한 매력을 홍보한다. 3일에는 대만 소비자 400명을 대상으로 대만 파워블로거를 강연자로 초청하여 직접 제주 자유여행을 경험한 내용을 바탕으로 제주 자유여행 강좌를 진행할 예정이다. 유찬 머니투데이방송 MTN 기자 머니투데이방송의 기사에 대해 반론·정정추후 보도를 청구하실 분은 아래의 연락처로 연락주시길 바랍니다, 고충처리인 : 콘텐츠총괄부장 ombudsman@mtn.co.kr 02)2077-6288 MTN 기자실 경제전문 기자들의 취재파일 전체보기 Pick 튜브 기사보다 더 깊은 이야기 전체보기 많이 본 뉴스 분야별뉴스 취재와이드 MTN 기자실 Pick 튜브 바로가기 분야별뉴스 P4F MTN deep MTN hip 핫리포트 MTN 인사이트 연속 기획보도 연중대기획 MTN 기자실 Pick 튜브 여의도튜브 발칙한경제 주식초등학교 K-디펜스 월가워즈 여의도약방 니은티비 바로가기 검색 TV LIVE APP 소개 MTN YOUTUBE 회사소개 광고제휴안내 이용약관 청소년보호정책 개인정보처리방침 공시조회 (주)머니투데이방송    대표이사 유승호 (07328) 서울특별시 영등포구 여의나루로 60 (여의도동,여의도우체국) 2,4층 등록번호 : 서울 아01083    대표전화 : 02-2077-6200 기사배열책임자 콘텐츠총괄부장    청소년보호책임자 디지털기획부장 Copyright ⓒ MTN All Right Reserved</t>
+  </si>
+  <si>
+    <t>해양수산부-제주도-제주관광공사, 제7회 제주국제크루즈포럼 개막 &lt; 산업 &lt; 기사본문 - 이코노뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATE : 2022-10-11 13:09 (화) 기사검색 검색 홈 로그인 회원가입 전체기사보기 rss 기업포커스 글로벌비즈 기업 정책 산업 전자/IT 자동차/항공/운송 건설/부동산 조선/철강/기계 유통 에너지/화학 연재 남영진 최성범 남경우 이동준 이현우 최충현 김홍국 이민주 김선태 박병호 하응백 한필이 김미영 김광신 창업 창업 고용 경제 정책 증권 금융 산업 증시 인물광장 오피니언 기자칼럼 인성교육 커피&amp;티 기고 화폐로 떠나는 세계여행 박병호의 중국견문록 신선윤의 당구이야기 카드뉴스 오늘의 명언 카드뉴스 그래픽 전체메뉴 버튼 본문영역 이전 기사보기 다음 기사보기 해양수산부-제주도-제주관광공사, 제7회 제주국제크루즈포럼 개막 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 산업 해양수산부-제주도-제주관광공사, 제7회 제주국제크루즈포럼 개막 기자명 이종수 기자 입력 2019.08.29 21:23 수정 2022.08.30 06:47 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제7회 제주국제크루즈포럼이 28일 제주도 서귀포시 중문에 위치한 제주국제컨벤션센터에서 개막했다. 이번 포럼은 '아시아 크루즈, 평화와 공동번영을 향하여'라는 주제로 해양수산부와 제주도가 공동으로 주최했다. 제주관광공사가 주관한 이날 개회식과 연계 포럼을 시작으로 포럼은 31일까지 나흘간 진행된다. 이번 포럼에는 전 세계 17개국 크루즈 관계자와 도민 등 1600여 명이 참가할 예정이다. 원희룡 제주지사는 개회사에서 "제주는 신항 개발과 해양관광 인프라 확충으로 동북아 크루즈 허브로 도약을 준비하고 있다"며 "아시아의 공동번영과 지속가능한 크루즈산업 순항을 위해 제주도가 가교역할을 해나가겠다"고 말했다. 이종수 기자 jslee6679@naver.com 다른기사 보기 저작권자 © 이코노뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [띠별로 보는 주간운세] 10월 2일 - 10월 8일 원숭이띠 "일거양득의 운세" [오늘의 운세] 10월9일 뱀띠 “천생연분이 될 연인이 들어오는 날” 개띠 “당장은 실속이 없으나 희망찬 내일이 있다” 로코초코 ㄷㄱㅅㅅ…캐시워크 퀴즈는 “OOOO보다” [오늘의 운세] 9월29일 소띠 “간절히 원하던 것을 이룰 수 있게 된다” 용띠 “좋은 찬스를 잡을 수 있는 기회가 온다” [오늘의 운세] 10월1일 쥐띠 “그동안 한 노력의 결과물이 나오니 기쁘겠다” 토끼띠 “돈이 들어온다” 닥터바리스타 버터커피 ㅈㅈㅅㅇ…캐시워크 퀴즈는 “방탄커피를 OOOO” 소이비랩 저당두유 ㄱㄱㄱㅈㅇㅎㄱ…캐시워크 퀴즈는 “OOOOO” 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 경기도, 어린 바지락·동죽조개 505만 마리 서해안 갯벌 방류…“어민 소득증대 기대” 한국조선해양·삼성중공업, 하락에 급락까지…특히 한국조선해양 5% 급락에 7만7000원선 밑으로 SK바이오사이언스·SK케미칼, 모두 급락…특히 SK바이오사이언스 5% 낙폭 나노씨엠에스, 3거래일 연속 상승에 19% 급등…2만2000원선 재돌파 이재용 부회장, 12일 열리는 준법위 회의 참석할 듯…지배구조 개선 작업 속도 내나 경기도소방, 연말까지 폭발성 위험물 취급업소 기획단속…“위법행위 엄중 조치” 최신뉴스 경기도, 어린 바지락·동죽조개 505만 마리 서해안 갯벌 방류…“어민 소득증대 기대” 한국조선해양·삼성중공업, 하락에 급락까지…특히 한국조선해양 5% 급락에 7만7000원선 밑으로 SK바이오사이언스·SK케미칼, 모두 급락…특히 SK바이오사이언스 5% 낙폭 나노씨엠에스, 3거래일 연속 상승에 19% 급등…2만2000원선 재돌파 이재용 부회장, 12일 열리는 준법위 회의 참석할 듯…지배구조 개선 작업 속도 내나 포토뉴스 경기도, 어린 바지락·동죽조개 505만 마리 서해안 갯벌 방류…“어민 소득증대 기대” 한국조선해양·삼성중공업, 하락에 급락까지…특히 한국조선해양 5% 급락에 7만7000원선 밑으로 SK바이오사이언스·SK케미칼, 모두 급락…특히 SK바이오사이언스 5% 낙폭 나노씨엠에스, 3거래일 연속 상승에 19% 급등…2만2000원선 재돌파 인기뉴스 1 [띠별로 보는 주간운세] 10월 2일 - 10월 8일 원숭이띠 "일거양득의 운세" 2 [오늘의 운세] 10월9일 뱀띠 “천생연분이 될 연인이 들어오는 날” 개띠 “당장은 실속이 없으나 희망찬 내일이 있다” 3 로코초코 ㄷㄱㅅㅅ…캐시워크 퀴즈는 “OOOO보다” 4 [오늘의 운세] 9월29일 소띠 “간절히 원하던 것을 이룰 수 있게 된다” 용띠 “좋은 찬스를 잡을 수 있는 기회가 온다” 5 [오늘의 운세] 10월1일 쥐띠 “그동안 한 노력의 결과물이 나오니 기쁘겠다” 토끼띠 “돈이 들어온다” 6 닥터바리스타 버터커피 ㅈㅈㅅㅇ…캐시워크 퀴즈는 “방탄커피를 OOOO” 7 소이비랩 저당두유 ㄱㄱㄱㅈㅇㅎㄱ…캐시워크 퀴즈는 “OOOOO” 8 [오늘의 운세] 10월7일 소띠 “잘한 것에 대한 좋은 결과가 나온다” 용띠 “따뜻한 마음이 전해지는 훈훈한 날” 하단메뉴 신문사소개 조직도 개인정보처리방침 청소년보호정책 이메일무단수집거부 매체정보 서울특별시 마포구 백범로 235 , 5층(신공덕동, 신보빌딩) 대표전화 : 070 7817 0177 팩스 : 02-464-5958 대표법인 : 이코노뉴스 등록번호 : 서울, 아03530 등록일 : 2015-01-19 발행인 : 이종수 편집인 : 조희제 청소년보호책임자 : 조희제 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 조희제 070-7817-0177 hjcho1070@naver.com © 이코노뉴스. All rights reserved. 위로 전체메뉴 전체기사 기업포커스 글로벌비즈 전체 기업 정책 산업 전체 전자/IT 자동차/항공/운송 건설/부동산 조선/철강/기계 유통 에너지/화학 연재 전체 남영진 최성범 남경우 이동준 이현우 최충현 이종수 이민주 김선태 박병호 하응백 한필이 김미영 김광신 민족미래연구소 창업 전체 창업 고용 경제 전체 정책 증권 금융 산업 증시 인물광장 오피니언 전체 기자칼럼 인성교육 커피&amp;티 기고 화폐로 떠나는 세계여행 박병호의 중국견문록 신선윤의 당구이야기 카드뉴스 전체 오늘의 명언 카드뉴스 그래픽 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 효리의단골집 갈치조림으로 유명해 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집'기원뚝배기' 옥돔구이에 한치물회 그리고 해물갈치조림까지 한상차림 - 월간원예 × 전체기사 포커스 전체 기획특집 피플 가든&amp;라이프 전체 공기정화식물 원예치료 한국의 꽃 플레이스 전체 과수 채소 화훼 네트워크 전체 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 Info 전체 식량원 Q&amp;A 해외원예 테크 마켓 비즈 전체 작물보호제 종자소개 농자재정보 목차 회사소개 원예News 동영상 일반 로그인 회원가입 모바일웹 UPDATED. 2022-09-20 18:04 (화) 기사검색 검색 포커스 플레이스 과수 채소 화훼 피플 테크 비즈 작물보호제 종자소개 농자재정보 마켓 네트워크 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 이전 다음 제주도 중문관광단지 맛집'기원뚝배기' 옥돔구이에 한치물회 그리고 해물갈치조림까지 한상차림 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 상태바 HOME 일반 제주도 중문관광단지 맛집'기원뚝배기' 옥돔구이에 한치물회 그리고 해물갈치조림까지 한상차림 김영수 기자 승인 2019.08.17 17:50 댓글 0 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도에서 한라산은 보는 곳에 따라 멀거나 가깝게 보이는 곳으로 유명하다. 서귀포는 따뜻한 기후와 뛰어난 자연 환경을 바탕으로 국제적인 관광지로 알려져있다. 제주도 먹거리로는 갈치가 유명한데 갈치는 조리법도 다양하다. 노릇노릇하게 구워 통통한 갈치살을 하얀 밥 위에 큼지막하게 얹어 먹으면 밥도둑이 따로 없어 남녀노소 누구나 좋아한다. 칼칼하게 조린 갈치조림은 밥 반찬으로도 좋지만 술안주로도 제격이며, 냄새만으로도 식욕을 돋게 한다. 젓가락으로 살을 집으면 하얀 살이 큼지막하게 달려 올라오는데, 매콤하면서도 달큰한 양념이 함께 어우러진 갈치살은 밥 한 공기를 금새 비게 만든다. 서귀포 맛집 기원뚝배기는 식당 앞에 커다란 수족관을 두고 있다. 이는 방문한 손님들에게 더욱 신선한 요리를 제공하기 위함인데 실제 해산물 요리 주문이 들어오면 수족관에 있는 살아 있는 해산물로 요리하고 있다. 특히 더운 여름에는 싱싱한 재료야 말로 요리의 맛을 좌우하는 중요한 요소라 할 수 있다. 제주도에 오면 싱싱한 갈치로 만든 갈치조림을 먹는 것은 이제 필수 코스가 되었다 해도 과언이 아니다. 맛집으로 소문난  이곳은 제주산 통갈치에 문어, 전복, 새우 등 각종 해산물을 넣은 해물갈치조림을 선보이고 있다. 그런데 해산물과 생선은 특유의 비린 냄새가 있기 때문에 이를 잡아야만 맛 좋은 요리가 가능하다. 그래서 건강에 좋은 천연 약초를 숙성한 양념을 사용하여 해산물의 비린 냄새를 잡고 맛을 좋게 하였다. 실제 약초를 숙성한 양념은 맛도 좋아 밥에 양념을 비벼 먹어도 좋다. 무심코 주문한 요리에 다양한 서비스 메뉴가 제공된다면 즐거움도 배가 될 것이다. 기원뚝배기는 여름 휴가 맞이 서비스 제공 이벤트를 진행하고 있다. 먼저 대표 메뉴인 해물갈치조림에는 한치 물회와 옥돔구이를 서비스로 무료 제공하고 있다. 한치는 더운 여름에만 먹을 수 있는 계절 메뉴인데 한치 물회는 매실 효소와 5가지 과일을 숙성시킨 육수를 사용하는 것이 특징이다. 그리고 오이, 미나리, 파프리카 등 여러 가지 야채가 시원한 육수와 어우러져 더위에 지친 여행객들에게 시원하고 깔끔한 맛을 선사하고 있다. 한치는 회로 주문할 수도 있다. 서비스를 제공하는 메뉴가 더 있다. 통갈치조림정식 A세트 혹은 B세트를 주문해도 한치 물회를 무료로 먹을 수 있고, A세트에는 옥돔구이와 성게국을 기본 상차림에 더해 추가로 하나씩 더 제공하여 방문한 손님들이 푸짐하게 먹을 수 있도록 하였다. 내 가족이 먹는다는 마음으로 정성을 담아 밑반찬을 만들고 있다.  매일 계절에 맞는 국내산 재료를 구입하여 전라도 엄마의 정성을 담은 밑반찬은 손님들의 입맛을 사로잡고 있다. 기원뚝배기 상호는 방문한 손님들이 맛있게 식사하기를 기원한다는 뜻이 담겨 있는데 업소 대표는 이러한 원칙을 바탕으로 친철한 서비스를 통해 제주도를 방문한 손님들이 여행 기간 동안 좋은 추억을 쌓을 수 있도록 노력하고 있다. 이곳은 오전 7시부터 오후 10시까지 영업한다. 여행에서 술자리를 가지는 경우가 많아 해장 메뉴를 찾는 손님들이 많다. 기원뚝배기는 다양한 아침식사 메뉴가 있어 제주 중문 아침식사 맛집으로도 잘 알려져 있는데, 특히 전복뚝베기는 10가지 재료를 넣고 끓여 맛이 얼큰하고 시원하여 해장 메뉴로 많이 찾고 있다. 한편 이곳은 영업 시간 동안 무료로 셔틀버스를 운행하여 손님들에게 호텔 픽업 서비스를 제공하고 있다. 그리고 식당 바로 옆에는 넓은 전용 주차장도 마련되어 있어 주차가 편리하다. 저작권자 © 월간원예 무단전재 및 재배포 금지 김영수 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 월간원예 소개 지난호보기 정기구독안내 광고안내 전문가상담코너 우리농촌책보내기운동 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 월간원예 제호 : 월간원예 등록번호 : 서초 라 00086 등록일 : 1983-10-20 발행일 : 1983-10-20 발행·편집인 : 이주상 월간원예 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 월간원예. All rights reserved. mail to wonye@nongup.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치물회, 옥돔구이 무료 서비스 이벤트 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치물회, 옥돔구이 무료 서비스 이벤트 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치물회, 옥돔구이 무료 서비스 이벤트 곽종현 기자 승인 2019.08.19 14:16 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 제주도는 육지와는 다른 독특한 모습을 갖고 있다. 잣성이라는 말은 제주도민들이 잣 또는 잣담이라 부르는 용어로서 조선시대에 제주 지역의 중산간 목초지에 만들어진 목장 경계용 돌담을 지칭한다. 잣성은 하잣성, 상잣성, 중잣성 순으로 건립되는데 하잣성은 15세기 초반부터 축조되었고, 상잣성은 18세기 후반부터, 중잣성은 19세기 말부터 20세기 초에 만들어진 것으로 전해진다. 이들 잣성들은 대체로 두 줄로 쌓은 겹담 구조를 보인다.잣성은 위치에 따라 제주도 중산간 해발 150m~250m 일대의 하잣성, 해발 350m~400m 일대의 중잣성, 해발 450m~600m 일대의 상잣성으로 구분된다. 이 중 하잣성은 말들이 농경지에 들어가 농작물을 해치지 못하도록 조성되었으며, 상잣성은 말들이 한라산 삼림 지역으로 들어갔다가 얼어죽는 사고를 방지하기 위해 만들어졌다. 또한 중잣성은 하잣성과 상잣성 사이에 돌담을 쌓아 만든 것이다. 잣성은 조선시대 제주도 중산간 지역에 국영 목장이 있었음을 입증하는 역사적 유물인 동시에 제주도의 전통적 목축 문화를 상징적으로 보여줄 수 있는 대표적인 유물이다. 제주도는 이색적인 먹거리도 많아 여행객을 즐겁게 한다. 제주를 대표하는 갈치 요리는 요즘 관광객들에게 많은 인기를 얻고 있다. 이 가운데 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 수족관에 있는 살아 있는 해산물로 요리한 신선한 해물갈치조림을 선보이고 있다. 이 요리에는 제주산 통갈치에 문어, 전복, 새우 등 각종 해산물이 들어가며, 특히 생선과 해산물 특유의 비린 냄새를 없애고 고소한 맛을 위해 천연 약초를 숙성한 양념을 사용하고 있다. 양념은 맛은 물론 건강에도 좋아 양념과 밥을 비벼 먹는 손님들이 많다. 서귀포 맛집 기원뚝배기는 식당 앞에 수족관을 두어 요리 주문이 들어오면 바로 요리하여 더욱 신선한 요리를 제공하는 것도 특징이다.무더위를 날려버릴 수 있도록 방문한 손님들에게 서비스 메뉴를 제공하는 이벤트도 하고 있다. 제주 중문 맛집 기원뚝배기는 해물갈치조림을 주문하는 손님들에게 시원한 맛이 일품인 한치 물회를 서비스로 제공하고 있다. 한치는 여름철 별미로 한치 물회는 매실 효소와 5가지 과일을 숙성시킨 육수에 오이, 미나리, 파프리카 등 여러 가지 야채가 들어가기 때문에 더운 여름에 먹기에 아주 좋다. 실제 손님들은 서비스로 나온 한치 물회를 먹으면서 무더위를 날려버릴 만큼 시원한 맛을 즐길 수 있다.또한 해물갈치조림에는 옥돔구이도 별도 주문 없이 무료로 먹을 수 있다. 아울러 통갈치조림정식 A세트나 B세트에를 주문해도 시원한 한치 물회를 무료로 먹을 수 있고, 통갈치조림정식 A세트를 주문할 경우 여럿이 함께 온 손님들을 위해 옥돔구이와 성게국을 하나씩 더 서비스로 제공하고 있다.식당에 가면 기본 밑반찬 맛이 좋아야 밥을 맛있게 먹게 된다. 제주도 맛집 기원뚝배기는 직접 재료를 구입하여 밑반찬을 만들고 있다. 국내산 재료를 사용하고 전라도 엄마의 손맛과 정성을 담은 밑반찬은 손님들에게 큰 호응을 얻고 있는데 이는 내 가족이 먹는다는 마음으로 요리와 밑반찬을 만드는 업소 대표의 철학이 있어 가능하다. 실제 밑반찬을 만들기 위해서는 일손이 많이 필요하여 외부에서 반찬을 사서 이용하는 식당들도 많은 실정이다.제주 맛집 기원뚝배기는 이른 아침부터 영업하고 있어 제주 중문 아침식사 맛집으로도 잘 알려져 있다. 연중 무휴로 오전 7시부터 오후 10시까지 아침 해장메뉴 등 다양한 메뉴를 준비하고 있는데 특히 전복뚝베기는 10가지 재료를 넣고 끓여 맛이 얼큰하고 시원해서 전날 술자리를 가진 손님들 의 경우 아침 메뉴로 많이 찾고 있다.손님들의 편의를 위해 무료 셔틀버스도 운행하고 있다. 영업시간 동안 호텔 픽업 서비스를 무료로 제공하고 있으며, 주차장도 식당 바로 옆에 있어 주차도 편리하다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>제주도, 일본 관광객 유치 테스크포스팀 본격 가동 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' 2022-10-11 13:07 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 일본 관광객 유치 테스크포스팀 본격 가동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 일본 관광객 유치 테스크포스팀 본격 가동 기자명 고병수 기자 입력 2019.08.11 11:53 수정 2019.08.11 20:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주↔일본 간 직항노선 운항 유지 화두 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 일본 경제전쟁에 따른 관광전략 마련에 나섰다.제주도는 8일 오전 11시 제주도청 본관 2층 삼다홀에서 제주관광공사, 제주관광협회 및 일본관광객 유치 주요업종 대표들과 '일본 관광시장 대응 전략회의'를 개최했다.이는 최근 일본정부에서 수출규제 강화차원에서 우리나라를 백색국가에서 배제함에 따라 일본관광객 유치시장의 불확실성이 커지면서 현장의 목소리를 듣고 대응 방안을 모색하기 위해 마련됐다.회의에는 제주와 일본 직항 운항 항공사인 대한항공, 티웨이항공, 제주항공을 비롯해 일본관광객 유치 여행사, 면세점, 일본어 관광통역 안내사 등 관광업계 주요 관계자들이 참석했다. 일본관광시장에 대한 동향과 각 분야별 애로 사항을 공유하고 협력방안 마련을 위한 토론으로 진행됐다.이날 참석자들의 공통된 관심사는 일본지역 마케팅에 대한 중단 없는 추진과 제주-일본 간 직항노선 운항 유지에 모아졌다. 회의를 주재한 강영돈 제주도 관광국장은 "부가가치가 높은 외국인관광객 유치를 위해 직항 접근성 확보가 무엇보다 중요하다"며 "노선중단과 감편 시에는 회복을 위한 시간과 비용 투자가 상당하기 때문에 항공사에 협조를 바란다"고 당부했다.또한 "일본관광시장에 대한 공동 마케팅 추진과 관광업계의 의견수렴을 위해 도, 관광공사, 관광협회 및 일본 관광홍보사무소를 중심으로 오는 9일부터 테스크포스팀을 본격 가동할 예정"이라고 덧붙였다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 BPA, 부산항 항만물류통합플랫폼 모바일 앱(올컨e) 사용 장려 위한 컨테이너 삼남매 캐릭터 공개 최신뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 포토뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, '관광통역택시' 24시간 예약시스템 구축 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, '관광통역택시' 24시간 예약시스템 구축 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 제주도, '관광통역택시' 24시간 예약시스템 구축 기자명 홍석형 기자 입력 2019.08.05 17:37 수정 2019.08.05 17:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주관광통역택시 홈페이지 구축, 영.중.일 3개 국어 서비스 제공 제주를 찾는 외국인 관광객들을 위한 '관광통역택시' 홈페이지가 8월부터 운영된다.제주특별자치도는 외국인 관광객들이 편리하게 택시를 예약할 수 있도록 영어.중국어.일본어 등 3개 국어를 지원하는 '관광통역택시' 홈페이지를 운영한다고 5일 밝혔다.홈페이지 예약시스템을 통해 원하는 날짜에 택시를 예약할 수 있으며, 주 사용자가 외국인 점을 감안해 왓츠앱과 위챗, 라인, 카카오톡 등 다양한 메신저 서비스를 통해 예약 확인 정보를 받을 수 있도록 구현했다.또한, 관광통역택시를 이용하는 외국인 관광객이 직접 관광코스를 선택할 수 있도록 권역별 주요 관광지 정보도 함께 제공하고 있다.관광통역택시 홈페이지는 제주도 홈페이지의 관광정보-제주여행추천 메뉴를 통해서도 확인할 수 있다.한편, 관광통역택시는 외국어 통역서비스를 제공하는 사업으로 현재 91대 관광통역택시가 운영 중에 있으며, 2018년 이용객 수는 1188명으로 매년 꾸준히 증가하는 추세이다.제주도 관계자는 "도민.관광객 구분 없이 누구든지 쉽게 홈페이지를 통해 원하는 관광정보와 서비스를 이용할 수 있도록 운영해 나가겠다"고 밝혔다. 홍석형 기자 hsh8116@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 갈치조림 외 다양한 갈치요리제공 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 접근성 확보...제주취항 항공사 방문 협력방안 논의 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' 2022-10-11 13:07 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광객 접근성 확보...제주취항 항공사 방문 협력방안 논의 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 관광객 접근성 확보...제주취항 항공사 방문 협력방안 논의 기자명 고병수 기자 입력 2019.08.15 11:40 수정 2019.08.15 12:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 노선활성화 협조 요청, 국내외 제주관광홍보사무소와 항공사 공동 마케팅 강화 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 관광객 유치 활성화를 위해 13일 오후 제주 취항 항공사들을 방문해 협력 방안을 논의했다고 14일 밝혔다.道는 대한항공, 아시아나항공, 제주항공, 티웨이항공 등을 방문해 동절기 국내선 공급석 확대, 중·대형기 투입, 추석연휴 특별기 확대, 동절기 일본노선 유지, 국제직항 확대, 항공사 공동 마케팅 추진 등을 요청하고 상호 협력 방안을 논의했다.항공사들은 제주공항 슬롯확충과 항공노선 탑승률 제고 등이 주로 거론됐다.이번 방문은 국내 경기침체, 한일관계 악화 등 대외 여건들이 제주관광 활성화에 부정적 요인으로 작용될 것을 고려해 관광객 유치 우선 과제인 접근성 확보 차원에서 선제적으로 이뤄진 조치라는 것.관광시장 안정화를 위한 항공사 공동마케팅 추진과 시장 확대를 위한 직항 취항에 대한 공유도 이뤄졌다. 이에 道는 항공사 현지지점과 제주관광홍보사무소 11개소를 중심으로 직항연계 상품을 중점적으로 마케팅 하는 한편 개별여행객 유치를 위해 유력 온라인매체를 통한 홍보에 집중해 나갈 방침이다.내국인 일본여행 수요를 제주로 유인하기 위한 탑승률 제고차원의 마케팅도 한층 강화된다.또한 제주지방항공청과 한국공항공사 제주지역본부 등과도 관련 협의를 추진해 나갈 예정이다.강영돈 관광국장은 "제주관광 활성화를 위해 직항접근성이 선결과제로 이를 위해 항공사를 우선 방문해 협력관계의 중요성을 강조했다"며 "앞으로도 항공사 공동 마케팅을 추진하는 등 관광객 유치를 위한 협력을 더욱 공고히 해나가겠다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 BPA, 부산항 항만물류통합플랫폼 모바일 앱(올컨e) 사용 장려 위한 컨테이너 삼남매 캐릭터 공개 최신뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 포토뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 무료로 한치물회, 옥돔구이 서비스 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 무료로 한치물회, 옥돔구이 서비스 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 무료로 한치물회, 옥돔구이 서비스 곽종현 기자 승인 2019.08.16 11:30 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 제주도에는 많은 오름이 있다. 이 가운데 서귀포시 하원동에는 법정악이 있다. 법정악은 서귀포 자연휴양림 내에 있으며, 오름 동쪽으로는 도순천이 지나고 있다. 그리고 오름 서남쪽에는 거린 오름, 남쪽에는 족은법정악, 동쪽에는 어저미 오롬이 있다. 법정악 서쪽 일대는 서귀포시 자연 휴양림이 조성되어 있어 해마다 여름이면 많은 휴양객들이 방문한다. 오름 동남쪽에는 법정사 항일 항쟁지가 조성되어 있고, 동쪽으로 한라산 둘레길이 조성되어 있다.서귀포시 표선면에는 붉은오름 자연휴양림이 있다. 지방도 1118호선, 지방도 1112호선, 국가 지원 지방도 97호선이 연결되어 제주도 전 지역에서 접근이 용이하다. 또한 붉은오름 자연휴양림 인근에는 붉은 오름, 물찻 오름, 가문이 오름, 사려니 숲길, 비자림, 산굼부리 등이 위치하고 있고, 휴양림에는 붉은 오름 등반길, 해맞이 숲길, 상잣성 숲길, 어린이 놀이터 시설, 산림 휴양관, 숲속의 집, 생태 연못, 야외 공연장, 전망대 등이 있다.여름 휴가 기간 동안 좋은 경치도 구경하고 몸에 좋은 음식을 통해 건강을 챙기려는 이들이 많다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 천연 약초를 숙성한 양념을 사용하여 몸에 좋은 해물갈치조림을 제공하고 있다. 천연 약초를 숙성한 양념 덕분에 맛은 물론 건강에도 좋아 양념을 밥에 비벼 먹는 손님들이 많다. 그리고 해산물은 특유의 비린 냄새가 있기 때문에 이를 잡아야만 맛이 좋아 기원뚝배기는 약초를 숙성한 양념을 사용하여 요리의 맛을 좋게 하고 있다. 해물갈치조림은 문어, 전복, 새우 등 다양한 해산물이 통갈치와 요리된다.요리의 맛은 재료가 많은 부분을 차지한다. 특히 더운 여름에 주문하는 해산물 요리는 싱싱한 재료를 사용하는 것이 원칙이다. 그래서 기원뚝배기는 식당 앞에 수족관을 두어 해산물 요리 주문이 들어오면 살아 있는 해산물로 바로 요리하고 있다.낯선 곳에 갔을 때 서비스로 제공되는 메뉴가 있다면 금상첨화다. 제주 중문 맛집 기원뚝배기는 여름 휴가를 맞이하여 해물갈치조림을 주문하는 손님들에게 여름철에만 먹을 수 있는 한치 물회를 무료로 제공하고 있다. 서귀포 맛집 기원뚝배기의 한치 물회는 매실 효소와 5가지 과일을 숙성시킨 육수에 오이, 미나리, 파프리카 등 여러 가지 야채를 넣어 더운 날씨에 손님들에게 인기를 얻고 있다. 한치는 회로 주문해서 먹을 수도 있다. 그리고, 해물갈치조림을 주문하면 옥돔구이와 성게국도 서비스로 제공된다.식당에서 밑반찬은 중요한 위치를 차지한다. 아무리 메인 요리가 맛있어도 밑반찬이 부실하면 무언가 허전하기 마련이다. 제주도 맛집 기원뚝배기는 매일 국내산 재료를 구입하여 전라도 엄마의 정성을 담은 밑반찬을 손님 상에 올리고 있다. 방문한 손님들이 맛있게 식사하기를 기원하는 마음과 가족이 먹는다는 마음을 담아 제공하고 있다.제주 맛집 기원뚝배기는 제주 중문 아침식사 맛집으로도 이름 나 있다. 실제 오전 7시부터 오후 10시까지 연중 무휴로 영업하고 있으며, 아침 해장메뉴는 물론 다양한 아침식사 메뉴를 준비하고 있다. 전날 술자리를 가진 손님의 경우 10가지 재료를 넣고 끓여 맛이 얼큰하고 시원한 전복뚝배기를 많이 찾고 있다.한편 기원뚝배기는 손님들에게 호텔 픽업 서비스를 제공하기 위해 무료로 셔틀버스를 운행하고 있다. 넓은 전용 주차장도 마련되어 있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>제주도, ‘제4회 대한민국 국제 관광박람회’서 최우수상 수상 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, ‘제4회 대한민국 국제 관광박람회’서 최우수상 수상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도, ‘제4회 대한민국 국제 관광박람회’서 최우수상 수상 문유미 기자 승인 2019.08.19 14:21 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 지난 15일부터 18일까지 나흘간 경기도 일산 킨텍스에서 열린 ‘제4회 대한민국 국제 관광박람회’에서 최우수상을 수상했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 여행 아이와 가볼만한 곳,실내관광지 ‘브릭캠퍼스’ 인기 높아져 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 13:05 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 여행 아이와 가볼만한 곳,실내관광지 ‘브릭캠퍼스’ 인기 높아져 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주도 여행 아이와 가볼만한 곳,실내관광지 ‘브릭캠퍼스’ 인기 높아져 기자명 인터넷뉴스팀 입력 2019.08.17 13:00 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 최근 일본의 경제보복과 관련해 일본여행을 자제하는 분위기에 국내여행의 수요가 늘면서 대표적 국내관광지인 제주도 역시 여행객의 수요가 늘고 있다.이에 제주도 내에 있는 여러 관광지, 가볼만한곳 중 브릭캠퍼스가 눈길을 끈다.제주도 박물관 중에서도 아이와 가볼만한곳으로 잘 알려진 실내관광지 브릭캠퍼스는 흔히 레고박물관이라 불리우는 세계 최초 브릭아트 테마파크이다. 수백여점의 브릭아트작품이 전시된 갤러리에서 40여명의 전문 브릭아티스트들의 작품을 관람할 수 있어 가족끼리, 친구끼리, 연인끼리 찾아가는 이들이 많다. 또한 제주 브릭캠퍼스는 제주공항에서 20분거리 가까운 곳에 위치해 있어 입도시나 출도시에 다녀오기 좋은 곳이다. 아이들에게는 창의력과 호기심을 불러일으키는 기회가, 어른들에게는 완성도 높은 작품들을 관람할 수 있어 어른과 아이들 모두 만족감이 높다. 제주 브릭캠퍼스는 ‘효리네민박2’, ‘런닝맨’ 등 여러 유명 TV프로그램에 소개된 바 있어 입소문이 많이 난 상태이며, 유명 연예인들도 많이 찾기로 소문나있다.비가 와도 문제 없이 즐길 수 있는 실내관광지라 비오는 날 여행하는 이들도 많이 찾고 있다. 전시관 외에 500여평의 넓은 정원, 직접 브릭작품을 다뤄볼 수 있는 체험관(브릭플레이존)이 있고, 대형식당, 카페, 야외정원,굿즈샵 등도 갖추고 있어 가족단위 여행지로 손색이 없다. 특히 대형식당에선 브릭 모양의 수제버거를 맛볼 수 있어 독특한 여행 경험을 쌓기 좋다. 레고는 성인도 즐기는 취미생활이기 때문에 아이들과 함께 방문하면 다 같이 자신만의 작품을,혹은 가족 공동의 작품을 만들기 좋고, 평소 가격 때문에 레고를 구입하지 못했던 이들 역시도 여행 중에 레고로 놀이를 하러 가곤 한다. 한편 제주 브릭캠퍼스에서는 브릭에 관한 이해를 돕고 창의력 발달에 도움을 주는 브릭아트클래스도 매일 열리고 있으며, 네이버예매를 통하면 할인혜택을 받을 수 있다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 '대세 걸그룹' 뉴진스, 신한은행 '뉴 쏠' 모델 발탁 당신만 안 본 뉴스 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? '천원짜리 변호사' 김지은, 낯익다 했더니 ITZY 류진·한소희·손나은 닮은꼴 '마약 혐의' 돈스파이크 입건에 성하윤 프로필·직업·인스타 관심 [특징주] 오성첨단소재 주가 급등세… 이유는? '소상공인 손실보상 2분기' 신청 시작... 대상·신청 방법은? [내일날씨] 전국 흐리고 비내려...일부 돌풍에 천둥·번개까지 '확인 방법 이렇게' 상생소비복권 당첨자 30일 발표...지급일 언제? "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 오늘공감 치열한 카드 빅4 경쟁…앱 사용자 분포는? '그림으로의 치유'…장수희 작가, 제8회 개인전 '노스텔지아' 개최 서울시교육청, 오는 28일까지 ‘빅데이터 활용 아이디어’ 공모 아빠의 무관심이 미덕(?)...초딩 아빠와 교장샘이 함께 춤을 추는 학교 한국화의 서태지 신동철 화백, 40회 개인전 ‘유몽고금(遊夢古今)’ 인기기사 1 [조봉현의 스타트업경제] 과거와 다른 高환율, 어디로 튈까? 2 조경태, "국민을 피해자로 만드는 '국회의원 면책특권' 폐지하라" 3 박수영 “국립대 교수 일가에게 놀아난 한전 자회사들…정부가 전수조사 해야" 4 유럽 출장길 오른 손태승 회장… UNEP FI 등과 국제협력 논의 5 외국인 고액 체납자 절반은 출국… 국세청 관리체계 구멍 6 대한민국 시·도의회의장협의회 김현기 회장, 제2회 중앙지방협력회의 참석 7 5년간 국민 1인당 세부담 300만원 늘어 8 양정숙 의원, "보험사, 은행, 정보보안·개인정보 보호 인증 안 받아" 9 김상훈 의원, 작년 국민 1인당 세금부담 1천199만원…2017년 이후 300만원 증가 10 4분기 제조업 '경기 악화' 전망 기업 ↑…“환율 상승에 원자재 비용 부담” 최신기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 안전실장 양기철 관광국장 승진 임명 &lt; 행정 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 안전실장 양기철 관광국장 승진 임명 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 행정 제주도 안전실장 양기철 관광국장 승진 임명 기자명 김용현 기자 입력 2019.08.02 15:20 수정 2019.08.04 13:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도 2일 하반기 정기인사 단행 승진 162명 규모, 전보 391명농업기술원장 정대천, 환경보전국장 박근수, 특별도추진단장 김명옥민선 7기 원희룡 제주도정은 도민안전실장에 양기철 관광국장을 발령하는 등 2019년 하반기 정기인사를 2일 단행, 발표했다.제주특별자치도는 인사 규모는 승진 162명, 전보 391명, 행정시 교류 99명 등 모두 682명이다.부이사관급 인사에서는 정대천 농업기술원 기술지원국장이 농업기술원장으로, 박근수 생활환경과장이 환경보전국장 직무대리로, 최윤식 농업기술원 제주농업기술센터소장이 기술지원국장으로, 김기범 비서실장이 인재개발원장 직무대리로, 양성하 일자리과장이 서울본부장 직무대리로 김명옥 세정담당관이 특별자치제도추진단장으로, 이영진 총무과장이 제주시 부시장 직무대리로 승진했다.현대성 교통항공국장과 조동근 해양수산국장이 '직무대리' 꼬리표를 떼고 직급 승진했다. 또 관광국장에는 강영돈 제주평생교육장학진흥원 사무국장이 자리을 옮겼다.제주도는 이번 인사에서는 △도민 행복을 위한 생활민원 적극 해결 △민생경제 안정과 일자리 창출을 위한 전문성 제고 △일 잘하는 조직 육성 등을 기조로 단행했다고 밝혔다.여성 국장급 승진 및 총무팀장, 더큰내일센터 등 주요 보직에 여성공무원을 배치했다. 5급 승진에서는 13개 직렬 33명의 승진자 가운데 13명(39.3%)을 여성으로 발탁하는 등 성별 균형을 맞추는데 노력했다고 밝혔다.도는 상하수도, 환경, 교통, 복지 등 도민 삶의 질과 밀접한 현안부서에는 생활 민원을 적극 해결할 수 있는 역량을 가진 직원을 배치하고, 격무에 따른 인센티브도 부여한다.주요도정 시책 업무의 연속성을 유지하기 위해 직무특성, 업무수행 능력, 도정 기여도를 감안한 인사 배치에도 역점을 뒀다. 또 격무·기피부서의 장기근무자에게는 승진 및 우대 원칙을 반영했다고 강조했다.청렴 공직자상 구현을 위해 조직 내부에서 물의를 일으키거나 비위공직자, 징계처분자 등에 대해서는 주요보직 배제 원칙을 적용했다고 설명했다. 김용현 기자 noltang@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 한치물회, 옥돔구이 나와 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 한치물회, 옥돔구이 나와 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 한치물회, 옥돔구이 나와 곽종현 기자 승인 2019.08.12 13:42 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 서귀포 자연휴양림은 한라산 서쪽을 가로질러 제주시와 서귀포 중문관광단지를 잇는 1100 도로 상의 동측에 위치한다. 서귀포자연휴양림은 수려한 경관과 맑은 계곡, 수령 50년 이상의 비자나무, 삼나무, 주목 등 울창한 숲이 조성되어 있으며, 등산로 입구에는 하늘이 보이지 않을 정도의 우거진 숲 산책로가 있어 많은 여행객들이 찾고 있다.휴양림 안에는 총 245분류군의 식물상이 분포하고 있는데 이들 중 개족도리, 고란초, 사철란, 수정난풀, 목련, 새우란 등의 보호 대상 식물도 있다. 서귀포 자연휴양림 산책 코스로는 생태 탐방 코스와 건강 산책 코스 2가지 유형이 있다. 유형별 산책 코스에 따라 주변 주요 생태 자원 및 경관 자원, 주변 시설 등에 대한 정보를 제공하며, 산악 등반, 계곡 탐방, 삼림욕 산책, 임도 산책, 조깅, 마라톤 등 이용 목적에 따라 코스가 세분화 되고, 맨발 이용 권장, 자전거 이용, 등산화 이용, 일반 산책 등 이용하는 방법도 다양하다. 하루 최대 1,500명 정도 수용 가능하며, 차량 200대가 주차할 수 있는 주차 시설이 갖춰져 있다.여름 휴가를 맞이하여 제주를 찾은 여행객들은 더위를 이기고 건강에 좋은 해산물 요리를 많이 찾고 있다. 이 가운데 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 몸에 좋은 천연 약초를 숙성한 양념을 이용하여 해산물 특유의 비린 냄새를 잡은 해물갈치조림을 선보이고 있다. 이 요리에는 문어, 전복, 새우 등 다양한 해산물이 통갈치와 함께 요리되어 푸짐하게 먹을 수 있다. 천연 약초를 숙성한 양념 덕분에 맛이 고소할 뿐만 아니라 양념 맛이 좋아 밥과 양념을 비벼 먹는 손님들도 많을 정도다.여름 휴가 맞이 이벤트도 진행하고 있다. 제주 중문 맛집 기원뚝배기에서 해물갈치조림을 먹으면 무더위를 날려버릴 시원한 한치 물회가 서비스로 나온다. 게다가 해물갈치조림에는 옥돔구이와 성게국도 무료로 제공된다. 한치 물회는 통갈치조림정식 A세트, B세트를 주문해도 무료로 먹을 수 있다. 또한 통갈치조림정식 A세트에는 옥돔구이와 성게국이 기본 상차림에 나오는데 이벤트 기간 동안에는 옥돔구이와 성게국을 하나씩 더 서비스로 제공하고 있다.한치는 더운 여름에만 맛볼 수 있는 여름철 별미인데 서귀포 맛집 기원뚝배기의 한치 물회는 시원한 맛이 일품이다. 한치 물회에는 매실 효소와 5가지 과일을 숙성시킨 육수와 오이, 미나리, 파프리카 등 여러 가지 야채를 넣고 있다. 한치 물회는 더위에 지친 손님들에게 큰 호응을 얻고 있으며, 한치는 회로도 주문해서 먹을 수 있다.더운 여름에는 신선한 재료를 사용해서 요리하는 것은 필수다. 특히 해산물 요리는 재료가 싱싱해야 맛도 좋은 법. 그래서 기원뚝배기는 식당 입구에 수족관을 두어 손님들로부터 요리 주문이 들어오면 살아 있는 해산물을 이용하여 요리를 하고 있다. 해산물 요리를 먹으려고 할 때는 식당에 수족관이 있는지도 살펴볼 필요가 있다.밑반찬은 가장 기본적이면서 식당의 맛을 좌우하는 중요한 요소다. 제주도 맛집 기원뚝배기는 전라도 엄마의 정성을 담은 밑반찬을 매일 직접 만들고 있다. 국내산 재료를 구입하여 내 가족이 먹는다는 마음으로 만들고 있는데 이는 방문한 손님이 맛있게 식사하기를 기원한다는 상호의 뜻처럼 업소 대표의 철학이 밑받침 되기 때문에 가능하다. 밑반찬을 매일 만드는 일은 일손이 많이 가기 때문에 관광지 식당의 경우 외부에서 밑반찬을 사서 손님상에 올리는 곳도 있다.제주 맛집 기원뚝배기는 이른 아침 시간인 오전 7시부터 오후 10시까지 연중 무휴로 영업하고 있어 제주 중문 아침식사 맛집으로도 이름 나 있다. 실제 기원뚝배기는 전복뚝배기 등 다양한 아침 메뉴를 준비하고 있는데 전복뚝배기는 10가지 재료를 넣고 끓여 맛이 얼큰하고 시원하여 아침 해장 메뉴로 많이 찾고 있다.한편 기원뚝배기는 방문한 손님들의 편의를 제공하기 위해 무료로 셔틀버스를 운행하면서 영업시간 동안 호텔 픽업서비스를 제공하고 있다. 그리고 식당 바로 옆에는 넓은 전용 주차장도 마련되어 있어 주차가 편리하다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, ‘칭찬합시다’ 베스트 관광인 선정 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 13:07 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, ‘칭찬합시다’ 베스트 관광인 선정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도관광협회, ‘칭찬합시다’ 베스트 관광인 선정 기자명 제주매일 입력 2019.08.13 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 김영진)는 지난 8일 제주종합비지니스센터 3층 대회의실에서 “칭찬합시다” 6월 베스트 관광인에 (주)토이파크(대표 유봉주)와 7월 베스트 관광인에 (주)SK핀크스(지배인 오명근)을 선정하고 선정패와 친절 키움 꽃 화분을 전달했다. 도 관광협회는 앞으로도 제주 관광 친절 서비스에 모범이 되는 베스트 관광인을 매월 선정, 수범 사례를 공유하고 이를 계기로 제주 관광 종사자들의 친절 및 서비스 마인드를 한 단계 높여나감으로써 “관광으로 만들어 가는 희망찬 제주” 만들기에 앞장서겠다고 전했다. 제주매일 news@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>3가지요리로 즐기는 갈치, 효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도 성산일출봉맛집 세화해녀의 집, 2019 서귀포표선 야해 페스티벌 개최 기대 관광객 몰려 - 월간원예 × 전체기사 포커스 전체 기획특집 피플 가든&amp;라이프 전체 공기정화식물 원예치료 한국의 꽃 플레이스 전체 과수 채소 화훼 네트워크 전체 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 Info 전체 식량원 Q&amp;A 해외원예 테크 마켓 비즈 전체 작물보호제 종자소개 농자재정보 목차 회사소개 원예News 동영상 일반 로그인 회원가입 모바일웹 UPDATED. 2022-09-20 18:04 (화) 기사검색 검색 포커스 플레이스 과수 채소 화훼 피플 테크 비즈 작물보호제 종자소개 농자재정보 마켓 네트워크 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 이전 다음 제주도 성산일출봉맛집 세화해녀의 집, 2019 서귀포표선 야해 페스티벌 개최 기대 관광객 몰려 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 상태바 HOME 일반 제주도 성산일출봉맛집 세화해녀의 집, 2019 서귀포표선 야해 페스티벌 개최 기대 관광객 몰려 김영준 기자 승인 2019.08.11 15:00 댓글 0 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 세화해녀의 집 제공 오는 15일부터 17일까지 3일간의 기간 동안 표선 해수욕장에서 열리는 '2019 서귀포표선 야해(夜海)페스티벌'의개최로 인해 관심도가 늘어가고 있는 것으로 알려졌다. 서귀포시는 이번 축제를 '가보지 않은 설렘'에 대한 주제로 서귀포의 아름다운 밤바다와 이색적인 공연문화를 접목한 야간 이벤트로 진행될 예정이라고 밝혔다. 축제에는 청년 아티스트들과 인디밴드, 미스트롯, 제주도의 대표밴드는 물론 디제이의 댄스파티도 펼쳐질 것으로 알려져 더욱 기대가 모여질 전망이다. 때문에 해당 축제를 즐기기 위해 몰려드는 다수의 인파들을 만족시킬 만한 맛집에 대한 정보 역시 쏠리고 있는 추세다. 요즈음의 관심사로는 새콤한 물회가 주목을 받고 있는데 그 중에서도 일반 광어가 아닌 크기가 8자에 달하는 대광어만을 사용해 만드는 대광어물회가 주목을 받고 있는 추세다. 대광어물회를 제주도에서 최초로 선보인 곳은 세화해녀의 집으로 일찍이 KBS2TV 생생정보통 등 여러 매체에 방영된 집이다. 이 곳에서 제공하는 대광어물회에 사용되는 대광어는 크기가 큰 것이 8자에 달하는 것은 물론 무게도 무려 5kg정도에 달한다. 이러한 대광어를 사용해 만든 물회를 제공하기에 큼직하고 푸짐하게 썰어 씹는 맛과 먹는 맛, 포만감의 3박자를 갖추었다고 평가받는다. 뿐만아니라 한치물회, 전복성게물회와 같이 다양한 물회와 더불어 해물뚝배기, 전복죽, 성게 미역국 등의 식사까지 제공한다. 특히 식사 메뉴 중 제주산 오분자기가 가득 들어간 오분작 해물뚝배기는 음식의 빛깔과 향, 맛의 삼박자를 갖추어 성산일출봉맛집으로도 엄지를 치켜세우는 이들이 적지 않다. 또한 여름 휴가철을 맞아 숙소 등에 대한 고민을 덜 수 있도록 주변에는 해비치 리조트와 샤인빌 리조트도 위치해 휴가를 즐기기에 딱 맞는 곳으로 잘 알려져 있다. 성산일출봉맛집 세화해녀의집 관계자는 "대광어물회, 대광어회덮밥과 같이 고객 분들의 입맛을 즐겁게 할 수 있는 신메뉴 출시를 지속적으로 하는 것은 물론이고 사시사철 즐길 수 있는 갈치조림, 옥돔구이, 성게미역국, 고등어구이 등 제주도를 찾아주시는 분들이라면 즐겨 드시는 다양한 식사메뉴를 갖추기 위해 노력하겠다. 이를 바탕으로 찾아주시는 모든 분들께 바다를 보며 즐기는 풍요로운 식사를 제공할 것”이라고 전했다. 저작권자 © 월간원예 무단전재 및 재배포 금지 김영준 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 월간원예 소개 지난호보기 정기구독안내 광고안내 전문가상담코너 우리농촌책보내기운동 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 월간원예 제호 : 월간원예 등록번호 : 서초 라 00086 등록일 : 1983-10-20 발행일 : 1983-10-20 발행·편집인 : 이주상 월간원예 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 월간원예. All rights reserved. mail to wonye@nongup.net 위로</t>
+  </si>
+  <si>
+    <t>성수기 8월 제주도 가볼만한곳 이색적인 깨알컨셉으로 찍는 재미가 있는 제주 관광지 - 데일리시큐 × 전체기사 산업 이슈 정책 해외 IT&amp;생활 전체 핫이슈 라이프 뉴스 경제일반 이슈 산업 정책 해외 IT&amp;생활 핫이슈 자료실 전체기사 기사검색 기사제보 뉴스레터신청 2022-10-11 13:05 (화) 처음으로 로그인 회원가입 이전 다음 성수기 8월 제주도 가볼만한곳 이색적인 깨알컨셉으로 찍는 재미가 있는 제주 관광지 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME IT&amp;생활 성수기 8월 제주도 가볼만한곳 이색적인 깨알컨셉으로 찍는 재미가 있는 제주 관광지 우진영 기자 승인 2019.08.10 09:00 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 한창 폭염이 지속되고 있는 8월 휴가철은 입춘이 시작되면서 많은 사람들이 휴가철을 제대로 누리고 있다. 많은 해외여행부터 국내 여행지까지 더위를 피할 수 있는 피서지나 해수욕장 숨은 계곡 등 다양한 명소들은 많은 방문객들로 인해서 인산인해다. 그중에서 여전히 많은 사람들에게 사랑을 받는 No.1 휴가지는 당연 제주도 여행이다. 제주도는 사시사철 다양한 느낌을 간직하고 있는 명소와 사면이 바다로 둘러싸여 있어서 풍부하고 신선한 해산물을 바로 먹을 수 있는 다양한 맛집이 있다. 무엇보다 요즘 제주도 가볼만한곳으로 새롭게 관심을 받고 있는 제주 관광지 성읍랜드는 다양하게 이용할 수 있는 레저형 관광지로 제주도 핫플레이스로 입소문을 날리고 있다. 시원한 여름 캐릭터 복장을 입고 사진도 찍고 신나게 레이싱을 할 수 있는 제주도 카트는 어른 아이같이 체험을 할수 있어 제주 아이와 가볼만한곳으로도 가족 여행객들이 꾸준히 찾고 있다. 초원을 신나게 달릴 수 있는 제주 승마체험 고급 코스(30분 이상)는 새로운 빅재미를 선사하고 있다. 무엇보다 요즘 사진을 많이 찍는 여행에 트렌드에 맞춰서 더욱 새로운 컨텐츠로 주목받고 있는 제주도 atv는 거친 오프로드 달리는 재미와 공룡컨셉으로 포즈를 취하면서 찍는 깨알 같은 재미는 이용하는 방문자들에게 더한 만족감을 주고 있다. 익사이팅 한 체험과 감성적인 핑크빛이 감도는 분홍분홍해 제주도 카페에서 음료를 주문하는 사람 안에서 웨딩드레스를 입고 다양한 포토존에서 사진을 찍을 수 있어서 제주도 사진 찍기 좋은 곳으로도 명성을 얻고 있다. 성읍랜드 관계자는 " 앞으로 남은 휴가철 동안 풍부한 이용거리와 재미로 최고의 서비스로 응대하면서 손님들이 전부 만족하실 수 있도록 최선을 다하겠다 "라고 전했다. 저작권자 © 데일리시큐 무단전재 및 재배포 금지 우진영 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 많이 본뉴스 1 국제사이버보안인증협회 창립총회 및 발대식 개최 국제사이버보안인증협회 창립총회 및 발대식 개최 2 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 3 한수원-한전KDN, 정규직 채용전환 인턴에 대한 미지급 퇴직금만 2억여 원 4 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 5 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 오늘이 주요뉴스 시스코 제품 보안취약점 주의...최신 버전 사용해야 주의 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 긴급속보 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 정책 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 고학수 제2대 개인정보보호위원장 취임 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 고학수 제2대 개인정보보호위원장 취임 보안자료 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 3교시 개인정보 유·노출 예방 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 2교시 개인정보의 안전한 관리 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재-1교시 개인정보보호법 주요 내용 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-3교시 공공기관 특화제도 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-2교시 공공기관 관련 개인정보 유출사례분석 및 사후발생 대처 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 송파구 가락로 208, 402호(송파동, 일조빌딩) 대표전화 : 02-400-2908 팩스 : 02-400-2906 청소년보호책임자 : 길민권 법인명 : 제호 : 데일리시큐 등록번호 : 서울 아 02362 등록일 : 2011년 3월 28일 발행일 : 2017-05-01 발행·편집인 : 길민권 사업자 번호 : 301-87-02348 데일리시큐 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데일리시큐. All rights reserved. mail to mkgil@dailysecu.com 위로</t>
+  </si>
+  <si>
+    <t>수원검교정</t>
+  </si>
+  <si>
+    <t>제주도, 네비게이션 활용한 관광객 이동패턴 빅데이터 분석연구 추진 전체기사 | SECURITY | IT | SAFETY | | 통합검색 뉴스 기자명 컨텐츠 상호검색 제품검색 클라우드 마비의 이유, 결과 그리고 ... 랜섬웨어의 발전과 진화에 맞서 IT가... Masscan 랜섬웨어, DB 서버 ... 이란 국영방송 해킹! 이란 지도자 과... 로그인 | 회원가입 | 기사제보 | 스크랩 통합검색 뉴스 기자명 컨텐츠 상호검색 제품검색 전체기사 SECURITY IT SAFETY Security World #전체기사 #시큐리티월드 #사건사고 #프리미엄 리포트 #NFT #ISEC 2022 뉴스레터 신청 시큐리티 콘텐츠 Home &gt; 전체기사 제주도, 네비게이션 활용한 관광객 이동패턴 빅데이터 분석연구 추진 |  입력 : 2019-08-09 09:15 #4차 산업혁명 #ICT #빅데이터 #제주도 [보안뉴스 박미영 기자] 제주도와 제주관광공사는 급변하는 제주관광 트렌드 변화를 파악하고 데이터에 기초한 관광 정책 수립 등의 목적을 위해 네비게이션 빅데이터 구축하고, 이를 활용한 ‘제주 방문 관광객 이동패턴 빅데이터 분석’ 연구를 추진한다고 밝혔다.네비게이션 빅데이터에는 검색시점, 출·도착지 검색정보 및 GPS 위치정보, 이동시간, 이동거리, 평균속도, 검색회수, 재방문 여부 등의 정보가 포함된다.네비게이션 이용 건수는 도민을 포함해 일평균 6만여건으로, 월평균 180만건·연 2,000만건 이상의 제주지역 내 차량 이동 정보가 구축될 것으로 전망되며 관광객 이용 건수만을 추가로 분리할 계획이다.네비게이션 빅데이터 구축과 함께 관광객 주요 차량 이동 출·도착지 정보 등을 정리한 네비게이션 기본 현황 보고서를 작성해 대외 공유할 예정이다.네비게이션 빅데이터는 관광객들이 주로 찾는 숙소·음식점·관광지·핫스팟 등을 구체적으로 특정할 수 있다는 장점을 가지고 있으며, 이동통신 빅데이터는 성별·연령 등 추가 정보를 포함하고 있다.이에 두 빅데이터를 상호 보완 분석하면 이동통신 빅데이터만을 활용한 이전의 연구 결과와 달리 보다 상세한 관광객 이동 경로를 분석할 수 있을 것으로 전망하고 있다.‘제주 방문 관광객 이동패턴 빅데이터 분석’을 위해 네비게이션 자료를 이용해 관광객들이 주로 방문하는 지역을 블록화하고, 블록 간 관광객 이동패턴을 분석할 계획이다.또한 블록 내 관광객들이 주로 찾는 관광지·맛집 등 관광객 핫플레이스 파악하고, 이동통신 빅데이터를 보완 분석해 비차량 이동자를 포함한 관광객 전체 이동패턴도 살펴볼 예정이다.제주도는 이번 분석을 통해 제주 방문 관광객의 최신 관광 트렌드를 파악하고 분석 결과는 공공의 관광 정책 수립, 관광업계의 마케팅 전략 도출, 학계의 학술연구 등 도내 여러 분야에서 다양하게 활용됨에 따라 궁극적으로는 제주 방문 관광객의 만족도 증가와 도민의 삶의 질 향상에 크게 기여할 것으로 기대하고 있다.한편, 제주도와 제주관광공사는 빅데이터 기반 제주관광 정책 수립을 위해 지난 2017년부터 신용카드 빅데이터를 이용한 제주관광산업 매출구조 분석·제주관광 위성계정 구축·제주관광 조수입 추계 등의 사업을 추진해 왔다.강영돈 제주도 관광국장은 “제주관광 트렌드 분석에 있어 빅데이터에 기초한 정확하고 신속한 양질의 분석 결과를 도출하고, 네비게이션·이동통신·신용카드 등 이종의 빅데이터를 매칭 및 심층 분석한 종합적인 결과를 관광 정책 수립과 관광 마케팅 전략 도출에 적극 반영하도록 노력을 기울여 나가겠다”고 밝혔다.[박미영 기자(mypark@boannews.com)]&lt;저작권자: 보안뉴스(www.boannews.com) 무단전재-재배포금지&gt; 박미영기자 기사보기 0 0 헤드라인 뉴스 클라우드 마비의 이유, 결과 그리고 대책 랜섬웨어의 발전과 진화에 맞서 IT가 반드시 기억해야 할 것들 Masscan 랜섬웨어, DB 서버 타깃 무작위 대입 공격 통해 감염 확산 이란 국영방송 해킹! 이란 지도자 과녁 표적으로 세운 이미지 노출 원격근무에 따른 기업 환경의 격변, IT와 보안은 어디에 집중해야 하나 TOP 뉴스디지털 전환 등 여러 문제를 해결하고 싶다? 어...미국 공항 웹사이트, 친러 성향 해킹 단체에 공...인텔, 엘더레이크 바이오스의 소스코드 유출 인정포티넷 제품에서 발견된 취약점, 실제 공격에 활...줌 피싱 공격 통한 마이크로소프트 익스체인지 크...아이스드아이디 멀웨어 운영자들, 전략의 다양화 ...‘제2기 KISA 대학생 영상 서포터즈’ 해단식...TTA, ‘한국 주도 글로벌 사실표준화기구 신설... 로그인 후 댓글을 입력하세요. 가장 많이 본 기사 [주간] 제2대 개인정보보호위원회 위원장에 고학수 서울대 교... Daum 사칭 ‘카카오와 계정 병합’ 이슈로 위장한... 2022년 3분기 랜섬웨어 키워드: LockBit ... [주말판] 다가오는 사이버 허리케인, 안전 구역은 ... MS 익스체인지 서버의 또 다른 제로데이 취약점 프... GlobeImposter 국내 유포... 2분기 M... [2022년 상반기 보안업계 성적표-2] 출입통제·... PHP 생태계를 위협하는 또 다른 공급망 공격의 가... 새 백도어 매기, 마이크로소프트 SQL 서버들 노리... 바이낸스 브리지, 5억 6600만 달러의 암호화폐 ... 주요 기업별 기사 “ SNS에서도 보안뉴스를 받아보세요!! ” 취약점 경고 및 보안 업데이트 [2022-10-10] Masscan 랜섬웨어, DB... [2022-10-10] 이란 국영방송 해킹! 이란 지... [2022-10-09] IT, 언론 업계 등 타깃으로... [2022-10-08] GlobeImposter 국내... [2022-10-08] Daum 사칭 ‘카카오와 계정... 보안ㆍIT산업 동향 TTA, ‘한국 주도 글로벌 사실표준화기구 ... 안랩, 다양한 행사에 친환경 요소 적극 도입... KISA, 인터넷주소분쟁조정위원회 위원 위촉 파수, 새로워진 ‘랩소디’로 문서중앙화 대체... [2022 국감] 의료기관 내 폭행... 흉... 조회순 추천순 스크랩순 1 [주말판] 다가오는 사이버 허리케인, 안전 ... 2 MS 익스체인지 서버의 또 다른 제로데이 취... 3 GlobeImposter 국내 유포... 2... 4 이란 국영방송 해킹! 이란 지도자 과녁 표적... 5 Masscan 랜섬웨어, DB 서버 타깃 무... 1 Masscan 랜섬웨어, DB 서버 타깃 무... 2 랜섬웨어의 발전과 진화에 맞서 IT가 반드시... 3 이란 국영방송 해킹! 이란 지도자 과녁 표적... 4 소비자 기만하는 다크패턴 규제 시작되나 5 [유경동의 IP 인사이트] 장난 아닌 장난감... 1 무선 네트워킹 분야에서 떠오르는 새로운 개념... 2 2022년 3분기 랜섬웨어 키워드: Lock... 3 [2022 접근제어 리포트] 계정관리·통합접... 4 대한민국 디지털 전략 속 ‘사이버보안’ 정책... 5 [‘개인정보보호의 날’ 설문조사] ‘개인정보... 설문조사 산업 전 분야의 지능화·융합화·스마트화 추세에 따라 스마트시티와 스마트공장, 스마트의료, 스마트상점 등 각 분야에서도 정보보안과 물리보안이 함께 접목되는 융합보안이 이슈가 되고 있습니다. 올해 융합보안이 가장 활발하게 적용될 분야는 어디라고 보시나요? 스마트시티 보안 스마트공장 보안(OT 보안) 스마트의료 보안 스마트상점 보안 기타(댓글로) 클라우드 마비의 이유, 결과 그리고 대책 랜섬웨어의 발전과 진화에 맞서 IT가 반드시 기억해야 ... Masscan 랜섬웨어, DB 서버 타깃 무작위 대입 ... 이란 국영방송 해킹! 이란 지도자 과녁 표적으로 세운 ... 원격근무에 따른 기업 환경의 격변, IT와 보안은 어디... 사이버 범죄자들, 지능화 기법으로 온·오프라인 결제 접... [주말판] 다가오는 사이버 허리케인, 안전 구역은 존재... GlobeImposter 국내 유포... 2분기 MY-... 회사소개| 광고안내| 이용약관| 개인정보 처리방침| 청소년 보호정책| 고객센터| 제휴안내| 관련서적| RSS 서비스| 발행인: 최정식  |  편집인: 최소영  |  청소년보호책임자: 최소영 등록번호 : 서울 아00181 | 등록연월일 : 2006년 3월 17일 | 상호 : (주)더비엔 | 사업자등록번호 : 407-86-00506 | 대표 : 최정식 주소 : 서울시 마포구 마포대로 25 (마포동, 신한디엠빌딩 13층) (우. 04167) | 전화 : 02-719-6933 | 팩스 : 02-715-8245 | E-mail : helpdesk@boannews.com 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 권 준(editor@boannews.com) Copyright ⓒ thebn Co., Ltd. All rights reserved.</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 통갈치구이와 갈치조림으로 유명한 제주도 중문 관광단지 맛집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>선흘2리대책위, 양기철 제주도 관광국장 승진에 반발 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 13:05 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 선흘2리대책위, 양기철 제주도 관광국장 승진에 반발 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 선흘2리대책위, 양기철 제주도 관광국장 승진에 반발 기자명 김정호 기자					(newss@hanmail.net) 입력 2019.08.02 17:53 댓글 2 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 양기철 제주도 관광국장의 도민안전실장(2급 이사관) 승진 인사와 관련해 선흘2리 대명제주동물테마파크 반대대책위원회가 2일 성명을 내고 강하게 반발했다.양 국장은 7월16일 동물테마파크에 대한 도의회 행정사무조사특별위원회 현장 방문 당시, “마을이 이 사업을 찬성하며, 이는 마을총회를 통해 결정됐다”는 취지의 발언으로 논란을 일으켰다.반대측은 “양 국장의 발언은 명백한 허위사실로 드러났다. 거짓 발언으로 사회에 물의를 일으키고, 도의회마저 우롱한 자를 최고위직에 승진시킨 원희룡 도지사의 비상식적인 인사”라고 평가했다.이어 “양 국장의 승진은 이번 인사가 얼마나 원칙 없는 인사였는지 보여 준다”며 “원 지사는 자신이 제시한 인사원칙마저 위반한 기만적인 행태에 사과하고 양 국장을 징계하라”고 주문했다.반대측은 “선흘2리 주민들과 선흘2리 대명제주동물테마파크 반대대책위원회는 이번 인사에 분노하며 기만적인 도정과 양 국장에게 이 사태의 책임을 끝까지 묻겠다”이라고 경고했다. 관련기사 제주동물테마파크 "지역주민 우선 고용, 청소년 장학사업" 제주동물테마파크 분수령, 선흘2리 개발위원회 '제동' 동물테마파크 찬성위 "반대위, 법적효력 인정 못받아" 람사르습지위 "반생태적 동물테마파크, 협의 일절 거부" 동물테마파크 사업자 "환경 훼손-동물권 침해 아냐" 선흘2리 주민들 '동물테마파크 밀실협약 무효' 집단소송 찬·반주민 ‘두 동강’…법 대응 예고로 기름 붓는 동물테마파크 사업자 김정호 기자 newss@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 제주답게 만들기를~~ 2 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 3 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 4 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 5 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 6 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 7 못간다 8 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 9 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 10 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>8월 제주도 중문 관광단지 맛집 갈치조림 눈길 효리의단골집 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치물회, 옥돔구이 나와 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치물회, 옥돔구이 나와 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치물회, 옥돔구이 나와 곽종현 기자 승인 2019.08.05 16:28 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 본격적인 여름 휴가를 맞이하여 해수욕장을 찾는 이들이 많다. 화산섬 제주는 산과 바다를 함께 즐길 수 있어 많은 여행객이 찾는 곳이다. 서귀포에 있는 화순금모래해변은 용천수와 바닷물의 만남이 이루어지는 곳으로 유명하다. 화순금모래해변은 길이 250m, 폭 80m로 아담하며 금빛 모래가 많고 배후에는 소나무가 자라고 있다. 해수욕장 명칭은 화순 마을 해안에 금빛 모래가 많다고 하여 붙여진 것이다. 화순금모래해변에서는 가파도와 마라도가 보이며, 북쪽에는 용암 원정구인 산방산이 위치한다. 제주 올레 9코스의 종점이자 10코스의 출발점이기 때문에 이용객들이 많고, 서남쪽 4㎞ 지점에는 낚시터로 잘 알려진 형제섬이 있다. 이곳에서는 바닷가에서 샘솟는 용천수가 있어 제주도에서 드물게 담수욕을 함께 즐길 수 있다. 화순금모래해수욕장 입구 부근에서는 ‘썩은 다리’라는 약 20m 높이의 고기 응회암층 노두도 관찰할 수 있다. 여행의 묘미는 역시 맛있는 요리를 먹는 것이다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 해산물 특유의 비린 냄새를 잡기 위해 천연약초를 숙성한 양념을 사용하고 있어 갈치조림으로 이름이 나 있다. 요즘 제주도 여행객들이 갈치조림을 많이 찾고 있는데 기원뚝배기는 문어, 전복, 새우 등 다양한 해산물을 넣은 해물갈치조림이 주력 메뉴다. 천연약초 숙성 양념을 사용하기 때문에 비린 냄새가 없고 맛이 고소하여 현지인들도 많이 찾고 있다. 현대인의 입맛을 사로 잡은 양념은 맛이 좋아 밥에 양념을 비벼 먹는 손님들이 많다. 제주도 중문 맛집 기원뚝배기는 여름 휴가 서비스 제공 이벤트도 진행하고 있다. 해물갈치조림, 통갈치조림정식 A세트, B세트에는 여름에만 맛볼 수 있는 별미인 한치 물회가 서비스로 제공된다. 그리고 해물갈치조림에는 서비스로 옥돔구이와 성게국도 함께 나온다. 게다가 통갈치조림정식 A세트를 주문하면 기본 상차림에 나오는 옥돔구이와 성게국에 추가하여 옥돔구이와 성게국이 하나씩 더 제공된다. 더운 여름에는 신선한 재료로 요리하는 것이 무엇보다 중요하다. 기원뚝배기는 신선한 해산물 요리를 제공하기 위해 식당 앞에 수족관을 두고 있다. 해산물 요리 주문이 들어오면 수족관에 있는 살아 있는 싱싱한 해산물을 사용하여 요리하기 때문에 더욱 맛좋은 요리를 먹을 수 있다. 여름철 별미 한치 물회는 손님들에게 큰 인기다. 한치물회에는 5가지 과일과 매실 효소를 숙성시킨 육수를 사용하며, 오이, 미나리, 파프리카 등 다양한 야채를 넣어 시원한 맛이 일품이다. 한치는 회로도 주문할 수 있다. 제주도 맛집 기원뚝배기는 밑반찬 하나에도 정성을 쏟고 있다. 업소 대표는 매일 국내산 재료를 구입하여 전라도 엄마의 손맛을 담아 밑반찬을 만들고 있다. 기원뚝배기 상호는 방문한 방문한 손님들이 맛있게 식사하기를 기원한다는 뜻이 담겨 있으며, 내 가족이 먹는다는 마음으로 모든 요리를 만들고 있어 한번 방문한 손님이 재방문하는 경우가 많다. 제주 맛집 기원뚝배기는 연중 무휴로 오전 7시부터 오후 10시까지 문을 열고 있다. 다양한 아침식사 메뉴도 준비하고 있어 제주도 중문 아침식사 맛집으로도 잘 알려져 있으며, 특히 전복뚝배기는 10가지 재료를 넣고 끓여 맛이 얼큰하고 시원해서 해장 메뉴로 많이 찾고 있다. 그리고 무료 셔틀버스를 운영을 통해 호텔 픽업서비스를 제공하고 있다. 넓은 주차장도 식당 바로 옆에 있어 주차가 아주 편리하다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 갈치를 세가지버전으로 즐길 수 있는 제주도 중문 관광단지 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치 물회, 옥돔구이 제공 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치 물회, 옥돔구이 제공 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 갈치조림정식에 서비스로 한치 물회, 옥돔구이 제공 곽종현 기자 승인 2019.08.01 14:06 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 서귀포시 중문관광단지는 제주도의 대표적인 관광명소로 꼽힌다. 제주섬 남쪽 해안가에 있는 관광위락단지로 중문해수욕장을 비롯하여 퍼시픽랜드, 민속마을, 천제연폭포 등 볼거리가 가득하다. 아울러 호텔과 서귀포 중문관광단지 맛집도 즐비해 있다. 서귀포시 상효동과 토평동의 경계를 이루는 영천천 중류에는 용출량이 매우 풍부한 돈내코물이 솟아나고 있다. 이 물은 인근 주민들이 식수로 활용돼 왔었다. 부근 암벽에는 당시의 간이수도 개설을 기념하여 ‘돈내코 수도 기념’이란 글씨와 함께 기부자들의 이름을 새겨 놓고 있다. 현재 돈내코물이 흐르는 남쪽 지구에는 많은 양의 물을 이용하여 유원지가 조성되어 있다. 제주 중문관광단지 관광을 계획 중이라면 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'를 방문해보자. 제주 서귀포시 색달동 관광단지입구 삼거리 인근에 위치한 제주 맛집으로 각종 해산물을 넣은 해물갈치조림에 대한 커다란 인기를 자랑한다. 제주도 중문 맛집 기원뚝배기는 여름 휴가를 맞이하여 다양한 서비스를 제공하고 있다. 먼저 해물갈치조림을 주문하면 여름에만 맛볼 수 있는 시원한 한치 물회를 무료로 제공한다. 그리고 옥돔구이와 성게국도 함께 무료로 제공하여 푸짐한 식사가 가능하다. 또한 통갈치조림정식 A세트 혹은 B세트에도 한치 물회가 서비스로 나오며, 통갈치조림정식 A세트를 주문하면 옥돔구이와 성게국을 하나씩 더 추가로 먹을 수 있다. 이 업소의 한치 물회에는 5가지 과일과 매실 효소를 숙성시킨 육수에 오이, 미나리, 파프리카 등 여러 가지 야채를 넣기 때문에 더운 여름에 먹기에 아주 좋다. 한치는 회로도 주문이 가능하다. 제주 맛집 기원뚝배기 별미의 특징은 해산물 특유의 비린 냄새를 제거하기 위해 약초를 숙성한 천연 양념을 사용하는 것이다. 반면 화학조미료를 일절 배제하여 맛과 건강을 동시에 사로잡는 것이 포인트다. 천연 양념이 진미여서 밥에 비벼 먹을 경우 다른 반찬이 없어도 한 그릇 뚝딱 비울 수 있는 매력을 지녔다. 업체 대표 메뉴인 해물갈치조림은 문어, 전복, 새우 등 다양한 해산물을 넣어 조리한 것이 핵심이다. 푸짐한 비주얼을 자랑해 SNS에서도 먹방 인기 메뉴로 등극한 바 있다. 특히 요리에 사용되는 해산물은 식당 앞에 비치된 수족관에 있는 것만 취급하기 때문에 더욱 신선도 높은 맛을 즐길 수 있다. 메인 요리와 함께 제공되는 기본찬의 퀄리티도 훌륭하다. 제주도 맛집 기원뚝배기는 매일 국내산 재료를 공수하여 전라도 엄마의 손맛을 담은 밑반찬을 조리한다. 내 가족이 먹는다는 마음으로 요리하는 가운데 고객이 맛있게 식사하고 돌아갈 수 있기를 기원하는 마음으로 항상 친절한 서비스를 제공한다. 덕분에 한 번 방문한 이후 단골 고객이 된 사례가 많다. 이른 아침에 여행을 떠나는 손님들을 위해 오전 7시부터 오픈하는 점도 주목할 부분이다. 아침 식사 고객들은 전복뚝배기를 많이 찾는다. 이 메뉴는 10가지 재료를 넣고 끓여 시원한 국물 맛이 일품이다. 기원뚝배기 영업은 연중무휴이며 오후 10시까지 문을 연다. 또한 관광객을 위한 무료 셔틀버스를 통해 호텔 픽업서비스도 제공한다. 아울러 넓은 전용 주차장이 식당 바로 옆에 마련되어 있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치물회, 옥돔구이 서비스 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 13:05 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치물회, 옥돔구이 서비스 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 한치물회, 옥돔구이 서비스 기자명 인터넷뉴스팀 입력 2019.08.08 15:30 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 제주도 하면 가장 먼저 떠오르는 것은 바로 한라산이다. 사실 제주가 한라산이고 한라산이 제주라 해도 과언이 아니다. 남한에서 가장 높은 한라산(1950m)은 제주 어디서나 보이고, 보는 방향에 따라 다르게 보이며, 제주를 가장 제주답게 만드는 한라산은 보는 곳에 따라 멀거나 가깝게 보인다. 서귀포는 따뜻한 기후와 뛰어난 자연 환경을 바탕으로 국제적인 관광지로 이름을 알리고 있다.제주도 서귀포에는 예래 포구가 있다. 예래 포구는 천연적인 양항의 조건을 갖추고 있는데 ‘안캐’에 있는 ‘멜라진 축항’은 1960년대에 만들어진 선착장으로 돌을 일일이 등짐을 져 날라다가 쌓은 것이라고 하는데 자취를 감춘 지 오래다. 포구의 위쪽 바다에는 예래 진황 등대가 위치하고 있다.제주도에는 해산물 요리가 많다. 제주도의 여러 해산물 요리 가운데 갈치조림은 요즘 제주를 찾는 여행객들이 가장 많이 찾는 요리 중 하나다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 싱싱한 통갈치에 문어, 전복, 새우 등을 넣은 해물갈치조림을 선보이고 있다. 해물갈치조림을 주문하면 더운 여름철에만 즐길 수 있는 한치 물회가 서비스로 제공된다. 그리고 옥돔구이와 성게국도 서비스로 제공되어 여럿이 함께 오는 경우 푸짐한 식사가 가능하다. 무엇보다 기원뚝배기 갈치조림에는 천연 약초를 숙성한 양념을 사용하는 것이 특징이다. 해산물로 요리할 경우 특유의 비린 냄새를 잡아야 맛 좋은 요리가 가능한데 기원뚝배기는 천연 약초를 숙성한 양념을 사용하여 해산물 특유의 비린 냄새를 잡고 맛 좋은 갈치조림을 손님들에게 제공하고 있다. 양념은 맛이 좋으면서 건강에도 좋아 밥과 양념을 비벼 먹는 손님들도 많다.해산물 요리는 싱싱한 재료를 사용하여 요리하는 것이 무엇보다 중요하다. 기원뚝배기는 식당 입구에 수족관을 두어 해산물 요리 주문이 들어오면 수족관에 있는 살아 있는 싱싱한 해산물로 요리를 하고 있어 더욱 맛좋은 요리를 즐길 수 있다.제주도 중문 맛집 기원뚝배기는 서비스로 제공하는 것도 많다. 해물갈치조림에 나오는 서비스 메뉴뿐만 아니라 통갈치조림정식 A세트 혹은 B세트를 주문하는 손님에게도 한치 물회를 서비스 제공하고 있다. 또한 통갈치조림정식 A세트에는 기본적으로 나오는 옥돔구이와 성게국에 더해 옥돔구이와 성게국을 하나씩 더 제공하고 있다. 한치는 더운 여름에만 먹을 수 있는 별미에 해당된다. 기원뚝배기 한치 물회는 매실 효소와 5가지 과일을 숙성시킨 육수에 오이, 미나리, 파프리카 등 야채를 넣어 깔끔한 맛이 일품이다. 더운 여름을 맞이하여 한치 물회는 제주를 찾은 여행객들의 더위를 식혀주는 메뉴로 각광을 받고 있다. 한치는 회로도 주문이 가능하다.제주 맛집 기원뚝배기는 이른 아침 시간인 오전 7시부터 오후 10시까지 연중 무휴로 영업하고 있어 언제든 찾을 수 있다. 관광지에서 아침 식사를 할 곳이 마땅치 않고 전날 술자리를 가진 경우 해장을 위한 메뉴도 찾기 어렵다. 그러나, 기원뚝배기는 이른 아침부터 영업하고 있어 제주 중문 아침식사 맛집으로도 잘 알려져 있으며, 여러 가지 아침식사 메뉴 중 전복뚝배기는 10가지 재료를 넣고 끓여 맛이 얼큰하고 시원하여 해장 메뉴로 제격이다.기원뚝배기는 밑반찬도 맛이 좋기로 정평이 나 있다. 제주도 맛집 기원뚝배기는 매일 국내산 재료를 구입하여 전라도 엄마의 손맛을 담아 직접 밑반찬을 만들고 있다. 기원뚝배기 상호의 뜻은 방문한 손님들이 맛있게 식사하기를 기원한다는 내용이 담겨 있는데 업소 대표는 내 가족이 먹는다는 마음으로 식당을 운영하면서 항상 친절한 서비스를 제공하고 있다.한편 기원뚝배기는 셔틀버스를 운행하고 있어 무료로 호텔 픽업서비스를 제공하고 있다. 식당 바로 옆에는 넓은 전용 주차장도 마련되어 있다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 '대세 걸그룹' 뉴진스, 신한은행 '뉴 쏠' 모델 발탁 당신만 안 본 뉴스 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? '천원짜리 변호사' 김지은, 낯익다 했더니 ITZY 류진·한소희·손나은 닮은꼴 '마약 혐의' 돈스파이크 입건에 성하윤 프로필·직업·인스타 관심 [특징주] 오성첨단소재 주가 급등세… 이유는? '소상공인 손실보상 2분기' 신청 시작... 대상·신청 방법은? [내일날씨] 전국 흐리고 비내려...일부 돌풍에 천둥·번개까지 '확인 방법 이렇게' 상생소비복권 당첨자 30일 발표...지급일 언제? "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 오늘공감 치열한 카드 빅4 경쟁…앱 사용자 분포는? '그림으로의 치유'…장수희 작가, 제8회 개인전 '노스텔지아' 개최 서울시교육청, 오는 28일까지 ‘빅데이터 활용 아이디어’ 공모 아빠의 무관심이 미덕(?)...초딩 아빠와 교장샘이 함께 춤을 추는 학교 한국화의 서태지 신동철 화백, 40회 개인전 ‘유몽고금(遊夢古今)’ 인기기사 1 [조봉현의 스타트업경제] 과거와 다른 高환율, 어디로 튈까? 2 조경태, "국민을 피해자로 만드는 '국회의원 면책특권' 폐지하라" 3 박수영 “국립대 교수 일가에게 놀아난 한전 자회사들…정부가 전수조사 해야" 4 유럽 출장길 오른 손태승 회장… UNEP FI 등과 국제협력 논의 5 외국인 고액 체납자 절반은 출국… 국세청 관리체계 구멍 6 대한민국 시·도의회의장협의회 김현기 회장, 제2회 중앙지방협력회의 참석 7 5년간 국민 1인당 세부담 300만원 늘어 8 양정숙 의원, "보험사, 은행, 정보보안·개인정보 보호 인증 안 받아" 9 김상훈 의원, 작년 국민 1인당 세금부담 1천199만원…2017년 이후 300만원 증가 10 4분기 제조업 '경기 악화' 전망 기업 ↑…“환율 상승에 원자재 비용 부담” 최신기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 용머리해안 인근 핫플레이스 ‘플레이사계’, 용머리관광지 개발사업지와 인접 &lt; 뉴스 &lt; 문화 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 용머리해안 인근 핫플레이스 ‘플레이사계’, 용머리관광지 개발사업지와 인접 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 뉴스 제주도 용머리해안 인근 핫플레이스 ‘플레이사계’, 용머리관광지 개발사업지와 인접 기자명 munhwanews 입력 2019.08.01 16:50 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 지난해 용머리관광지 개발사업이 확정됨에 따라 오는 2020년 12월31일까지 용머리관광지 일대는 개발에 박차를 가하고 있다. 이 사업은 제주도 명소로 알려진 용머리해안을 찾는 여행객들의 편의시설을 확충하기 위한 목적으로 진행된다. 개발사업에 투입되는 비용은 약234억 원에 달하며, 위치는 제주도 서귀포시 안덕면 사계리 일원이다. 이 일대는 용머리관광지 인근 공영주차장 바로 옆인 것으로 확인되었다. 이에 제주도 용머리해안 인근 핫플레이스로 자리 잡은 ‘플레이사계’에 대한 관심도 덩달아 높아지고 있다. 제주도 명소 인근에 자리한 상가 중 단일규모로는 ‘플레이사계’가 가장 큰 규모를 자랑하는데, 용머리해안의 절경을 훼손하지 않기 위해 1~2층, 43개 호실을 확보했다. 플레이사계가 투자자들에게 주목받는 이유는 용머리관광지 개발사업지와 아주 인접하기 때문이다. 플레이사계 역시 용머리관광지 인근 공영주차장 바로 옆이라는 것이 상당한 이점으로 작용하는 셈이다. 부동산 시장에서 개발지역 인근에 위치한 상가나 아파트, 타운하우스 등은 향후 발전가능성이 높게 점쳐지기 때문에 투자자들은 이를 눈여겨보게 된다. 플레이사계는 용머리관광지 일대에서 여행객들에게 쇼핑과 음식, 문화, 힐링을 선사하면서 용머리관광지 개발사업지와 인접하기에 향후 발전가능성이 매우 높게 평가되고 있다. 플레이사계 관계자는 “용머리 해안을 방문하는 여행객들은 매년 평균 1,500만 명에 달한다. 매년 수많은 관광객이 용머리 해안을 찾아오기 때문에 서귀포시 입장에서는 관광객들의 편의를 위해 개발사업을 할 수밖에 없었다고 본다”면서, “플레이사계는 용머리관광지 개발사업지와 매우 가깝기 때문에 제주도 투자자 혹은 제주도 상가를 구하는 분들의 문의가 빗발치고 있다”고 전했다. 이처럼 제주도 서귀포 용머리관광지 일대는 매년 수많은 관광객이 방문하는 제주도의 명소로 수학여행, 가족여행, 대학교MT 등 다양한 여행구성원들이 찾고 있다. 또한 용머리관광지 주변으로는 산방산랜드와 하멜상선전시관 등 가볼만한곳이 많은 것으로 알려져 있다. 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' munhwanews의 다른 기사 보기 munhwanews press@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 옥돔구이, 한치물회 서비스 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 옥돔구이, 한치물회 서비스 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 옥돔구이, 한치물회 서비스 곽종현 기자 승인 2019.08.04 09:30 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 화산섬 제주에는 많은 오름이 있어 이색적인 풍경을 연출한다. 서귀포시 동홍동에는 방애오름이 있다. 방애오름 북쪽에는 백록담과 한라산 정상 서벽이 있고, 서북쪽에는 윗세 오름과 윗세 오름 대피소가 있다. 서남쪽으로 산벌른내가 지나간다. 한라산 정상에서는 볼 수 있지만, 서귀포 방향에서는 검은서덕 오름에 가려 확인할 수 없다. 방애오름 바로 남쪽에는 검은서덕 오름이 있고, 바로 위에는 왕장서울 오름이 있다. 오름 정상은 굼부리가 둥그렇게 파여 있는데, 이를 포함하는 전체 모양이 방아와 같아 ‘방애오름’이라 불리는 것이다. ‘방아’에 대응하는 옛말은 ‘방하’이기 때문에 예전에는 방아 오름으로 불렸고, ‘방아’에 대응하는 현재 제주어가 ‘방에’이기 때문에 요즘은 ‘방애오름’, 혹은 방에 오름으로 부른다. 방애오름 동남쪽과 바로 북쪽으로는 한라산 돈내코 등반로가 지나간다. 이 등반로가 방애오름 동남쪽을 지나고 바로 북쪽을 거쳐 윗세 오름 대피소로 연결되어 있어 방애오름을 쉽게 볼 수 있다. 제주도 여행에서 먹는 즐거움을 빼 놓을 수 없다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 요즘 여행객들이 많이 찾는 갈치조림에 문어, 전복, 새우 등 다양한 해산물을 넣은 해물갈치조림을 선보이고 있다. 해산물은 맛있는 요리가 되기 위해서 특유의 비린 냄새를 잡아야 한다. 그래서 기원뚝배기는 천연 약초를 숙성한 양념을 사용하여 비린 냄새를 잡았고 맛은 아주 고소하고 담백하다.  현대인의 입맛을 사로 잡은 것은 천연 양념 덕분이며, 양념은 건강에 좋으면서 맛도 좋아 밥과 양념을 비벼 먹는 손님들이 많다. 맛있는 요리와 함께 제공되는 서비스 메뉴도 여러 가지다. 제주도 중문 맛집 기원뚝배기는 여름철 별미인 한치 물회를 서비스로 제공한다. 해물갈치조림, 통갈치조림정식 A세트 혹은 B세트 중 하나를 주문하면 한치 물회를 서비스로 먹을 수 있고, 해물갈치조림에는 옥돔구이와 성게국도 함께 무료로 제공된다. 또한 통갈치조림정식 A세트에는 옥돔구이와 성게국이 추가로 하나씩 더 나와 여럿이 함께 온 경우 푸짐하게 식사할 수 있다. 기원뚝배기 한치 물회에는 5가지 과일과 매실 효소를 숙성시킨 육수와 함께 오이, 미나리, 파프리카 등 다양한 야채가 들어가기 때문에 맛이 시원하고 깔끔하다. 실제 한치는 여름에만 먹을 수 있는 별미이며, 회로도 주문해서 먹을 수 있다. 식당 앞에 수족관을 두고 있는 것도 특징이다. 해산물 요리는 신선한 재료를 사용하는 것이 중요하기 때문에 손님들로부터 주문이 들어오면 수족관에 있는 싱싱한 해산물로 바로 요리하고 있다. 그래서 기원뚝배기는 손님들에게 더욱 신선한 요리를 제공하고 있다. 제주도 맛집 기원뚝배기는 매일 국내산 재료를 구입하여 밑반찬을 만들고 있다. 실제 밑반찬 만드는 것은 일손이 많이 가기 때문에 관광지 식당들 중에는 외부에서 반찬을 사서 손님들에게 제공하는 경우도 있지만, 기원뚝배기는 전라도 엄마의 손맛을 담은 밑반찬을 직접 만들고 있다. 이는 내 가족이 먹는다는 마음을 갖고 식당을 운영하는 업소 대표의 철학이 담겨 있기 때문이며, 실제 기원뚝배기 상호도 방문한 손님들이 맛있게 식사하기를 기원한다는 뜻이 담겨 있다. 제주 맛집 기원뚝배기는 셔틀버스를 통해 호텔 픽업서비스를 무료로 제공하고 있다. 그리고 식당 바로 옆에는 넓은 주차장도 마련되어 있다. 영업시간은 오전 7시부터 오후 10시까지 연중 무휴이며, 다양한 아침식사 메뉴도 준비하고 있다. 특히 전복뚝배기는 10가지 재료를 넣고 끓여 맛이 얼큰하고 시원한 것이 특징이다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 포토뉴스 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>이마트 트레이더스 위례점</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 대한항공 제주-일본 직항 노선 중단 발표에 강력 반발 TtL News 티티엘뉴스 Login | Join HOME. 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. News Category 뉴스 카테고리 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. Home 트렌드 이슈 전체보기 트렌드 | 분석 지수 | 리포트 사회 | 정치 이슈탐색 인터뷰 통계n산업 테크 | IT 콘텐츠 목록 제주도관광협회, 대한항공 제주-일본 직항 노선 중단 발표에 강력 반발 오는 11월 1일부터 대한항공 제주-일본 직항 노선 중단 발표 20일 오후 제주도관광협회 대한항공 방문 및 국토부에 건의문 전달 2019-08-21 11:44:40							, 수정 : 2019-08-21 17:37:42							 | 이상인 선임기자 [티티엘뉴스] “대한항공은 제주-일본 직항 노선 운항 중단 발표를 즉시 철회하라.” 제주특별자치도관광협회(회장 김영진)가 대한항공의 제주-일본 직항 노선 적격 운항 중단 발표에 강력 반발하고 있다. 제주도관광협회가 밝힌 20일자 보도자료에 따르면, 어제(19일) 기자회견을 통해 도내 관광업계의 어려운 현실을 감안하여, 중앙정부와 제주도, 유관기관들과 함께 제주관광의 난관을 헤쳐 나가기 위하여 관광업계도 고통을 감내하며 대승적 차원에서 함께 노력해 나가자는 취지의 입장문을 밝힌 바 있다. 그러나, 제주도관광협회의 입장문 발표 하루만인 20일 대한항공은 오는 11월 1일부터 제주-일본 직항 노선에 대해 전격 운항 중단을 발표했다. 이는 제주도민의 정서와 관광업계의 신의를 저버리는 것으로 커다란 충격을 금할 수 없다며, 제주관광협회는 20일 오후 노선 중단 계획 철회를 위해 대한항공 방문과 국토부에 건의문을 전달했다고 밝혔다. 제주도관광협회는, 사드사태 등으로 촉발된 중국인 관광객 감소, 도내 관광숙박시설 공급과잉과 인건비 상승에 따른 도내 관광사업체의 경영악화에 이어, 최근 일본 경제보복조치에 따른 일본인 관광객 수요 불투명성의 확장 등 까지 그야말로 현 제주관광이 풍전등화의 상황 속에 있다며, 자사(대한항공) 수익성만을 잣대로 한·일본지역 직항노선 운항 중단 계획 발표는 도민과 도내 전 관광인에 고통을 가중시키는 처사라고 말했다. 향후, 일본 관광수요 확충을 위해 제주도와 연계하여 지속적인 마케팅 전개 계획을 마련하는 등 민·관 공동으로 전 방위적 노력을 전개하면 충분히 현 상황을 극복해 나갈 수 있음을 강조하며, 어제 입장문 발표에 이어 다시 한 번 직항노선 운항 중단 계획 철회를 요청했다. 아울러, 협회 관계자는 대한항공의 제주-일본 직항노선의 운항 중단은 일본 경제 중심지인 도쿄, 오사카와의 항공좌석 감소라는 단순한 산술적 의미보다 대형항공사 취항만으로 얻는 관광목적지로서 제주관광의 이미지, 일본 오전 출발, 제주 오후 출발이 갖는 패키지 슬럿의 메리트 등을 한꺼번에 잃어버리는 안타까운 상황임을 전했다. 도내에서도, 일본인 관광객 통역 안내사, 전문 여행사, 기념품판매업장, 외식업, 호텔 등에서 일본 관광객을 대상으로 하는 종사자들이 생업 환경을 악화시키고, 오사카 도쿄 등에 거주하는 재외도민의 교통편 또한 상당부분 제한하는 사태를 초래하는 만큼, 단순한 경제적 측면에서의 유 불리를 떠나 정서적인 도민공감대 유지 측면에서도 중요한 부분임을 지적했다. 또한, 대한항공도 도내에서 그룹차원으로 항공사뿐만 아니라, 호텔, 여행사, 관광지, 렌터카 등을 운영하며 제주관광산업의 전반적인 영역에서 사업을 전개하고 있는 만큼, 어려운 여건 속에서도 슬기롭게 현 상황을 공동으로 타계해 나가기를 희망한다고 전했다. 한편, 제주도관광협회는 올해 하반기 일본 경제 보복조치 여파 극복을 위하여 제주도, 제주관광공사와 연계한 종합적인 마케팅 계획 수립을 위한 관련 T/F팀에 참여하며, 일본인 개별관광객과 단체 패키지관광객 유치증진을 위한 마케팅 사업 추진을 조만간 수립·시행하게 될 것이라며, 이럴 때일수록 중장기적 관점에서 당사자들이 제주관광 발전을 위한 차분한 대응이 필요함을 강조했다고 밝혔다. 이상인 선임기자 lagolftime@ttlnews.com 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 관련기사 제주도관광협회 “제주관광 파탄 위기ㆍㆍㆍ기회로 전환해 재도약하자” 올 여름 제주도 여행은 어디로 갈까? 2019 한국관광혁신대상 시상식 개최 제주 관광산업 발전 대안 제시한 ‘제17차 제주관광포럼’ 개최 제주도, 제33회 한국국제관광전에서 ‘최우수 부스 운영상’ 수상 제주도 공식 여행정보 포털 '탐나오' 한국국제관광전서 부각돼 목록 엔터테인먼트 트렌드 이슈 관광항공인&amp;인터뷰 회사소개 ｜ 광고·제휴문의｜ 회원약관｜ 개인정보취급방침｜ 기사제보 | (주)여심 | 서울, 아03649 | 등록일자: 2015년 3월 25일 | 제호: 트래블투라이프(Travel to Lifestyle·티티엘뉴스) | 발행·편집인: 편성희 | 편집장: 정연비 | 청소년보호책임자: 편성희 | 발행일자: 2015년 1월 5일 편집/제작국: 02)6354-4608, ttlnews@ttlnews.com 광고/콘텐츠사업국: 02)6354-4609, ads@ttlnews.com 서울특별시 종로구 세종대로 149 광화문빌딩 20층 HJBC 2134호 티티엘뉴스는 인터넷신문위원회의 기사 및 광고부문 자율규약 준수를 동의한 서약사입니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정연비 02-6354-4608 ttlnews@ttlnews.com 티티엘뉴스의 모든 콘텐츠는 저작권법의 보호를 받은바, 무단 전재·복사·배포 등을 금합니다. Copyright by TtL news × 유투브 동영상 삽입 가이드 삽입하고자 하는 유투브 동영상의 페이지로 접속하신 후에, 동영상 밑에 있는 '공유' 버튼을 누릅니다. '공유'버튼을 누르면 나오는 탭들 중에 '소스코드'를 선택하시고 해당 소스코드를 복사하신 후 게시판에 붙여넣기 합니다. 닫기 × 뉴스 검색 닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 이동패턴 빅데이터 분석 연구 추진 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, 관광객 이동패턴 빅데이터 분석 연구 추진 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도, 관광객 이동패턴 빅데이터 분석 연구 추진 현대성 기자 승인 2019.08.07 10:17 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주관광공사는 '제주방문 관광객 이동패턴 빅데이터 분석' 연구를 추진한다고 7일 밝혔다. 이는 급변하는 제주관광 트렌드 변화를 파악하고 데이터에 기초한 관광정책을 수립하기 위해 추진되는 것이다. 제주도와 제주관광공사는 관광객의 네비게이션 이용 정보를 활용해 빅데이터를 구축하고, 기본현황 보고서를 작성해 대외 공유할 예정이다. 제주도는 기존에 구축된 이동통신 빅데이터와 네비게이션 빅데이터를 활용하면 보다 상세한 관광객 이동경로 분석이 가능할 것으로 전망하고 있다. 강영돈 제주도 관광국장은 "분석 결과를 관광정책 수립과 업체의 마케팅 전략 도출, 학술연구 등 여러 분야에서 다양하게 활용할 것"이라며 "제주방문 관광객의 만족도 증가와 도민 삶의 질 향상을 위해 노력하겠다"고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 도민안전실장 양기철, 농업기술원장 정대천, 관광국장 강영돈 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도 도민안전실장 양기철, 농업기술원장 정대천, 관광국장 강영돈 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도 도민안전실장 양기철, 농업기술원장 정대천, 관광국장 강영돈 부남철 기자 승인 2019.08.02 14:31 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 올 하반기 정기인사 명단 발표 승진 192명 등 총 682명 이동 사진 윗줄 왼쪽부터 양기철 도민안전실장, 정대천 농업기술원장, 강영돈 관광국장, 현대성 교통항공국장, 박근수 환경보전국장, 조동근 해양수산국장, 김기범 인재개발원장, 고길림 세계유산본부장, 양석하 서울본부장, 김남윤 강정공동체사업추진단장, 김명옥 특별자치제도 추진단장, 이영진 제주시 부시장. 제주특별자치도 도민안전실장(2급 이사관)에 양기철 관광국장이 승진ㆍ임명됐다. 제주도는 5일자로 단행되는 실‧국장급을 포함한 승진 192명, 전보 391명, 행정시 교류 99명 등 총 682명 규모의 올 하반기 정기인사 명단을 2일 발표했다. 농업기술원장에는 정대천 농업기술원 기술지원국장, 환경보건국장(직무대리)에는 박근수 생활환경과장, 농업기술원 기술지원국장에는 최윤식 제주농업기술센터소장, 인재개발원장(직무대리)에는 김기범 비서실장, 서울본부장(직무대리)에는 양석하 일자리과장, 강정공동체사업추진단장에는 김남윤 문화정책과장, 특별자치제도추진단장에는 김명옥 세정담당관, 제주시 부시장(직무대리)에는 이영진 제주도 총무과장이 승진ㆍ임명됐다. 관광국장에는 강영돈 제주평생교육장학진흥원 사무국장, 세계유산본부장에는 고길림 제주시 부시장이 임명됐다. 양한식 돌문화공원관리소장과 강승옥 제주도의회 보건복지안전위원회 전문위원, 이창호 한라산국립공원관리소장은 승진하면서 각각 국회사무처와 기획재정부, 제주국제자유도시개발센터로 파견됐다. 현대성 교통항공국장과 조동근 해양수산국장은 이번에 부이사관으로 직급 승진했다. 비서실장에는 한웅 총무팀장이 승진.임명됐으며 총무과장에는 송종식 서기관이 임명됐다. 제주도는 이번 인사의 기조로 ▲도민행복을 위한 생활민원 적극 해결 ▲민생경제 안정과 일자리 창출을 위한 전문성 제고 ▲일 잘하는 조직 육성에 중점을 뒀다고 밝혔다. 제주도 관계자는 “이번 인사는 민선7기 1주년을 맞아 도정 주요시책의 추진에 힘을 싣도록 했으며 여성 국장급 승진 및 총무팀장, 더 큰내일센터 등 주요 보직에 여성 공무원을 배치했다”라고 밝혔다. 제주도 2019년 하반기 정기인사 명단 다운로드 제주시 2019년 하반기 정기인사 명단 다운로드 서귀포시 2019년 하반기 정기인사 명단 다운로드 부남철 기자  bunch@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 부남철 기자 다른기사 보기 관련기사 [1보]제주도 도민안전실장에 양기철 승진.임명 제주시 자치행정국장 김창현·문화관광체육국장 윤선홍 서귀포시 농수축경제국장 정영헌·청정환경국장 양영일 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
   <si>
     <t>개인적문제</t>
   </si>
   <si>
-    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 옥돔구이, 한치물회 서비스 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:35 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 옥돔구이, 한치물회 서비스 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 옥돔구이, 한치물회 서비스 곽종현 기자 승인 2019.08.04 09:30 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 화산섬 제주에는 많은 오름이 있어 이색적인 풍경을 연출한다. 서귀포시 동홍동에는 방애오름이 있다. 방애오름 북쪽에는 백록담과 한라산 정상 서벽이 있고, 서북쪽에는 윗세 오름과 윗세 오름 대피소가 있다. 서남쪽으로 산벌른내가 지나간다. 한라산 정상에서는 볼 수 있지만, 서귀포 방향에서는 검은서덕 오름에 가려 확인할 수 없다. 방애오름 바로 남쪽에는 검은서덕 오름이 있고, 바로 위에는 왕장서울 오름이 있다. 오름 정상은 굼부리가 둥그렇게 파여 있는데, 이를 포함하는 전체 모양이 방아와 같아 ‘방애오름’이라 불리는 것이다. ‘방아’에 대응하는 옛말은 ‘방하’이기 때문에 예전에는 방아 오름으로 불렸고, ‘방아’에 대응하는 현재 제주어가 ‘방에’이기 때문에 요즘은 ‘방애오름’, 혹은 방에 오름으로 부른다. 방애오름 동남쪽과 바로 북쪽으로는 한라산 돈내코 등반로가 지나간다. 이 등반로가 방애오름 동남쪽을 지나고 바로 북쪽을 거쳐 윗세 오름 대피소로 연결되어 있어 방애오름을 쉽게 볼 수 있다. 제주도 여행에서 먹는 즐거움을 빼 놓을 수 없다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 요즘 여행객들이 많이 찾는 갈치조림에 문어, 전복, 새우 등 다양한 해산물을 넣은 해물갈치조림을 선보이고 있다. 해산물은 맛있는 요리가 되기 위해서 특유의 비린 냄새를 잡아야 한다. 그래서 기원뚝배기는 천연 약초를 숙성한 양념을 사용하여 비린 냄새를 잡았고 맛은 아주 고소하고 담백하다.  현대인의 입맛을 사로 잡은 것은 천연 양념 덕분이며, 양념은 건강에 좋으면서 맛도 좋아 밥과 양념을 비벼 먹는 손님들이 많다. 맛있는 요리와 함께 제공되는 서비스 메뉴도 여러 가지다. 제주도 중문 맛집 기원뚝배기는 여름철 별미인 한치 물회를 서비스로 제공한다. 해물갈치조림, 통갈치조림정식 A세트 혹은 B세트 중 하나를 주문하면 한치 물회를 서비스로 먹을 수 있고, 해물갈치조림에는 옥돔구이와 성게국도 함께 무료로 제공된다. 또한 통갈치조림정식 A세트에는 옥돔구이와 성게국이 추가로 하나씩 더 나와 여럿이 함께 온 경우 푸짐하게 식사할 수 있다. 기원뚝배기 한치 물회에는 5가지 과일과 매실 효소를 숙성시킨 육수와 함께 오이, 미나리, 파프리카 등 다양한 야채가 들어가기 때문에 맛이 시원하고 깔끔하다. 실제 한치는 여름에만 먹을 수 있는 별미이며, 회로도 주문해서 먹을 수 있다. 식당 앞에 수족관을 두고 있는 것도 특징이다. 해산물 요리는 신선한 재료를 사용하는 것이 중요하기 때문에 손님들로부터 주문이 들어오면 수족관에 있는 싱싱한 해산물로 바로 요리하고 있다. 그래서 기원뚝배기는 손님들에게 더욱 신선한 요리를 제공하고 있다. 제주도 맛집 기원뚝배기는 매일 국내산 재료를 구입하여 밑반찬을 만들고 있다. 실제 밑반찬 만드는 것은 일손이 많이 가기 때문에 관광지 식당들 중에는 외부에서 반찬을 사서 손님들에게 제공하는 경우도 있지만, 기원뚝배기는 전라도 엄마의 손맛을 담은 밑반찬을 직접 만들고 있다. 이는 내 가족이 먹는다는 마음을 갖고 식당을 운영하는 업소 대표의 철학이 담겨 있기 때문이며, 실제 기원뚝배기 상호도 방문한 손님들이 맛있게 식사하기를 기원한다는 뜻이 담겨 있다. 제주 맛집 기원뚝배기는 셔틀버스를 통해 호텔 픽업서비스를 무료로 제공하고 있다. 그리고 식당 바로 옆에는 넓은 주차장도 마련되어 있다. 영업시간은 오전 7시부터 오후 10시까지 연중 무휴이며, 다양한 아침식사 메뉴도 준비하고 있다. 특히 전복뚝배기는 10가지 재료를 넣고 끓여 맛이 얼큰하고 시원한 것이 특징이다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 포토뉴스 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 깊어가는 가을, 코스모스 활짝 농지 매입하고도 농사짓지 않는 '가짜 제주 농부' 극성 어둠 밝히는 등대처럼...희망의 빛 비추겠습니다 가을 물들인 핑크뮬리 제주은행 “바람이 돌보는 제주 곶자왈” 제23회 사회복지의 날 기념식 개최 4·3 일반재판 수형인 163명 희생자 확인…직권재심 업무 시동 개인형 이동장치 이용 확대에 공공자전거 위기…제주시 "90대 추가" 제주도민 간 질환 사망률 전국 최고…코로나19 사망률은 최저 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 깊어가는 가을, 코스모스 활짝 농지 매입하고도 농사짓지 않는 '가짜 제주 농부' 극성 어둠 밝히는 등대처럼...희망의 빛 비추겠습니다 가을 물들인 핑크뮬리 제주은행 “바람이 돌보는 제주 곶자왈” 제23회 사회복지의 날 기념식 개최 4·3 일반재판 수형인 163명 희생자 확인…직권재심 업무 시동 개인형 이동장치 이용 확대에 공공자전거 위기…제주시 "90대 추가" 제주도민 간 질환 사망률 전국 최고…코로나19 사망률은 최저 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>이마트 트레이더스 위례점</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 대한항공 제주-일본 직항 노선 중단 발표에 강력 반발 TtL News 티티엘뉴스 Login | Join HOME. 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. News Category 뉴스 카테고리 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. Home 트렌드 이슈 전체보기 트렌드 | 분석 지수 | 리포트 사회 | 정치 이슈탐색 인터뷰 통계n산업 테크 | IT 콘텐츠 목록 제주도관광협회, 대한항공 제주-일본 직항 노선 중단 발표에 강력 반발 오는 11월 1일부터 대한항공 제주-일본 직항 노선 중단 발표 20일 오후 제주도관광협회 대한항공 방문 및 국토부에 건의문 전달 2019-08-21 11:44:40							, 수정 : 2019-08-21 17:37:42							 | 이상인 선임기자 [티티엘뉴스] “대한항공은 제주-일본 직항 노선 운항 중단 발표를 즉시 철회하라.” 제주특별자치도관광협회(회장 김영진)가 대한항공의 제주-일본 직항 노선 적격 운항 중단 발표에 강력 반발하고 있다. 제주도관광협회가 밝힌 20일자 보도자료에 따르면, 어제(19일) 기자회견을 통해 도내 관광업계의 어려운 현실을 감안하여, 중앙정부와 제주도, 유관기관들과 함께 제주관광의 난관을 헤쳐 나가기 위하여 관광업계도 고통을 감내하며 대승적 차원에서 함께 노력해 나가자는 취지의 입장문을 밝힌 바 있다. 그러나, 제주도관광협회의 입장문 발표 하루만인 20일 대한항공은 오는 11월 1일부터 제주-일본 직항 노선에 대해 전격 운항 중단을 발표했다. 이는 제주도민의 정서와 관광업계의 신의를 저버리는 것으로 커다란 충격을 금할 수 없다며, 제주관광협회는 20일 오후 노선 중단 계획 철회를 위해 대한항공 방문과 국토부에 건의문을 전달했다고 밝혔다. 제주도관광협회는, 사드사태 등으로 촉발된 중국인 관광객 감소, 도내 관광숙박시설 공급과잉과 인건비 상승에 따른 도내 관광사업체의 경영악화에 이어, 최근 일본 경제보복조치에 따른 일본인 관광객 수요 불투명성의 확장 등 까지 그야말로 현 제주관광이 풍전등화의 상황 속에 있다며, 자사(대한항공) 수익성만을 잣대로 한·일본지역 직항노선 운항 중단 계획 발표는 도민과 도내 전 관광인에 고통을 가중시키는 처사라고 말했다. 향후, 일본 관광수요 확충을 위해 제주도와 연계하여 지속적인 마케팅 전개 계획을 마련하는 등 민·관 공동으로 전 방위적 노력을 전개하면 충분히 현 상황을 극복해 나갈 수 있음을 강조하며, 어제 입장문 발표에 이어 다시 한 번 직항노선 운항 중단 계획 철회를 요청했다. 아울러, 협회 관계자는 대한항공의 제주-일본 직항노선의 운항 중단은 일본 경제 중심지인 도쿄, 오사카와의 항공좌석 감소라는 단순한 산술적 의미보다 대형항공사 취항만으로 얻는 관광목적지로서 제주관광의 이미지, 일본 오전 출발, 제주 오후 출발이 갖는 패키지 슬럿의 메리트 등을 한꺼번에 잃어버리는 안타까운 상황임을 전했다. 도내에서도, 일본인 관광객 통역 안내사, 전문 여행사, 기념품판매업장, 외식업, 호텔 등에서 일본 관광객을 대상으로 하는 종사자들이 생업 환경을 악화시키고, 오사카 도쿄 등에 거주하는 재외도민의 교통편 또한 상당부분 제한하는 사태를 초래하는 만큼, 단순한 경제적 측면에서의 유 불리를 떠나 정서적인 도민공감대 유지 측면에서도 중요한 부분임을 지적했다. 또한, 대한항공도 도내에서 그룹차원으로 항공사뿐만 아니라, 호텔, 여행사, 관광지, 렌터카 등을 운영하며 제주관광산업의 전반적인 영역에서 사업을 전개하고 있는 만큼, 어려운 여건 속에서도 슬기롭게 현 상황을 공동으로 타계해 나가기를 희망한다고 전했다. 한편, 제주도관광협회는 올해 하반기 일본 경제 보복조치 여파 극복을 위하여 제주도, 제주관광공사와 연계한 종합적인 마케팅 계획 수립을 위한 관련 T/F팀에 참여하며, 일본인 개별관광객과 단체 패키지관광객 유치증진을 위한 마케팅 사업 추진을 조만간 수립·시행하게 될 것이라며, 이럴 때일수록 중장기적 관점에서 당사자들이 제주관광 발전을 위한 차분한 대응이 필요함을 강조했다고 밝혔다. 이상인 선임기자 lagolftime@ttlnews.com 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 관련기사 제주도관광협회 “제주관광 파탄 위기ㆍㆍㆍ기회로 전환해 재도약하자” 올 여름 제주도 여행은 어디로 갈까? 2019 한국관광혁신대상 시상식 개최 제주 관광산업 발전 대안 제시한 ‘제17차 제주관광포럼’ 개최 제주도, 제33회 한국국제관광전에서 ‘최우수 부스 운영상’ 수상 제주도 공식 여행정보 포털 '탐나오' 한국국제관광전서 부각돼 목록 엔터테인먼트 트렌드 이슈 관광항공인&amp;인터뷰 회사소개 ｜ 광고·제휴문의｜ 회원약관｜ 개인정보취급방침｜ 기사제보 | (주)여심 | 서울, 아03649 | 등록일자: 2015년 3월 25일 | 제호: 트래블투라이프(Travel to Lifestyle·티티엘뉴스) | 발행·편집인: 편성희 | 편집장: 정연비 | 청소년보호책임자: 편성희 | 발행일자: 2015년 1월 5일 편집/제작국: 02)6354-4608, ttlnews@ttlnews.com 광고/콘텐츠사업국: 02)6354-4609, ads@ttlnews.com 서울특별시 종로구 세종대로 149 광화문빌딩 20층 HJBC 2134호 티티엘뉴스는 인터넷신문위원회의 기사 및 광고부문 자율규약 준수를 동의한 서약사입니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정연비 02-6354-4608 ttlnews@ttlnews.com 티티엘뉴스의 모든 콘텐츠는 저작권법의 보호를 받은바, 무단 전재·복사·배포 등을 금합니다. Copyright by TtL news × 유투브 동영상 삽입 가이드 삽입하고자 하는 유투브 동영상의 페이지로 접속하신 후에, 동영상 밑에 있는 '공유' 버튼을 누릅니다. '공유'버튼을 누르면 나오는 탭들 중에 '소스코드'를 선택하시고 해당 소스코드를 복사하신 후 게시판에 붙여넣기 합니다. 닫기 × 뉴스 검색 닫기</t>
-  </si>
-  <si>
     <t>제주도관광협회 “제주관광 파탄 위기ㆍㆍㆍ기회로 전환해 재도약하자” TtL News 티티엘뉴스 Login | Join HOME. 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. News Category 뉴스 카테고리 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. Home 산업 | 경제 | 정책 전체보기 정부|지역 기관|협회 금융|경제 기업 항공|여행|레저 숙박|면세|유통 교역/전시/설명회 일반/단신 인바운드 목록 제주도관광협회 “제주관광 파탄 위기ㆍㆍㆍ기회로 전환해 재도약하자” 일본 경제 보복 따른 대응ㆍ제주관광 재도약 위한 관광인 입장 밝혀 정부ㆍ제주도ㆍ항공사ㆍJDC 등 협조 및 관광인 자구책 강구 2019-08-20 12:53:53							, 수정 : 2019-08-20 14:31:32							 | 이상인 선임기자 [티티엘뉴스] 사드사태와 일본 경제 보복 등으로 파탄 위기에 직면하고 있는 제주관광을 위해 정부와 제주도를 비롯해 관광업계가 힘을 모아 위기를 기회로 삼아 재도약에 나서자며 제주도관광협회가 앞장섰다. 김영진 제주특별자치도관광협회 회장은 19일 오전 제주웰컴센터에서 갖은 기자회견에서 사드사태와 일본의 경제보복 등으로 촉발된 제주관광의 경쟁력 저하가 장기화 되고 있는 가운데 최근 일본 경제 보복 조치 등으로 인해 파탄 위기에 몰린 제주지역 관광업계의 어려움을 호소하면서 ‘일본 경제 보복에 따른 대응과 제주관광 재도약을 위한 관광인의 입장’을 밝혔다. ▲'일본 경제 보복에 따른 대응과 제주관광 재도약을 위한 관광인의 입장'을 밝히는 기자회견 모습 김영진 회장은 “사드사태로 촉발된 중국인 관광객 감소, 관광숙박시설 공급과잉으로 경영악화 및 사업장 존립 위협 등과 함께 최근 일본 경제 보복조치 등 관광환경 변화로 제주지역 관광업계는 심한 통증이 가중되면서 파탄에 직면하게 됐다”며, “이에 제주도관광협회는 이런 위기를 기회로 전환하기 위해 정부, 제주도, 항공사, 관광업계 모두가 하나 되어 선제적으로 대응하여 제주관광이 재도약하기를 바라는 마음으로 관광인의 입장을 밝히는 기자회견을 갖게 됐다”고 말했다. 김영진 회장은 기자회견에서 정부, 제주도, 항공사, 제주국제자유도시개발센터(JDC) 등에 대해 문제점 및 해결방안 등을 제시하고, 제도개선 및 행정지원과 관광인들의 자구노력책 등을 밝히며, 적극적인 협조를 요청했다. ●정부는 먼저, 정부에 대해, “현재 제주국제공항이 극한적인 포화상태에 이르러 항공기 확대투입이 불가능한 상태에 직면하여 관광객 유치에 큰 걸림돌로 작용하고 있는 상황을 인식하여야 한다”면서, “제2공항은 미래항공수요에 탄력적으로 대응하고 안전과 편의를 확보하기 위한 필수적인 사회기반시설로서 흔들림 없이 추진되어야 하며, 해당 지역주민들에게는 합당한 보상과 실질적인 지원대책을 마련하여 불이익이 없도록 대책을 강구하고 아울러 공항운영에 따른 수익이 지역에 환원될 수 있도록 공항운영권 참여를 보장해 줄 것을 촉구한다”고 밝혔다. 또한, “각종 관광정책을 추진함에 있어 여타 자치단체와는 달리 제주가 관광3법 일괄 이양과 관광진흥기금을 별도로 운영하고 있다는 이유로 각종 지원사업에서 배제되는 등 역차별을 받고 있어 주요 지원정책 등에 대해서는 제주도가 동참할 수 있도록 참여기회를 반드시 제공하여야 한다”고 강조했다. ●제주도는 제주도에 대해서는 “일본경제 보복 조치로 향후 제주관광업계에 커다란 타격이 예상되고 있음에 따라 내외국인 관광객 유치를 위한 공격적인 마케팅활동을 전개하고, 피해가 예상되는 관광업종에 대해서는 적극적인 지원노력이 필요하다”면서, “과잉 공급된 숙박 및 교통업체에 대해서는 특단의 관리대책이 조속히 마련되어야 할 것”이라고 말했다. 또한, “제주도와 한국공항공사에서는 제주공항 슬롯난 해소를 위하여 중·대형 항공기 투입 시 이․착륙료 감면 등 지원 대책이 강구되어야 할 것”이라고 강조했다. ●항공사는 항공사는 “일본경제보복 조치를 빌미로 제주와의 직항노선에 대해 운휴 또는 감축 운항을 자제해야 한다”며, “수익성이 높은 해외노선에만 대형기종을 집중 투입하고 제주노선에는 소형기종 위주로 투입하면서 제주공항 슬롯 포화만 야기하고 있어, 중·대형기종을 보유하고 있는 대형항공사에서는 관광객 선호시간대 제주노선에 대해 중·대형기종을 우선 투입해 줄 것을 강력히 요구한다”고 말했다. ●제주국제자유도시개발센터(JDC)는 제주국제자유도시개발센터(JDC)는 “도내 관광사업체들은 생존을 위해 막대한 마케팅 비용을 부담하면서 관광객을 유치하는 반면, JDC에서는 별다른 유치노력 없이 관광객을 대상으로 면세사업으로 막대한 수익을 창출하면서도, 도내 영세관광사업체를 위한 지원에는 생색내기에 그치고 있어 부정적 여론이 팽배함에 따라 상호 상생할 수 있는 방안을 마련하여 줄 것을 촉구한다”고 강조했다. ●제도개선 및 행정지원 김영진 회장은 제도개선 및 행정지원에 대해서 밝혔다. 먼저, “제주관광의 새로운 도약을 위해서는 정부와 제주도의 적극적인 제도개선 및 행정지원이 절실하다”고 말했다. 제도개선 사항으로는 “관광호텔업 외국인 관광객 부가가치세 영세율 적용, 외식업 외국인 고용허가제 완화, 교통업 전세버스 차령기준 개선, 골프장 개별소비세 감면, 교통유발부담금 감면기준 완화 등이 우선적으로 이루어져야 하고, 행정지원차원에서는 관광진흥기금 융자 확대 및 상환기간 유예 등 다양한 지원 방안을 모색하고, 렌터카 총량제가 정상화 될 수 있도록 렌터카사업을 영위하는 대기업의 참여를 촉구한다”고 밝혔다. ●관광인 자구노력 김영진 회장은 “정부와 제주도, 항공사, JDC에서는 우리들의 요구사항을 반드시 수용하여 추진해 줄 것을 강력히 촉구한다”고 말하면서, “관광사업체에서는 시설공급과잉, 인건비 및 관리비 상승 등 경영상의 어려움에 직면해 있음에도 불구하고, ▶제주방문 관광객 대상 친절 서비스 강화 ▶국제수준의 환대서비스 제공을 위한 시스템 구축 ▶재방문 관광객 확대를 위한 감성 마케팅 전개 등 다양하고 차별화된 상품개발과 제주관광 메리트 향상을 위한 관광인들의 자구노력을 전개해 나갈 것”이라고 밝혔다. 한편, 이번 기자회견에는 김영진 제주도관광협회 회장을 비롯해 관광협회 분과위원장 전원이 참석했다. 이상인 선임기자 lagolftime@ttlnews.com 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 관련기사 올 여름 제주도 여행은 어디로 갈까? 2019 한국관광혁신대상 시상식 개최 제주 관광산업 발전 대안 제시한 ‘제17차 제주관광포럼’ 개최 제주도, 제33회 한국국제관광전에서 ‘최우수 부스 운영상’ 수상 제주도 공식 여행정보 포털 '탐나오' 한국국제관광전서 부각돼 목록 엔터테인먼트 트렌드 이슈 관광항공인&amp;인터뷰 회사소개 ｜ 광고·제휴문의｜ 회원약관｜ 개인정보취급방침｜ 기사제보 | (주)여심 | 서울, 아03649 | 등록일자: 2015년 3월 25일 | 제호: 트래블투라이프(Travel to Lifestyle·티티엘뉴스) | 발행·편집인: 편성희 | 편집장: 정연비 | 청소년보호책임자: 편성희 | 발행일자: 2015년 1월 5일 편집/제작국: 02)6354-4608, ttlnews@ttlnews.com 광고/콘텐츠사업국: 02)6354-4609, ads@ttlnews.com 서울특별시 종로구 세종대로 149 광화문빌딩 20층 HJBC 2134호 티티엘뉴스는 인터넷신문위원회의 기사 및 광고부문 자율규약 준수를 동의한 서약사입니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정연비 02-6354-4608 ttlnews@ttlnews.com 티티엘뉴스의 모든 콘텐츠는 저작권법의 보호를 받은바, 무단 전재·복사·배포 등을 금합니다. Copyright by TtL news × 유투브 동영상 삽입 가이드 삽입하고자 하는 유투브 동영상의 페이지로 접속하신 후에, 동영상 밑에 있는 '공유' 버튼을 누릅니다. '공유'버튼을 누르면 나오는 탭들 중에 '소스코드'를 선택하시고 해당 소스코드를 복사하신 후 게시판에 붙여넣기 합니다. 닫기 × 뉴스 검색 닫기</t>
   </si>
   <si>
-    <t>제주도 “일본 백색국가 제외 영향 제한적…농수산물 수출-관광 산업 타격 등 상황 예의주시” &lt; 산업 &lt; 기사본문 - 이코노뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATE : 2022-10-04 10:36 (화) 기사검색 검색 홈 로그인 회원가입 전체기사보기 rss 기업포커스 글로벌비즈 기업 정책 산업 전자/IT 자동차/항공/운송 건설/부동산 조선/철강/기계 유통 에너지/화학 연재 남영진 최성범 남경우 이동준 이현우 최충현 김홍국 이민주 김선태 박병호 하응백 한필이 김미영 김광신 창업 창업 고용 경제 정책 증권 금융 산업 증시 인물광장 오피니언 기자칼럼 인성교육 커피&amp;티 기고 화폐로 떠나는 세계여행 박병호의 중국견문록 신선윤의 당구이야기 카드뉴스 오늘의 명언 카드뉴스 그래픽 전체메뉴 버튼 본문영역 이전 기사보기 다음 기사보기 제주도 “일본 백색국가 제외 영향 제한적…농수산물 수출-관광 산업 타격 등 상황 예의주시” 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 산업 제주도 “일본 백색국가 제외 영향 제한적…농수산물 수출-관광 산업 타격 등 상황 예의주시” 기자명 이혜경 기자 입력 2019.08.03 11:07 수정 2022.09.18 10:27 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 일본 각의(국무회의)가 한국에 대한 '화이트리스트'(전략물자 수출절차 우대국 목록) 제외 조치를 단행했지만 제주에 미치는 영향은 제한적일 전망이다. 다만 향후 무역 분쟁이 심화할 경우 농수산물 수출이나 관광산업에 타격을 입을 수 있다는 우려도 나온다. 2일 제주도 등에 따르면 일본 정부가 ‘리스트 규제 대상’으로 정한 1100여개 전략물자 중 제주에서 수입하는 품목은 미미한 수준인 것으로 나타났다. 제주도 관계자는 이날 뉴시스와의 통화에서 “화이트리스트 제외 조치는 일본에서 수출을 규제하겠다는 것이지만 제주에서 수입하는 품목은 거의 없다”며 “제주는 일본으로부터의 수입보다 농수산물 위주의 수출이 많아 별다른 영향이 없을 것으로 보고 있다”고 말했다. 이혜경 기자 kyung975@naver.com 다른기사 보기 저작권자 © 이코노뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 소이비랩 저당두유 ㅂㄹㄱㄴㅎ…캐시워크 퀴즈는 “OOOOO 뚜껑” [띠별로 보는 주간운세] 10월 2일 - 10월 8일 원숭이띠 "일거양득의 운세" [오늘의 운세] 9월23일 범띠 “공적으로나 사적으로 바쁠 것” 뱀띠 “계획한대로 밀어붙여라” 로코초코 ㄷㄱㅅㅅ…캐시워크 퀴즈는 “OOOO보다” 신한마이카 ㅅㄱㅁㅎ…캐시워크 퀴즈는 “OOOO” [오늘의 운세] 9월29일 소띠 “간절히 원하던 것을 이룰 수 있게 된다” 용띠 “좋은 찬스를 잡을 수 있는 기회가 온다” [오늘의 운세] 9월25일 소띠 “기대하지도 않았던 것에서 희망이 보인다” 용띠 “통쾌하고 시원함을 느낄 것” 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 [오늘의 주요 사회 일정] 전북(10월4일 화요일) [오늘의 주요 사회 일정] 경기남부(10월4일 화요일) [오늘의 주요 사회 일정] 대전·세종·충남 (10월 4일 화요일) [오늘의 주요 사회 일정] 강원(10월4일 월요일) [오늘의 주요 사회 일정] 광주·전남(10월 4일 화요일) 프롬바이오 ㅂㄹㄷㄷㅇ…캐시워크 퀴즈는 “OOOOO 가을특가” 최신뉴스 [오늘의 주요 사회 일정] 전북(10월4일 화요일) [오늘의 주요 사회 일정] 경기남부(10월4일 화요일) [오늘의 주요 사회 일정] 대전·세종·충남 (10월 4일 화요일) [오늘의 주요 사회 일정] 강원(10월4일 월요일) [오늘의 주요 사회 일정] 광주·전남(10월 4일 화요일) 포토뉴스 프롬바이오 ㅂㄹㄷㄷㅇ…캐시워크 퀴즈는 “OOOOO 가을특가” 한국도자재단, 17일까지 경기도자미술관 소장용 ‘한국 현대 도예 작품’ 공개 구입 경기도, ‘더 큰 평화’ 위한 힘찬 출발 2022 ‘DMZ 평화 마라톤 대회’ 개최 [가상화폐 시세] 비트코인 2800만원선 회복…도지코인 86원선, 이더리움 190만원선 거래 인기뉴스 1 소이비랩 저당두유 ㅂㄹㄱㄴㅎ…캐시워크 퀴즈는 “OOOOO 뚜껑” 2 [띠별로 보는 주간운세] 10월 2일 - 10월 8일 원숭이띠 "일거양득의 운세" 3 [오늘의 운세] 9월23일 범띠 “공적으로나 사적으로 바쁠 것” 뱀띠 “계획한대로 밀어붙여라” 4 로코초코 ㄷㄱㅅㅅ…캐시워크 퀴즈는 “OOOO보다” 5 신한마이카 ㅅㄱㅁㅎ…캐시워크 퀴즈는 “OOOO” 6 [오늘의 운세] 9월29일 소띠 “간절히 원하던 것을 이룰 수 있게 된다” 용띠 “좋은 찬스를 잡을 수 있는 기회가 온다” 7 [오늘의 운세] 9월25일 소띠 “기대하지도 않았던 것에서 희망이 보인다” 용띠 “통쾌하고 시원함을 느낄 것” 8 [오늘의 운세] 9월28일 토끼띠 “시간관리를 철저히 해야겠다” 원숭이띠 “너무 큰 것을 바라지 마라” 하단메뉴 신문사소개 조직도 개인정보처리방침 청소년보호정책 이메일무단수집거부 매체정보 서울특별시 마포구 백범로 235 , 5층(신공덕동, 신보빌딩) 대표전화 : 070 7817 0177 팩스 : 02-464-5958 대표법인 : 이코노뉴스 등록번호 : 서울, 아03530 등록일 : 2015-01-19 발행인 : 이종수 편집인 : 조희제 청소년보호책임자 : 조희제 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 조희제 070-7817-0177 hjcho1070@naver.com © 이코노뉴스. All rights reserved. 위로 전체메뉴 전체기사 기업포커스 글로벌비즈 전체 기업 정책 산업 전체 전자/IT 자동차/항공/운송 건설/부동산 조선/철강/기계 유통 에너지/화학 연재 전체 남영진 최성범 남경우 이동준 이현우 최충현 이종수 이민주 김선태 박병호 하응백 한필이 김미영 김광신 민족미래연구소 창업 전체 창업 고용 경제 전체 정책 증권 금융 산업 증시 인물광장 오피니언 전체 기자칼럼 인성교육 커피&amp;티 기고 화폐로 떠나는 세계여행 박병호의 중국견문록 신선윤의 당구이야기 카드뉴스 전체 오늘의 명언 카드뉴스 그래픽 전체메뉴닫기</t>
+    <t>제주도 “일본 백색국가 제외 영향 제한적…농수산물 수출-관광 산업 타격 등 상황 예의주시” &lt; 산업 &lt; 기사본문 - 이코노뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATE : 2022-10-11 13:09 (화) 기사검색 검색 홈 로그인 회원가입 전체기사보기 rss 기업포커스 글로벌비즈 기업 정책 산업 전자/IT 자동차/항공/운송 건설/부동산 조선/철강/기계 유통 에너지/화학 연재 남영진 최성범 남경우 이동준 이현우 최충현 김홍국 이민주 김선태 박병호 하응백 한필이 김미영 김광신 창업 창업 고용 경제 정책 증권 금융 산업 증시 인물광장 오피니언 기자칼럼 인성교육 커피&amp;티 기고 화폐로 떠나는 세계여행 박병호의 중국견문록 신선윤의 당구이야기 카드뉴스 오늘의 명언 카드뉴스 그래픽 전체메뉴 버튼 본문영역 이전 기사보기 다음 기사보기 제주도 “일본 백색국가 제외 영향 제한적…농수산물 수출-관광 산업 타격 등 상황 예의주시” 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 산업 제주도 “일본 백색국가 제외 영향 제한적…농수산물 수출-관광 산업 타격 등 상황 예의주시” 기자명 이혜경 기자 입력 2019.08.03 11:07 수정 2022.09.18 10:27 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 일본 각의(국무회의)가 한국에 대한 '화이트리스트'(전략물자 수출절차 우대국 목록) 제외 조치를 단행했지만 제주에 미치는 영향은 제한적일 전망이다. 다만 향후 무역 분쟁이 심화할 경우 농수산물 수출이나 관광산업에 타격을 입을 수 있다는 우려도 나온다. 2일 제주도 등에 따르면 일본 정부가 ‘리스트 규제 대상’으로 정한 1100여개 전략물자 중 제주에서 수입하는 품목은 미미한 수준인 것으로 나타났다. 제주도 관계자는 이날 뉴시스와의 통화에서 “화이트리스트 제외 조치는 일본에서 수출을 규제하겠다는 것이지만 제주에서 수입하는 품목은 거의 없다”며 “제주는 일본으로부터의 수입보다 농수산물 위주의 수출이 많아 별다른 영향이 없을 것으로 보고 있다”고 말했다. 이혜경 기자 kyung975@naver.com 다른기사 보기 저작권자 © 이코노뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [띠별로 보는 주간운세] 10월 2일 - 10월 8일 원숭이띠 "일거양득의 운세" [오늘의 운세] 10월9일 뱀띠 “천생연분이 될 연인이 들어오는 날” 개띠 “당장은 실속이 없으나 희망찬 내일이 있다” 로코초코 ㄷㄱㅅㅅ…캐시워크 퀴즈는 “OOOO보다” [오늘의 운세] 9월29일 소띠 “간절히 원하던 것을 이룰 수 있게 된다” 용띠 “좋은 찬스를 잡을 수 있는 기회가 온다” [오늘의 운세] 10월1일 쥐띠 “그동안 한 노력의 결과물이 나오니 기쁘겠다” 토끼띠 “돈이 들어온다” 닥터바리스타 버터커피 ㅈㅈㅅㅇ…캐시워크 퀴즈는 “방탄커피를 OOOO” 소이비랩 저당두유 ㄱㄱㄱㅈㅇㅎㄱ…캐시워크 퀴즈는 “OOOOO” 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 경기도, 어린 바지락·동죽조개 505만 마리 서해안 갯벌 방류…“어민 소득증대 기대” 한국조선해양·삼성중공업, 하락에 급락까지…특히 한국조선해양 5% 급락에 7만7000원선 밑으로 SK바이오사이언스·SK케미칼, 모두 급락…특히 SK바이오사이언스 5% 낙폭 나노씨엠에스, 3거래일 연속 상승에 19% 급등…2만2000원선 재돌파 이재용 부회장, 12일 열리는 준법위 회의 참석할 듯…지배구조 개선 작업 속도 내나 경기도소방, 연말까지 폭발성 위험물 취급업소 기획단속…“위법행위 엄중 조치” 최신뉴스 경기도, 어린 바지락·동죽조개 505만 마리 서해안 갯벌 방류…“어민 소득증대 기대” 한국조선해양·삼성중공업, 하락에 급락까지…특히 한국조선해양 5% 급락에 7만7000원선 밑으로 SK바이오사이언스·SK케미칼, 모두 급락…특히 SK바이오사이언스 5% 낙폭 나노씨엠에스, 3거래일 연속 상승에 19% 급등…2만2000원선 재돌파 이재용 부회장, 12일 열리는 준법위 회의 참석할 듯…지배구조 개선 작업 속도 내나 포토뉴스 경기도, 어린 바지락·동죽조개 505만 마리 서해안 갯벌 방류…“어민 소득증대 기대” 한국조선해양·삼성중공업, 하락에 급락까지…특히 한국조선해양 5% 급락에 7만7000원선 밑으로 SK바이오사이언스·SK케미칼, 모두 급락…특히 SK바이오사이언스 5% 낙폭 나노씨엠에스, 3거래일 연속 상승에 19% 급등…2만2000원선 재돌파 인기뉴스 1 [띠별로 보는 주간운세] 10월 2일 - 10월 8일 원숭이띠 "일거양득의 운세" 2 [오늘의 운세] 10월9일 뱀띠 “천생연분이 될 연인이 들어오는 날” 개띠 “당장은 실속이 없으나 희망찬 내일이 있다” 3 로코초코 ㄷㄱㅅㅅ…캐시워크 퀴즈는 “OOOO보다” 4 [오늘의 운세] 9월29일 소띠 “간절히 원하던 것을 이룰 수 있게 된다” 용띠 “좋은 찬스를 잡을 수 있는 기회가 온다” 5 [오늘의 운세] 10월1일 쥐띠 “그동안 한 노력의 결과물이 나오니 기쁘겠다” 토끼띠 “돈이 들어온다” 6 닥터바리스타 버터커피 ㅈㅈㅅㅇ…캐시워크 퀴즈는 “방탄커피를 OOOO” 7 소이비랩 저당두유 ㄱㄱㄱㅈㅇㅎㄱ…캐시워크 퀴즈는 “OOOOO” 8 [오늘의 운세] 10월7일 소띠 “잘한 것에 대한 좋은 결과가 나온다” 용띠 “따뜻한 마음이 전해지는 훈훈한 날” 하단메뉴 신문사소개 조직도 개인정보처리방침 청소년보호정책 이메일무단수집거부 매체정보 서울특별시 마포구 백범로 235 , 5층(신공덕동, 신보빌딩) 대표전화 : 070 7817 0177 팩스 : 02-464-5958 대표법인 : 이코노뉴스 등록번호 : 서울, 아03530 등록일 : 2015-01-19 발행인 : 이종수 편집인 : 조희제 청소년보호책임자 : 조희제 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 조희제 070-7817-0177 hjcho1070@naver.com © 이코노뉴스. All rights reserved. 위로 전체메뉴 전체기사 기업포커스 글로벌비즈 전체 기업 정책 산업 전체 전자/IT 자동차/항공/운송 건설/부동산 조선/철강/기계 유통 에너지/화학 연재 전체 남영진 최성범 남경우 이동준 이현우 최충현 이종수 이민주 김선태 박병호 하응백 한필이 김미영 김광신 민족미래연구소 창업 전체 창업 고용 경제 전체 정책 증권 금융 산업 증시 인물광장 오피니언 전체 기자칼럼 인성교육 커피&amp;티 기고 화폐로 떠나는 세계여행 박병호의 중국견문록 신선윤의 당구이야기 카드뉴스 전체 오늘의 명언 카드뉴스 그래픽 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -437,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -469,9 +757,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -481,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -535,9 +820,6 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
@@ -547,7 +829,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +840,643 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
